--- a/user-data/out-oof-net/out-oof-net.xlsx
+++ b/user-data/out-oof-net/out-oof-net.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>id</t>
   </si>
@@ -320,9 +320,6 @@
   </si>
   <si>
     <t>Source: Development Initiatives based on OECD-DAC data</t>
-  </si>
-  <si>
-    <t>Source-link: NA</t>
   </si>
   <si>
     <t/>
@@ -707,32 +704,32 @@
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="13">
@@ -748,11 +745,6 @@
     <row r="15">
       <c r="A15" t="s">
         <v>108</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="s">
-        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/user-data/out-oof-net/out-oof-net.xlsx
+++ b/user-data/out-oof-net/out-oof-net.xlsx
@@ -8,7 +8,7 @@
   <sheets>
     <sheet name="Notes" sheetId="1" r:id="rId1"/>
     <sheet name="Data" sheetId="2" r:id="rId2"/>
-    <sheet name="Data-wide" sheetId="3" r:id="rId3"/>
+    <sheet name="Data-wide-value" sheetId="3" r:id="rId3"/>
   </sheets>
 </workbook>
 </file>
@@ -328,7 +328,7 @@
     <t>Notes:</t>
   </si>
   <si>
-    <t>On the 'Data-wide' sheet, we have provided the indicator in a wide format. The values you see listed there are only from the 'value' column.</t>
+    <t>On the 'Data-wide-value' sheet, we have provided the indicator in a wide format. The values you see listed there are from the 'value' column.</t>
   </si>
   <si>
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>

--- a/user-data/out-oof-net/out-oof-net.xlsx
+++ b/user-data/out-oof-net/out-oof-net.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>id</t>
   </si>
@@ -334,7 +334,10 @@
     <t>The following is data downloaded from Development Initiative's Datahub: http://devinit.org/data</t>
   </si>
   <si>
-    <t>It is provided on an as-is basis under an open-use license.</t>
+    <t>It is licensed under a Creative Commons Attribution 4.0 International license.</t>
+  </si>
+  <si>
+    <t>More information on licensing is available here: https://creativecommons.org/licenses/by/4.0/</t>
   </si>
   <si>
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
@@ -747,6 +750,11 @@
         <v>108</v>
       </c>
     </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>109</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId2"/>

--- a/user-data/out-oof-net/out-oof-net.xlsx
+++ b/user-data/out-oof-net/out-oof-net.xlsx
@@ -259,7 +259,7 @@
     <t>GB</t>
   </si>
   <si>
-    <t>United Kingdom</t>
+    <t>UK</t>
   </si>
   <si>
     <t>US</t>
@@ -343,7 +343,7 @@
     <t>For concerns, questions, or corrections: please email info@devinit.org</t>
   </si>
   <si>
-    <t>Copyright Development Initiatives Poverty Research Ltd. 2015</t>
+    <t>Copyright Development Initiatives Poverty Research Ltd. 2016</t>
   </si>
 </sst>
 </file>

--- a/user-data/out-oof-net/out-oof-net.xlsx
+++ b/user-data/out-oof-net/out-oof-net.xlsx
@@ -327,7 +327,7 @@
     <t xml:space="preserve">Description: Net other official flows provided, US$.</t>
   </si>
   <si>
-    <t xml:space="preserve">Units of measure: US$</t>
+    <t xml:space="preserve">Units of measure: constant 2015 US$</t>
   </si>
   <si>
     <t xml:space="preserve">Source: Development Initiatives based on OECD DAC.</t>

--- a/user-data/out-oof-net/out-oof-net.xlsx
+++ b/user-data/out-oof-net/out-oof-net.xlsx
@@ -27,12 +27,6 @@
     <t xml:space="preserve">round</t>
   </si>
   <si>
-    <t xml:space="preserve">AE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UAE</t>
-  </si>
-  <si>
     <t xml:space="preserve">afdb</t>
   </si>
   <si>
@@ -43,6 +37,12 @@
   </si>
   <si>
     <t xml:space="preserve">All Donors, Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">badea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arab Bank for Economic Development in Africa (BADEA)</t>
   </si>
   <si>
     <t xml:space="preserve">arab-fund-afesd</t>
@@ -57,22 +57,16 @@
     <t xml:space="preserve">Asian Development Bank (ADB)</t>
   </si>
   <si>
-    <t xml:space="preserve">AT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Austria</t>
-  </si>
-  <si>
     <t xml:space="preserve">AU</t>
   </si>
   <si>
     <t xml:space="preserve">Australia</t>
   </si>
   <si>
-    <t xml:space="preserve">badea</t>
+    <t xml:space="preserve">AT</t>
   </si>
   <si>
-    <t xml:space="preserve">Arab Bank for Economic Development in Africa (BADEA)</t>
+    <t xml:space="preserve">Austria</t>
   </si>
   <si>
     <t xml:space="preserve">BE</t>
@@ -93,22 +87,16 @@
     <t xml:space="preserve">Caribbean Development Bank (CarDB)</t>
   </si>
   <si>
+    <t xml:space="preserve">cif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Climate Investment Funds (CIF)</t>
+  </si>
+  <si>
     <t xml:space="preserve">ceb</t>
   </si>
   <si>
     <t xml:space="preserve">Council of Europe Development Bank (CEB)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Climate Investment Funds (CIF)</t>
   </si>
   <si>
     <t xml:space="preserve">CZ</t>
@@ -123,12 +111,6 @@
     <t xml:space="preserve">DAC Countries, Total</t>
   </si>
   <si>
-    <t xml:space="preserve">DE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Germany</t>
-  </si>
-  <si>
     <t xml:space="preserve">DK</t>
   </si>
   <si>
@@ -139,12 +121,6 @@
   </si>
   <si>
     <t xml:space="preserve">European Bank for Reconstruction and Development (EBRD)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spain</t>
   </si>
   <si>
     <t xml:space="preserve">EU</t>
@@ -165,10 +141,10 @@
     <t xml:space="preserve">France</t>
   </si>
   <si>
-    <t xml:space="preserve">GB</t>
+    <t xml:space="preserve">DE</t>
   </si>
   <si>
-    <t xml:space="preserve">United Kingdom</t>
+    <t xml:space="preserve">Germany</t>
   </si>
   <si>
     <t xml:space="preserve">GR</t>
@@ -177,28 +153,28 @@
     <t xml:space="preserve">Greece</t>
   </si>
   <si>
+    <t xml:space="preserve">idb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inter-American Development Bank (IDB)</t>
+  </si>
+  <si>
     <t xml:space="preserve">ibrd</t>
   </si>
   <si>
     <t xml:space="preserve">International Bank for Reconstruction and Development (IBRD)</t>
   </si>
   <si>
-    <t xml:space="preserve">idb</t>
+    <t xml:space="preserve">ifc</t>
   </si>
   <si>
-    <t xml:space="preserve">Inter-American Development Bank (IDB)</t>
+    <t xml:space="preserve">International Finance Corporation (IFC)</t>
   </si>
   <si>
     <t xml:space="preserve">ifad</t>
   </si>
   <si>
     <t xml:space="preserve">International Fund for Agricultural Development (IFAD)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International Finance Corporation (IFC)</t>
   </si>
   <si>
     <t xml:space="preserve">islamic-dev-bank</t>
@@ -249,10 +225,10 @@
     <t xml:space="preserve">Netherlands</t>
   </si>
   <si>
-    <t xml:space="preserve">NO</t>
+    <t xml:space="preserve">NZ</t>
   </si>
   <si>
-    <t xml:space="preserve">Norway</t>
+    <t xml:space="preserve">New Zealand</t>
   </si>
   <si>
     <t xml:space="preserve">non-dac-countries-total</t>
@@ -267,10 +243,10 @@
     <t xml:space="preserve">Nordic Development Fund (NDF)</t>
   </si>
   <si>
-    <t xml:space="preserve">NZ</t>
+    <t xml:space="preserve">NO</t>
   </si>
   <si>
-    <t xml:space="preserve">New Zealand</t>
+    <t xml:space="preserve">Norway</t>
   </si>
   <si>
     <t xml:space="preserve">ofid</t>
@@ -303,16 +279,40 @@
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
+    <t xml:space="preserve">ES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
     <t xml:space="preserve">SE</t>
   </si>
   <si>
     <t xml:space="preserve">Sweden</t>
   </si>
   <si>
+    <t xml:space="preserve">CH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
     <t xml:space="preserve">TR</t>
   </si>
   <si>
     <t xml:space="preserve">Turkey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UAE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
     <t xml:space="preserve">US</t>
@@ -796,7 +796,7 @@
         <v>2000</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-405143629</v>
       </c>
     </row>
     <row r="3">
@@ -810,7 +810,7 @@
         <v>2001</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-106233350</v>
       </c>
     </row>
     <row r="4">
@@ -824,7 +824,7 @@
         <v>2002</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-1050451599</v>
       </c>
     </row>
     <row r="5">
@@ -838,7 +838,7 @@
         <v>2003</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>-733671395</v>
       </c>
     </row>
     <row r="6">
@@ -852,7 +852,7 @@
         <v>2004</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>-808871586</v>
       </c>
     </row>
     <row r="7">
@@ -866,7 +866,7 @@
         <v>2005</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>-354113990</v>
       </c>
     </row>
     <row r="8">
@@ -880,7 +880,7 @@
         <v>2006</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>-436852717</v>
       </c>
     </row>
     <row r="9">
@@ -894,7 +894,7 @@
         <v>2007</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>105450451</v>
       </c>
     </row>
     <row r="10">
@@ -908,7 +908,7 @@
         <v>2008</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>372017700</v>
       </c>
     </row>
     <row r="11">
@@ -922,7 +922,7 @@
         <v>2009</v>
       </c>
       <c r="D11" t="n">
-        <v>8858601</v>
+        <v>2350100386</v>
       </c>
     </row>
     <row r="12">
@@ -936,7 +936,7 @@
         <v>2010</v>
       </c>
       <c r="D12" t="n">
-        <v>-1691875</v>
+        <v>1082500167</v>
       </c>
     </row>
     <row r="13">
@@ -950,7 +950,7 @@
         <v>2011</v>
       </c>
       <c r="D13" t="n">
-        <v>21730329</v>
+        <v>1814266012</v>
       </c>
     </row>
     <row r="14">
@@ -964,7 +964,7 @@
         <v>2012</v>
       </c>
       <c r="D14" t="n">
-        <v>54855039</v>
+        <v>2409458038</v>
       </c>
     </row>
     <row r="15">
@@ -978,7 +978,7 @@
         <v>2013</v>
       </c>
       <c r="D15" t="n">
-        <v>6663118</v>
+        <v>958697053</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +992,7 @@
         <v>2014</v>
       </c>
       <c r="D16" t="n">
-        <v>449580141</v>
+        <v>1563680939</v>
       </c>
     </row>
     <row r="17">
@@ -1006,7 +1006,7 @@
         <v>2015</v>
       </c>
       <c r="D17" t="n">
-        <v>3836180000</v>
+        <v>996800000</v>
       </c>
     </row>
     <row r="18">
@@ -1019,9 +1019,7 @@
       <c r="C18" t="n">
         <v>2000</v>
       </c>
-      <c r="D18" t="n">
-        <v>-405143629</v>
-      </c>
+      <c r="D18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -1033,9 +1031,7 @@
       <c r="C19" t="n">
         <v>2001</v>
       </c>
-      <c r="D19" t="n">
-        <v>-106233350</v>
-      </c>
+      <c r="D19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -1047,9 +1043,7 @@
       <c r="C20" t="n">
         <v>2002</v>
       </c>
-      <c r="D20" t="n">
-        <v>-1050451599</v>
-      </c>
+      <c r="D20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -1061,9 +1055,7 @@
       <c r="C21" t="n">
         <v>2003</v>
       </c>
-      <c r="D21" t="n">
-        <v>-733671395</v>
-      </c>
+      <c r="D21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -1075,9 +1067,7 @@
       <c r="C22" t="n">
         <v>2004</v>
       </c>
-      <c r="D22" t="n">
-        <v>-808871586</v>
-      </c>
+      <c r="D22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -1089,9 +1079,7 @@
       <c r="C23" t="n">
         <v>2005</v>
       </c>
-      <c r="D23" t="n">
-        <v>-354113990</v>
-      </c>
+      <c r="D23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -1103,9 +1091,7 @@
       <c r="C24" t="n">
         <v>2006</v>
       </c>
-      <c r="D24" t="n">
-        <v>-436852717</v>
-      </c>
+      <c r="D24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -1117,9 +1103,7 @@
       <c r="C25" t="n">
         <v>2007</v>
       </c>
-      <c r="D25" t="n">
-        <v>105450451</v>
-      </c>
+      <c r="D25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -1131,9 +1115,7 @@
       <c r="C26" t="n">
         <v>2008</v>
       </c>
-      <c r="D26" t="n">
-        <v>372017700</v>
-      </c>
+      <c r="D26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -1145,9 +1127,7 @@
       <c r="C27" t="n">
         <v>2009</v>
       </c>
-      <c r="D27" t="n">
-        <v>2350100386</v>
-      </c>
+      <c r="D27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -1159,9 +1139,7 @@
       <c r="C28" t="n">
         <v>2010</v>
       </c>
-      <c r="D28" t="n">
-        <v>1082500167</v>
-      </c>
+      <c r="D28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -1173,9 +1151,7 @@
       <c r="C29" t="n">
         <v>2011</v>
       </c>
-      <c r="D29" t="n">
-        <v>1814266012</v>
-      </c>
+      <c r="D29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -1187,9 +1163,7 @@
       <c r="C30" t="n">
         <v>2012</v>
       </c>
-      <c r="D30" t="n">
-        <v>2409458038</v>
-      </c>
+      <c r="D30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -1201,9 +1175,7 @@
       <c r="C31" t="n">
         <v>2013</v>
       </c>
-      <c r="D31" t="n">
-        <v>958697053</v>
-      </c>
+      <c r="D31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -1215,9 +1187,7 @@
       <c r="C32" t="n">
         <v>2014</v>
       </c>
-      <c r="D32" t="n">
-        <v>1563680939</v>
-      </c>
+      <c r="D32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
@@ -1229,9 +1199,7 @@
       <c r="C33" t="n">
         <v>2015</v>
       </c>
-      <c r="D33" t="n">
-        <v>996800000</v>
-      </c>
+      <c r="D33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
@@ -1243,7 +1211,9 @@
       <c r="C34" t="n">
         <v>2000</v>
       </c>
-      <c r="D34"/>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
@@ -1255,7 +1225,9 @@
       <c r="C35" t="n">
         <v>2001</v>
       </c>
-      <c r="D35"/>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
@@ -1267,7 +1239,9 @@
       <c r="C36" t="n">
         <v>2002</v>
       </c>
-      <c r="D36"/>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
@@ -1279,7 +1253,9 @@
       <c r="C37" t="n">
         <v>2003</v>
       </c>
-      <c r="D37"/>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
@@ -1291,7 +1267,9 @@
       <c r="C38" t="n">
         <v>2004</v>
       </c>
-      <c r="D38"/>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
@@ -1303,7 +1281,9 @@
       <c r="C39" t="n">
         <v>2005</v>
       </c>
-      <c r="D39"/>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
@@ -1315,7 +1295,9 @@
       <c r="C40" t="n">
         <v>2006</v>
       </c>
-      <c r="D40"/>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
@@ -1327,7 +1309,9 @@
       <c r="C41" t="n">
         <v>2007</v>
       </c>
-      <c r="D41"/>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
@@ -1339,7 +1323,9 @@
       <c r="C42" t="n">
         <v>2008</v>
       </c>
-      <c r="D42"/>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
@@ -1351,7 +1337,9 @@
       <c r="C43" t="n">
         <v>2009</v>
       </c>
-      <c r="D43"/>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
@@ -1363,7 +1351,9 @@
       <c r="C44" t="n">
         <v>2010</v>
       </c>
-      <c r="D44"/>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
@@ -1375,7 +1365,9 @@
       <c r="C45" t="n">
         <v>2011</v>
       </c>
-      <c r="D45"/>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
@@ -1387,7 +1379,9 @@
       <c r="C46" t="n">
         <v>2012</v>
       </c>
-      <c r="D46"/>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
@@ -1399,7 +1393,9 @@
       <c r="C47" t="n">
         <v>2013</v>
       </c>
-      <c r="D47"/>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
@@ -1411,7 +1407,9 @@
       <c r="C48" t="n">
         <v>2014</v>
       </c>
-      <c r="D48"/>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
@@ -1423,7 +1421,9 @@
       <c r="C49" t="n">
         <v>2015</v>
       </c>
-      <c r="D49"/>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
@@ -1884,7 +1884,7 @@
         <v>2000</v>
       </c>
       <c r="D82" t="n">
-        <v>113049137</v>
+        <v>1002593305</v>
       </c>
     </row>
     <row r="83">
@@ -1898,7 +1898,7 @@
         <v>2001</v>
       </c>
       <c r="D83" t="n">
-        <v>-208691520</v>
+        <v>-57725023</v>
       </c>
     </row>
     <row r="84">
@@ -1912,7 +1912,7 @@
         <v>2002</v>
       </c>
       <c r="D84" t="n">
-        <v>-53715845</v>
+        <v>-69401177</v>
       </c>
     </row>
     <row r="85">
@@ -1926,7 +1926,7 @@
         <v>2003</v>
       </c>
       <c r="D85" t="n">
-        <v>54006230</v>
+        <v>-13129740</v>
       </c>
     </row>
     <row r="86">
@@ -1940,7 +1940,7 @@
         <v>2004</v>
       </c>
       <c r="D86" t="n">
-        <v>-249097228</v>
+        <v>-108478368</v>
       </c>
     </row>
     <row r="87">
@@ -1954,7 +1954,7 @@
         <v>2005</v>
       </c>
       <c r="D87" t="n">
-        <v>328499079</v>
+        <v>-115544990</v>
       </c>
     </row>
     <row r="88">
@@ -1968,7 +1968,7 @@
         <v>2006</v>
       </c>
       <c r="D88" t="n">
-        <v>-460837337</v>
+        <v>233132731</v>
       </c>
     </row>
     <row r="89">
@@ -1982,7 +1982,7 @@
         <v>2007</v>
       </c>
       <c r="D89" t="n">
-        <v>-576591323</v>
+        <v>-23774712</v>
       </c>
     </row>
     <row r="90">
@@ -1996,7 +1996,7 @@
         <v>2008</v>
       </c>
       <c r="D90" t="n">
-        <v>88270735</v>
+        <v>-110421820</v>
       </c>
     </row>
     <row r="91">
@@ -2010,7 +2010,7 @@
         <v>2009</v>
       </c>
       <c r="D91" t="n">
-        <v>-38194140</v>
+        <v>394483576</v>
       </c>
     </row>
     <row r="92">
@@ -2024,7 +2024,7 @@
         <v>2010</v>
       </c>
       <c r="D92" t="n">
-        <v>-140504185</v>
+        <v>228447140</v>
       </c>
     </row>
     <row r="93">
@@ -2038,7 +2038,7 @@
         <v>2011</v>
       </c>
       <c r="D93" t="n">
-        <v>25726307</v>
+        <v>191361017</v>
       </c>
     </row>
     <row r="94">
@@ -2052,7 +2052,7 @@
         <v>2012</v>
       </c>
       <c r="D94" t="n">
-        <v>43771403</v>
+        <v>239146695</v>
       </c>
     </row>
     <row r="95">
@@ -2066,7 +2066,7 @@
         <v>2013</v>
       </c>
       <c r="D95" t="n">
-        <v>390381634</v>
+        <v>359355168</v>
       </c>
     </row>
     <row r="96">
@@ -2080,7 +2080,7 @@
         <v>2014</v>
       </c>
       <c r="D96" t="n">
-        <v>105476993</v>
+        <v>120211016</v>
       </c>
     </row>
     <row r="97">
@@ -2094,7 +2094,7 @@
         <v>2015</v>
       </c>
       <c r="D97" t="n">
-        <v>-1090000</v>
+        <v>275480000</v>
       </c>
     </row>
     <row r="98">
@@ -2108,7 +2108,7 @@
         <v>2000</v>
       </c>
       <c r="D98" t="n">
-        <v>1002593305</v>
+        <v>113049137</v>
       </c>
     </row>
     <row r="99">
@@ -2122,7 +2122,7 @@
         <v>2001</v>
       </c>
       <c r="D99" t="n">
-        <v>-57725023</v>
+        <v>-208691520</v>
       </c>
     </row>
     <row r="100">
@@ -2136,7 +2136,7 @@
         <v>2002</v>
       </c>
       <c r="D100" t="n">
-        <v>-69401177</v>
+        <v>-53715845</v>
       </c>
     </row>
     <row r="101">
@@ -2150,7 +2150,7 @@
         <v>2003</v>
       </c>
       <c r="D101" t="n">
-        <v>-13129740</v>
+        <v>54006230</v>
       </c>
     </row>
     <row r="102">
@@ -2164,7 +2164,7 @@
         <v>2004</v>
       </c>
       <c r="D102" t="n">
-        <v>-108478368</v>
+        <v>-249097228</v>
       </c>
     </row>
     <row r="103">
@@ -2178,7 +2178,7 @@
         <v>2005</v>
       </c>
       <c r="D103" t="n">
-        <v>-115544990</v>
+        <v>328499079</v>
       </c>
     </row>
     <row r="104">
@@ -2192,7 +2192,7 @@
         <v>2006</v>
       </c>
       <c r="D104" t="n">
-        <v>233132731</v>
+        <v>-460837337</v>
       </c>
     </row>
     <row r="105">
@@ -2206,7 +2206,7 @@
         <v>2007</v>
       </c>
       <c r="D105" t="n">
-        <v>-23774712</v>
+        <v>-576591323</v>
       </c>
     </row>
     <row r="106">
@@ -2220,7 +2220,7 @@
         <v>2008</v>
       </c>
       <c r="D106" t="n">
-        <v>-110421820</v>
+        <v>88270735</v>
       </c>
     </row>
     <row r="107">
@@ -2234,7 +2234,7 @@
         <v>2009</v>
       </c>
       <c r="D107" t="n">
-        <v>394483576</v>
+        <v>-38194140</v>
       </c>
     </row>
     <row r="108">
@@ -2248,7 +2248,7 @@
         <v>2010</v>
       </c>
       <c r="D108" t="n">
-        <v>228447140</v>
+        <v>-140504185</v>
       </c>
     </row>
     <row r="109">
@@ -2262,7 +2262,7 @@
         <v>2011</v>
       </c>
       <c r="D109" t="n">
-        <v>191361017</v>
+        <v>25726307</v>
       </c>
     </row>
     <row r="110">
@@ -2276,7 +2276,7 @@
         <v>2012</v>
       </c>
       <c r="D110" t="n">
-        <v>239146695</v>
+        <v>43771403</v>
       </c>
     </row>
     <row r="111">
@@ -2290,7 +2290,7 @@
         <v>2013</v>
       </c>
       <c r="D111" t="n">
-        <v>359355168</v>
+        <v>390381634</v>
       </c>
     </row>
     <row r="112">
@@ -2304,7 +2304,7 @@
         <v>2014</v>
       </c>
       <c r="D112" t="n">
-        <v>120211016</v>
+        <v>105476993</v>
       </c>
     </row>
     <row r="113">
@@ -2318,7 +2318,7 @@
         <v>2015</v>
       </c>
       <c r="D113" t="n">
-        <v>275480000</v>
+        <v>-1090000</v>
       </c>
     </row>
     <row r="114">
@@ -2332,7 +2332,7 @@
         <v>2000</v>
       </c>
       <c r="D114" t="n">
-        <v>0</v>
+        <v>-13484995</v>
       </c>
     </row>
     <row r="115">
@@ -2346,7 +2346,7 @@
         <v>2001</v>
       </c>
       <c r="D115" t="n">
-        <v>0</v>
+        <v>10898727</v>
       </c>
     </row>
     <row r="116">
@@ -2360,7 +2360,7 @@
         <v>2002</v>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>153910649</v>
       </c>
     </row>
     <row r="117">
@@ -2374,7 +2374,7 @@
         <v>2003</v>
       </c>
       <c r="D117" t="n">
-        <v>0</v>
+        <v>1138981872</v>
       </c>
     </row>
     <row r="118">
@@ -2388,7 +2388,7 @@
         <v>2004</v>
       </c>
       <c r="D118" t="n">
-        <v>0</v>
+        <v>-98803667</v>
       </c>
     </row>
     <row r="119">
@@ -2402,7 +2402,7 @@
         <v>2005</v>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>407006040</v>
       </c>
     </row>
     <row r="120">
@@ -2416,7 +2416,7 @@
         <v>2006</v>
       </c>
       <c r="D120" t="n">
-        <v>0</v>
+        <v>-437135752</v>
       </c>
     </row>
     <row r="121">
@@ -2430,7 +2430,7 @@
         <v>2007</v>
       </c>
       <c r="D121" t="n">
-        <v>0</v>
+        <v>-146076334</v>
       </c>
     </row>
     <row r="122">
@@ -2444,7 +2444,7 @@
         <v>2008</v>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>-116037010</v>
       </c>
     </row>
     <row r="123">
@@ -2458,7 +2458,7 @@
         <v>2009</v>
       </c>
       <c r="D123" t="n">
-        <v>0</v>
+        <v>78038441</v>
       </c>
     </row>
     <row r="124">
@@ -2472,7 +2472,7 @@
         <v>2010</v>
       </c>
       <c r="D124" t="n">
-        <v>0</v>
+        <v>-13477622</v>
       </c>
     </row>
     <row r="125">
@@ -2486,7 +2486,7 @@
         <v>2011</v>
       </c>
       <c r="D125" t="n">
-        <v>0</v>
+        <v>-12411137</v>
       </c>
     </row>
     <row r="126">
@@ -2500,7 +2500,7 @@
         <v>2012</v>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>48566468</v>
       </c>
     </row>
     <row r="127">
@@ -2514,7 +2514,7 @@
         <v>2013</v>
       </c>
       <c r="D127" t="n">
-        <v>0</v>
+        <v>64517182</v>
       </c>
     </row>
     <row r="128">
@@ -2528,7 +2528,7 @@
         <v>2014</v>
       </c>
       <c r="D128" t="n">
-        <v>0</v>
+        <v>-37033092</v>
       </c>
     </row>
     <row r="129">
@@ -2542,7 +2542,7 @@
         <v>2015</v>
       </c>
       <c r="D129" t="n">
-        <v>0</v>
+        <v>-27720000</v>
       </c>
     </row>
     <row r="130">
@@ -2556,7 +2556,7 @@
         <v>2000</v>
       </c>
       <c r="D130" t="n">
-        <v>-13484995</v>
+        <v>7582957</v>
       </c>
     </row>
     <row r="131">
@@ -2570,7 +2570,7 @@
         <v>2001</v>
       </c>
       <c r="D131" t="n">
-        <v>10898727</v>
+        <v>-158157721</v>
       </c>
     </row>
     <row r="132">
@@ -2584,7 +2584,7 @@
         <v>2002</v>
       </c>
       <c r="D132" t="n">
-        <v>153910649</v>
+        <v>-687143534</v>
       </c>
     </row>
     <row r="133">
@@ -2598,7 +2598,7 @@
         <v>2003</v>
       </c>
       <c r="D133" t="n">
-        <v>1138981872</v>
+        <v>-500665872</v>
       </c>
     </row>
     <row r="134">
@@ -2612,7 +2612,7 @@
         <v>2004</v>
       </c>
       <c r="D134" t="n">
-        <v>-98803667</v>
+        <v>-998366247</v>
       </c>
     </row>
     <row r="135">
@@ -2626,7 +2626,7 @@
         <v>2005</v>
       </c>
       <c r="D135" t="n">
-        <v>407006040</v>
+        <v>-606472365</v>
       </c>
     </row>
     <row r="136">
@@ -2640,7 +2640,7 @@
         <v>2006</v>
       </c>
       <c r="D136" t="n">
-        <v>-437135752</v>
+        <v>368398367</v>
       </c>
     </row>
     <row r="137">
@@ -2654,7 +2654,7 @@
         <v>2007</v>
       </c>
       <c r="D137" t="n">
-        <v>-146076334</v>
+        <v>-4023024</v>
       </c>
     </row>
     <row r="138">
@@ -2668,7 +2668,7 @@
         <v>2008</v>
       </c>
       <c r="D138" t="n">
-        <v>-116037010</v>
+        <v>1461848859</v>
       </c>
     </row>
     <row r="139">
@@ -2682,7 +2682,7 @@
         <v>2009</v>
       </c>
       <c r="D139" t="n">
-        <v>78038441</v>
+        <v>-1127762675</v>
       </c>
     </row>
     <row r="140">
@@ -2696,7 +2696,7 @@
         <v>2010</v>
       </c>
       <c r="D140" t="n">
-        <v>-13477622</v>
+        <v>1177375642</v>
       </c>
     </row>
     <row r="141">
@@ -2710,7 +2710,7 @@
         <v>2011</v>
       </c>
       <c r="D141" t="n">
-        <v>-12411137</v>
+        <v>267659560</v>
       </c>
     </row>
     <row r="142">
@@ -2724,7 +2724,7 @@
         <v>2012</v>
       </c>
       <c r="D142" t="n">
-        <v>48566468</v>
+        <v>143851154</v>
       </c>
     </row>
     <row r="143">
@@ -2738,7 +2738,7 @@
         <v>2013</v>
       </c>
       <c r="D143" t="n">
-        <v>64517182</v>
+        <v>347917301</v>
       </c>
     </row>
     <row r="144">
@@ -2752,7 +2752,7 @@
         <v>2014</v>
       </c>
       <c r="D144" t="n">
-        <v>-37033092</v>
+        <v>473435861</v>
       </c>
     </row>
     <row r="145">
@@ -2766,7 +2766,7 @@
         <v>2015</v>
       </c>
       <c r="D145" t="n">
-        <v>-27720000</v>
+        <v>557460000</v>
       </c>
     </row>
     <row r="146">
@@ -2780,7 +2780,7 @@
         <v>2000</v>
       </c>
       <c r="D146" t="n">
-        <v>7582957</v>
+        <v>66647755</v>
       </c>
     </row>
     <row r="147">
@@ -2794,7 +2794,7 @@
         <v>2001</v>
       </c>
       <c r="D147" t="n">
-        <v>-158157721</v>
+        <v>43179261</v>
       </c>
     </row>
     <row r="148">
@@ -2808,7 +2808,7 @@
         <v>2002</v>
       </c>
       <c r="D148" t="n">
-        <v>-687143534</v>
+        <v>78433611</v>
       </c>
     </row>
     <row r="149">
@@ -2822,7 +2822,7 @@
         <v>2003</v>
       </c>
       <c r="D149" t="n">
-        <v>-500665872</v>
+        <v>54771374</v>
       </c>
     </row>
     <row r="150">
@@ -2836,7 +2836,7 @@
         <v>2004</v>
       </c>
       <c r="D150" t="n">
-        <v>-998366247</v>
+        <v>127403599</v>
       </c>
     </row>
     <row r="151">
@@ -2850,7 +2850,7 @@
         <v>2005</v>
       </c>
       <c r="D151" t="n">
-        <v>-606472365</v>
+        <v>19033587</v>
       </c>
     </row>
     <row r="152">
@@ -2864,7 +2864,7 @@
         <v>2006</v>
       </c>
       <c r="D152" t="n">
-        <v>368398367</v>
+        <v>36630410</v>
       </c>
     </row>
     <row r="153">
@@ -2878,7 +2878,7 @@
         <v>2007</v>
       </c>
       <c r="D153" t="n">
-        <v>-4023024</v>
+        <v>44248858</v>
       </c>
     </row>
     <row r="154">
@@ -2892,7 +2892,7 @@
         <v>2008</v>
       </c>
       <c r="D154" t="n">
-        <v>1461848859</v>
+        <v>26525441</v>
       </c>
     </row>
     <row r="155">
@@ -2906,7 +2906,7 @@
         <v>2009</v>
       </c>
       <c r="D155" t="n">
-        <v>-1127762675</v>
+        <v>50939493</v>
       </c>
     </row>
     <row r="156">
@@ -2920,7 +2920,7 @@
         <v>2010</v>
       </c>
       <c r="D156" t="n">
-        <v>1177375642</v>
+        <v>124269406</v>
       </c>
     </row>
     <row r="157">
@@ -2934,7 +2934,7 @@
         <v>2011</v>
       </c>
       <c r="D157" t="n">
-        <v>267659560</v>
+        <v>32068682</v>
       </c>
     </row>
     <row r="158">
@@ -2948,7 +2948,7 @@
         <v>2012</v>
       </c>
       <c r="D158" t="n">
-        <v>143851154</v>
+        <v>-9301039</v>
       </c>
     </row>
     <row r="159">
@@ -2962,7 +2962,7 @@
         <v>2013</v>
       </c>
       <c r="D159" t="n">
-        <v>347917301</v>
+        <v>-8959196</v>
       </c>
     </row>
     <row r="160">
@@ -2976,7 +2976,7 @@
         <v>2014</v>
       </c>
       <c r="D160" t="n">
-        <v>473435861</v>
+        <v>-1157279</v>
       </c>
     </row>
     <row r="161">
@@ -2990,7 +2990,7 @@
         <v>2015</v>
       </c>
       <c r="D161" t="n">
-        <v>557460000</v>
+        <v>34940000</v>
       </c>
     </row>
     <row r="162">
@@ -3004,7 +3004,7 @@
         <v>2000</v>
       </c>
       <c r="D162" t="n">
-        <v>66647755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -3018,7 +3018,7 @@
         <v>2001</v>
       </c>
       <c r="D163" t="n">
-        <v>43179261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -3032,7 +3032,7 @@
         <v>2002</v>
       </c>
       <c r="D164" t="n">
-        <v>78433611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -3046,7 +3046,7 @@
         <v>2003</v>
       </c>
       <c r="D165" t="n">
-        <v>54771374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -3060,7 +3060,7 @@
         <v>2004</v>
       </c>
       <c r="D166" t="n">
-        <v>127403599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -3074,7 +3074,7 @@
         <v>2005</v>
       </c>
       <c r="D167" t="n">
-        <v>19033587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -3088,7 +3088,7 @@
         <v>2006</v>
       </c>
       <c r="D168" t="n">
-        <v>36630410</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -3102,7 +3102,7 @@
         <v>2007</v>
       </c>
       <c r="D169" t="n">
-        <v>44248858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -3116,7 +3116,7 @@
         <v>2008</v>
       </c>
       <c r="D170" t="n">
-        <v>26525441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -3130,7 +3130,7 @@
         <v>2009</v>
       </c>
       <c r="D171" t="n">
-        <v>50939493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -3144,7 +3144,7 @@
         <v>2010</v>
       </c>
       <c r="D172" t="n">
-        <v>124269406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -3158,7 +3158,7 @@
         <v>2011</v>
       </c>
       <c r="D173" t="n">
-        <v>32068682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -3172,7 +3172,7 @@
         <v>2012</v>
       </c>
       <c r="D174" t="n">
-        <v>-9301039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -3186,7 +3186,7 @@
         <v>2013</v>
       </c>
       <c r="D175" t="n">
-        <v>-8959196</v>
+        <v>61894992</v>
       </c>
     </row>
     <row r="176">
@@ -3200,7 +3200,7 @@
         <v>2014</v>
       </c>
       <c r="D176" t="n">
-        <v>-1157279</v>
+        <v>49269572</v>
       </c>
     </row>
     <row r="177">
@@ -3214,7 +3214,7 @@
         <v>2015</v>
       </c>
       <c r="D177" t="n">
-        <v>34940000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -3452,7 +3452,7 @@
         <v>2000</v>
       </c>
       <c r="D194" t="n">
-        <v>14248403</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
@@ -3466,7 +3466,7 @@
         <v>2001</v>
       </c>
       <c r="D195" t="n">
-        <v>12037932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -3480,7 +3480,7 @@
         <v>2002</v>
       </c>
       <c r="D196" t="n">
-        <v>5572953</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -3494,7 +3494,7 @@
         <v>2003</v>
       </c>
       <c r="D197" t="n">
-        <v>89120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
@@ -3536,7 +3536,7 @@
         <v>2006</v>
       </c>
       <c r="D200" t="n">
-        <v>23158359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
@@ -3648,7 +3648,7 @@
         <v>2014</v>
       </c>
       <c r="D208" t="n">
-        <v>0</v>
+        <v>4273035</v>
       </c>
     </row>
     <row r="209">
@@ -3662,7 +3662,7 @@
         <v>2015</v>
       </c>
       <c r="D209" t="n">
-        <v>0</v>
+        <v>49500000</v>
       </c>
     </row>
     <row r="210">
@@ -3676,7 +3676,7 @@
         <v>2000</v>
       </c>
       <c r="D210" t="n">
-        <v>0</v>
+        <v>-6664748801</v>
       </c>
     </row>
     <row r="211">
@@ -3690,7 +3690,7 @@
         <v>2001</v>
       </c>
       <c r="D211" t="n">
-        <v>0</v>
+        <v>-1402201511</v>
       </c>
     </row>
     <row r="212">
@@ -3704,7 +3704,7 @@
         <v>2002</v>
       </c>
       <c r="D212" t="n">
-        <v>0</v>
+        <v>3568654699</v>
       </c>
     </row>
     <row r="213">
@@ -3718,7 +3718,7 @@
         <v>2003</v>
       </c>
       <c r="D213" t="n">
-        <v>0</v>
+        <v>-959991298</v>
       </c>
     </row>
     <row r="214">
@@ -3732,7 +3732,7 @@
         <v>2004</v>
       </c>
       <c r="D214" t="n">
-        <v>0</v>
+        <v>-5532562061</v>
       </c>
     </row>
     <row r="215">
@@ -3746,7 +3746,7 @@
         <v>2005</v>
       </c>
       <c r="D215" t="n">
-        <v>0</v>
+        <v>3170032773</v>
       </c>
     </row>
     <row r="216">
@@ -3760,7 +3760,7 @@
         <v>2006</v>
       </c>
       <c r="D216" t="n">
-        <v>0</v>
+        <v>-9900644003</v>
       </c>
     </row>
     <row r="217">
@@ -3774,7 +3774,7 @@
         <v>2007</v>
       </c>
       <c r="D217" t="n">
-        <v>0</v>
+        <v>-5747652637</v>
       </c>
     </row>
     <row r="218">
@@ -3788,7 +3788,7 @@
         <v>2008</v>
       </c>
       <c r="D218" t="n">
-        <v>0</v>
+        <v>-591939055</v>
       </c>
     </row>
     <row r="219">
@@ -3802,7 +3802,7 @@
         <v>2009</v>
       </c>
       <c r="D219" t="n">
-        <v>0</v>
+        <v>7643639433</v>
       </c>
     </row>
     <row r="220">
@@ -3816,7 +3816,7 @@
         <v>2010</v>
       </c>
       <c r="D220" t="n">
-        <v>0</v>
+        <v>5216420049</v>
       </c>
     </row>
     <row r="221">
@@ -3830,7 +3830,7 @@
         <v>2011</v>
       </c>
       <c r="D221" t="n">
-        <v>0</v>
+        <v>6732352070</v>
       </c>
     </row>
     <row r="222">
@@ -3844,7 +3844,7 @@
         <v>2012</v>
       </c>
       <c r="D222" t="n">
-        <v>0</v>
+        <v>8413464087</v>
       </c>
     </row>
     <row r="223">
@@ -3858,7 +3858,7 @@
         <v>2013</v>
       </c>
       <c r="D223" t="n">
-        <v>61894992</v>
+        <v>5672675076</v>
       </c>
     </row>
     <row r="224">
@@ -3872,7 +3872,7 @@
         <v>2014</v>
       </c>
       <c r="D224" t="n">
-        <v>49269572</v>
+        <v>3026759368</v>
       </c>
     </row>
     <row r="225">
@@ -3886,7 +3886,7 @@
         <v>2015</v>
       </c>
       <c r="D225" t="n">
-        <v>0</v>
+        <v>5199440000</v>
       </c>
     </row>
     <row r="226">
@@ -3900,7 +3900,7 @@
         <v>2000</v>
       </c>
       <c r="D226" t="n">
-        <v>0</v>
+        <v>-4259231</v>
       </c>
     </row>
     <row r="227">
@@ -3914,7 +3914,7 @@
         <v>2001</v>
       </c>
       <c r="D227" t="n">
-        <v>0</v>
+        <v>-6467759</v>
       </c>
     </row>
     <row r="228">
@@ -3928,7 +3928,7 @@
         <v>2002</v>
       </c>
       <c r="D228" t="n">
-        <v>0</v>
+        <v>-4987480</v>
       </c>
     </row>
     <row r="229">
@@ -3942,7 +3942,7 @@
         <v>2003</v>
       </c>
       <c r="D229" t="n">
-        <v>0</v>
+        <v>51081956</v>
       </c>
     </row>
     <row r="230">
@@ -3956,7 +3956,7 @@
         <v>2004</v>
       </c>
       <c r="D230" t="n">
-        <v>0</v>
+        <v>22832218</v>
       </c>
     </row>
     <row r="231">
@@ -3970,7 +3970,7 @@
         <v>2005</v>
       </c>
       <c r="D231" t="n">
-        <v>0</v>
+        <v>-8843956</v>
       </c>
     </row>
     <row r="232">
@@ -3984,7 +3984,7 @@
         <v>2006</v>
       </c>
       <c r="D232" t="n">
-        <v>0</v>
+        <v>-80975882</v>
       </c>
     </row>
     <row r="233">
@@ -3998,7 +3998,7 @@
         <v>2007</v>
       </c>
       <c r="D233" t="n">
-        <v>0</v>
+        <v>-108890586</v>
       </c>
     </row>
     <row r="234">
@@ -4012,7 +4012,7 @@
         <v>2008</v>
       </c>
       <c r="D234" t="n">
-        <v>0</v>
+        <v>-66483754</v>
       </c>
     </row>
     <row r="235">
@@ -4026,7 +4026,7 @@
         <v>2009</v>
       </c>
       <c r="D235" t="n">
-        <v>0</v>
+        <v>5584653</v>
       </c>
     </row>
     <row r="236">
@@ -4040,7 +4040,7 @@
         <v>2010</v>
       </c>
       <c r="D236" t="n">
-        <v>0</v>
+        <v>-30243067</v>
       </c>
     </row>
     <row r="237">
@@ -4054,7 +4054,7 @@
         <v>2011</v>
       </c>
       <c r="D237" t="n">
-        <v>0</v>
+        <v>8891782</v>
       </c>
     </row>
     <row r="238">
@@ -4068,7 +4068,7 @@
         <v>2012</v>
       </c>
       <c r="D238" t="n">
-        <v>0</v>
+        <v>4931585</v>
       </c>
     </row>
     <row r="239">
@@ -4082,7 +4082,7 @@
         <v>2013</v>
       </c>
       <c r="D239" t="n">
-        <v>0</v>
+        <v>6955934</v>
       </c>
     </row>
     <row r="240">
@@ -4096,7 +4096,7 @@
         <v>2014</v>
       </c>
       <c r="D240" t="n">
-        <v>4273035</v>
+        <v>12540049</v>
       </c>
     </row>
     <row r="241">
@@ -4110,7 +4110,7 @@
         <v>2015</v>
       </c>
       <c r="D241" t="n">
-        <v>49500000</v>
+        <v>4230000</v>
       </c>
     </row>
     <row r="242">
@@ -4124,7 +4124,7 @@
         <v>2000</v>
       </c>
       <c r="D242" t="n">
-        <v>-6664748801</v>
+        <v>315999755</v>
       </c>
     </row>
     <row r="243">
@@ -4138,7 +4138,7 @@
         <v>2001</v>
       </c>
       <c r="D243" t="n">
-        <v>-1402201511</v>
+        <v>312107904</v>
       </c>
     </row>
     <row r="244">
@@ -4152,7 +4152,7 @@
         <v>2002</v>
       </c>
       <c r="D244" t="n">
-        <v>3568654699</v>
+        <v>125347299</v>
       </c>
     </row>
     <row r="245">
@@ -4166,7 +4166,7 @@
         <v>2003</v>
       </c>
       <c r="D245" t="n">
-        <v>-959991298</v>
+        <v>260760927</v>
       </c>
     </row>
     <row r="246">
@@ -4180,7 +4180,7 @@
         <v>2004</v>
       </c>
       <c r="D246" t="n">
-        <v>-5532562061</v>
+        <v>936658469</v>
       </c>
     </row>
     <row r="247">
@@ -4194,7 +4194,7 @@
         <v>2005</v>
       </c>
       <c r="D247" t="n">
-        <v>3170032773</v>
+        <v>37822745</v>
       </c>
     </row>
     <row r="248">
@@ -4208,7 +4208,7 @@
         <v>2006</v>
       </c>
       <c r="D248" t="n">
-        <v>-9900644003</v>
+        <v>481204090</v>
       </c>
     </row>
     <row r="249">
@@ -4222,7 +4222,7 @@
         <v>2007</v>
       </c>
       <c r="D249" t="n">
-        <v>-5747652637</v>
+        <v>1358302931</v>
       </c>
     </row>
     <row r="250">
@@ -4236,7 +4236,7 @@
         <v>2008</v>
       </c>
       <c r="D250" t="n">
-        <v>-591939055</v>
+        <v>1826185184</v>
       </c>
     </row>
     <row r="251">
@@ -4250,7 +4250,7 @@
         <v>2009</v>
       </c>
       <c r="D251" t="n">
-        <v>7643639433</v>
+        <v>1936479300</v>
       </c>
     </row>
     <row r="252">
@@ -4264,7 +4264,7 @@
         <v>2010</v>
       </c>
       <c r="D252" t="n">
-        <v>5216420049</v>
+        <v>1892314475</v>
       </c>
     </row>
     <row r="253">
@@ -4278,7 +4278,7 @@
         <v>2011</v>
       </c>
       <c r="D253" t="n">
-        <v>6732352070</v>
+        <v>2039755850</v>
       </c>
     </row>
     <row r="254">
@@ -4292,7 +4292,7 @@
         <v>2012</v>
       </c>
       <c r="D254" t="n">
-        <v>8413464087</v>
+        <v>1601010318</v>
       </c>
     </row>
     <row r="255">
@@ -4306,7 +4306,7 @@
         <v>2013</v>
       </c>
       <c r="D255" t="n">
-        <v>5672675076</v>
+        <v>1511826138</v>
       </c>
     </row>
     <row r="256">
@@ -4320,7 +4320,7 @@
         <v>2014</v>
       </c>
       <c r="D256" t="n">
-        <v>3026759368</v>
+        <v>1574222044</v>
       </c>
     </row>
     <row r="257">
@@ -4334,7 +4334,7 @@
         <v>2015</v>
       </c>
       <c r="D257" t="n">
-        <v>5199440000</v>
+        <v>2246700000</v>
       </c>
     </row>
     <row r="258">
@@ -4348,7 +4348,7 @@
         <v>2000</v>
       </c>
       <c r="D258" t="n">
-        <v>-665039297</v>
+        <v>653362514</v>
       </c>
     </row>
     <row r="259">
@@ -4362,7 +4362,7 @@
         <v>2001</v>
       </c>
       <c r="D259" t="n">
-        <v>-981593148</v>
+        <v>509891513</v>
       </c>
     </row>
     <row r="260">
@@ -4376,7 +4376,7 @@
         <v>2002</v>
       </c>
       <c r="D260" t="n">
-        <v>5153811786</v>
+        <v>1260356625</v>
       </c>
     </row>
     <row r="261">
@@ -4390,7 +4390,7 @@
         <v>2003</v>
       </c>
       <c r="D261" t="n">
-        <v>-4080911887</v>
+        <v>1334561977</v>
       </c>
     </row>
     <row r="262">
@@ -4404,7 +4404,7 @@
         <v>2004</v>
       </c>
       <c r="D262" t="n">
-        <v>-1082874717</v>
+        <v>1927970662</v>
       </c>
     </row>
     <row r="263">
@@ -4418,7 +4418,7 @@
         <v>2005</v>
       </c>
       <c r="D263" t="n">
-        <v>7219482186</v>
+        <v>1625560089</v>
       </c>
     </row>
     <row r="264">
@@ -4432,7 +4432,7 @@
         <v>2006</v>
       </c>
       <c r="D264" t="n">
-        <v>-5786096473</v>
+        <v>1838301255</v>
       </c>
     </row>
     <row r="265">
@@ -4446,7 +4446,7 @@
         <v>2007</v>
       </c>
       <c r="D265" t="n">
-        <v>-2300362785</v>
+        <v>4185509319</v>
       </c>
     </row>
     <row r="266">
@@ -4460,7 +4460,7 @@
         <v>2008</v>
       </c>
       <c r="D266" t="n">
-        <v>-395978805</v>
+        <v>3677012897</v>
       </c>
     </row>
     <row r="267">
@@ -4474,7 +4474,7 @@
         <v>2009</v>
       </c>
       <c r="D267" t="n">
-        <v>163178348</v>
+        <v>3978074421</v>
       </c>
     </row>
     <row r="268">
@@ -4488,7 +4488,7 @@
         <v>2010</v>
       </c>
       <c r="D268" t="n">
-        <v>-371169922</v>
+        <v>4940147287</v>
       </c>
     </row>
     <row r="269">
@@ -4502,7 +4502,7 @@
         <v>2011</v>
       </c>
       <c r="D269" t="n">
-        <v>-351404321</v>
+        <v>-662551628</v>
       </c>
     </row>
     <row r="270">
@@ -4516,7 +4516,7 @@
         <v>2012</v>
       </c>
       <c r="D270" t="n">
-        <v>-773254842</v>
+        <v>-891474104</v>
       </c>
     </row>
     <row r="271">
@@ -4530,7 +4530,7 @@
         <v>2013</v>
       </c>
       <c r="D271" t="n">
-        <v>-317587029</v>
+        <v>-455542003</v>
       </c>
     </row>
     <row r="272">
@@ -4544,7 +4544,7 @@
         <v>2014</v>
       </c>
       <c r="D272" t="n">
-        <v>264793044</v>
+        <v>-1643172673</v>
       </c>
     </row>
     <row r="273">
@@ -4558,7 +4558,7 @@
         <v>2015</v>
       </c>
       <c r="D273" t="n">
-        <v>1516360000</v>
+        <v>-1356480000</v>
       </c>
     </row>
     <row r="274">
@@ -4572,7 +4572,7 @@
         <v>2000</v>
       </c>
       <c r="D274" t="n">
-        <v>-4259231</v>
+        <v>3314395</v>
       </c>
     </row>
     <row r="275">
@@ -4586,7 +4586,7 @@
         <v>2001</v>
       </c>
       <c r="D275" t="n">
-        <v>-6467759</v>
+        <v>7796481</v>
       </c>
     </row>
     <row r="276">
@@ -4600,7 +4600,7 @@
         <v>2002</v>
       </c>
       <c r="D276" t="n">
-        <v>-4987480</v>
+        <v>4769951</v>
       </c>
     </row>
     <row r="277">
@@ -4614,7 +4614,7 @@
         <v>2003</v>
       </c>
       <c r="D277" t="n">
-        <v>51081956</v>
+        <v>8457192</v>
       </c>
     </row>
     <row r="278">
@@ -4628,7 +4628,7 @@
         <v>2004</v>
       </c>
       <c r="D278" t="n">
-        <v>22832218</v>
+        <v>-3021223</v>
       </c>
     </row>
     <row r="279">
@@ -4642,7 +4642,7 @@
         <v>2005</v>
       </c>
       <c r="D279" t="n">
-        <v>-8843956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
@@ -4656,7 +4656,7 @@
         <v>2006</v>
       </c>
       <c r="D280" t="n">
-        <v>-80975882</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
@@ -4670,7 +4670,7 @@
         <v>2007</v>
       </c>
       <c r="D281" t="n">
-        <v>-108890586</v>
+        <v>90901178</v>
       </c>
     </row>
     <row r="282">
@@ -4684,7 +4684,7 @@
         <v>2008</v>
       </c>
       <c r="D282" t="n">
-        <v>-66483754</v>
+        <v>19376703</v>
       </c>
     </row>
     <row r="283">
@@ -4698,7 +4698,7 @@
         <v>2009</v>
       </c>
       <c r="D283" t="n">
-        <v>5584653</v>
+        <v>120417439</v>
       </c>
     </row>
     <row r="284">
@@ -4712,7 +4712,7 @@
         <v>2010</v>
       </c>
       <c r="D284" t="n">
-        <v>-30243067</v>
+        <v>39923897</v>
       </c>
     </row>
     <row r="285">
@@ -4726,7 +4726,7 @@
         <v>2011</v>
       </c>
       <c r="D285" t="n">
-        <v>8891782</v>
+        <v>938600442</v>
       </c>
     </row>
     <row r="286">
@@ -4740,7 +4740,7 @@
         <v>2012</v>
       </c>
       <c r="D286" t="n">
-        <v>4931585</v>
+        <v>10023816</v>
       </c>
     </row>
     <row r="287">
@@ -4754,7 +4754,7 @@
         <v>2013</v>
       </c>
       <c r="D287" t="n">
-        <v>6955934</v>
+        <v>-26284655</v>
       </c>
     </row>
     <row r="288">
@@ -4768,7 +4768,7 @@
         <v>2014</v>
       </c>
       <c r="D288" t="n">
-        <v>12540049</v>
+        <v>9213237</v>
       </c>
     </row>
     <row r="289">
@@ -4782,7 +4782,7 @@
         <v>2015</v>
       </c>
       <c r="D289" t="n">
-        <v>4230000</v>
+        <v>21000000</v>
       </c>
     </row>
     <row r="290">
@@ -4796,7 +4796,7 @@
         <v>2000</v>
       </c>
       <c r="D290" t="n">
-        <v>315999755</v>
+        <v>21093993</v>
       </c>
     </row>
     <row r="291">
@@ -4810,7 +4810,7 @@
         <v>2001</v>
       </c>
       <c r="D291" t="n">
-        <v>312107904</v>
+        <v>-58840522</v>
       </c>
     </row>
     <row r="292">
@@ -4824,7 +4824,7 @@
         <v>2002</v>
       </c>
       <c r="D292" t="n">
-        <v>125347299</v>
+        <v>895660246</v>
       </c>
     </row>
     <row r="293">
@@ -4838,7 +4838,7 @@
         <v>2003</v>
       </c>
       <c r="D293" t="n">
-        <v>260760927</v>
+        <v>3241174458</v>
       </c>
     </row>
     <row r="294">
@@ -4852,7 +4852,7 @@
         <v>2004</v>
       </c>
       <c r="D294" t="n">
-        <v>936658469</v>
+        <v>-223137774</v>
       </c>
     </row>
     <row r="295">
@@ -4866,7 +4866,7 @@
         <v>2005</v>
       </c>
       <c r="D295" t="n">
-        <v>37822745</v>
+        <v>-1408491654</v>
       </c>
     </row>
     <row r="296">
@@ -4880,7 +4880,7 @@
         <v>2006</v>
       </c>
       <c r="D296" t="n">
-        <v>481204090</v>
+        <v>-2299913572</v>
       </c>
     </row>
     <row r="297">
@@ -4894,7 +4894,7 @@
         <v>2007</v>
       </c>
       <c r="D297" t="n">
-        <v>1358302931</v>
+        <v>-1035755813</v>
       </c>
     </row>
     <row r="298">
@@ -4908,7 +4908,7 @@
         <v>2008</v>
       </c>
       <c r="D298" t="n">
-        <v>1826185184</v>
+        <v>-186231584</v>
       </c>
     </row>
     <row r="299">
@@ -4922,7 +4922,7 @@
         <v>2009</v>
       </c>
       <c r="D299" t="n">
-        <v>1936479300</v>
+        <v>247989550</v>
       </c>
     </row>
     <row r="300">
@@ -4936,7 +4936,7 @@
         <v>2010</v>
       </c>
       <c r="D300" t="n">
-        <v>1892314475</v>
+        <v>-501879325</v>
       </c>
     </row>
     <row r="301">
@@ -4950,7 +4950,7 @@
         <v>2011</v>
       </c>
       <c r="D301" t="n">
-        <v>2039755850</v>
+        <v>-58397019</v>
       </c>
     </row>
     <row r="302">
@@ -4964,7 +4964,7 @@
         <v>2012</v>
       </c>
       <c r="D302" t="n">
-        <v>1601010318</v>
+        <v>-467151729</v>
       </c>
     </row>
     <row r="303">
@@ -4978,7 +4978,7 @@
         <v>2013</v>
       </c>
       <c r="D303" t="n">
-        <v>1511826138</v>
+        <v>569659176</v>
       </c>
     </row>
     <row r="304">
@@ -4992,7 +4992,7 @@
         <v>2014</v>
       </c>
       <c r="D304" t="n">
-        <v>1574222044</v>
+        <v>572360046</v>
       </c>
     </row>
     <row r="305">
@@ -5006,7 +5006,7 @@
         <v>2015</v>
       </c>
       <c r="D305" t="n">
-        <v>2246700000</v>
+        <v>392990000</v>
       </c>
     </row>
     <row r="306">
@@ -5020,7 +5020,7 @@
         <v>2000</v>
       </c>
       <c r="D306" t="n">
-        <v>5347032</v>
+        <v>-665039297</v>
       </c>
     </row>
     <row r="307">
@@ -5034,7 +5034,7 @@
         <v>2001</v>
       </c>
       <c r="D307" t="n">
-        <v>235959091</v>
+        <v>-981593148</v>
       </c>
     </row>
     <row r="308">
@@ -5048,7 +5048,7 @@
         <v>2002</v>
       </c>
       <c r="D308" t="n">
-        <v>80029005</v>
+        <v>5153811786</v>
       </c>
     </row>
     <row r="309">
@@ -5062,7 +5062,7 @@
         <v>2003</v>
       </c>
       <c r="D309" t="n">
-        <v>86261717</v>
+        <v>-4080911887</v>
       </c>
     </row>
     <row r="310">
@@ -5076,7 +5076,7 @@
         <v>2004</v>
       </c>
       <c r="D310" t="n">
-        <v>25857660</v>
+        <v>-1082874717</v>
       </c>
     </row>
     <row r="311">
@@ -5090,7 +5090,7 @@
         <v>2005</v>
       </c>
       <c r="D311" t="n">
-        <v>66221802</v>
+        <v>7219482186</v>
       </c>
     </row>
     <row r="312">
@@ -5104,7 +5104,7 @@
         <v>2006</v>
       </c>
       <c r="D312" t="n">
-        <v>0</v>
+        <v>-5786096473</v>
       </c>
     </row>
     <row r="313">
@@ -5118,7 +5118,7 @@
         <v>2007</v>
       </c>
       <c r="D313" t="n">
-        <v>5274626</v>
+        <v>-2300362785</v>
       </c>
     </row>
     <row r="314">
@@ -5132,7 +5132,7 @@
         <v>2008</v>
       </c>
       <c r="D314" t="n">
-        <v>0</v>
+        <v>-395978805</v>
       </c>
     </row>
     <row r="315">
@@ -5146,7 +5146,7 @@
         <v>2009</v>
       </c>
       <c r="D315" t="n">
-        <v>2794533</v>
+        <v>163178348</v>
       </c>
     </row>
     <row r="316">
@@ -5160,7 +5160,7 @@
         <v>2010</v>
       </c>
       <c r="D316" t="n">
-        <v>0</v>
+        <v>-371169922</v>
       </c>
     </row>
     <row r="317">
@@ -5174,7 +5174,7 @@
         <v>2011</v>
       </c>
       <c r="D317" t="n">
-        <v>3292293</v>
+        <v>-351404321</v>
       </c>
     </row>
     <row r="318">
@@ -5188,7 +5188,7 @@
         <v>2012</v>
       </c>
       <c r="D318" t="n">
-        <v>2157360</v>
+        <v>-773254842</v>
       </c>
     </row>
     <row r="319">
@@ -5202,7 +5202,7 @@
         <v>2013</v>
       </c>
       <c r="D319" t="n">
-        <v>12125685</v>
+        <v>-317587029</v>
       </c>
     </row>
     <row r="320">
@@ -5216,7 +5216,7 @@
         <v>2014</v>
       </c>
       <c r="D320" t="n">
-        <v>3157094</v>
+        <v>264793044</v>
       </c>
     </row>
     <row r="321">
@@ -5230,7 +5230,7 @@
         <v>2015</v>
       </c>
       <c r="D321" t="n">
-        <v>5800000</v>
+        <v>1516360000</v>
       </c>
     </row>
     <row r="322">
@@ -5244,7 +5244,7 @@
         <v>2000</v>
       </c>
       <c r="D322" t="n">
-        <v>653362514</v>
+        <v>3784628</v>
       </c>
     </row>
     <row r="323">
@@ -5258,7 +5258,7 @@
         <v>2001</v>
       </c>
       <c r="D323" t="n">
-        <v>509891513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324">
@@ -5272,7 +5272,7 @@
         <v>2002</v>
       </c>
       <c r="D324" t="n">
-        <v>1260356625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325">
@@ -5286,7 +5286,7 @@
         <v>2003</v>
       </c>
       <c r="D325" t="n">
-        <v>1334561977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326">
@@ -5300,7 +5300,7 @@
         <v>2004</v>
       </c>
       <c r="D326" t="n">
-        <v>1927970662</v>
+        <v>3516392</v>
       </c>
     </row>
     <row r="327">
@@ -5314,7 +5314,7 @@
         <v>2005</v>
       </c>
       <c r="D327" t="n">
-        <v>1625560089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328">
@@ -5328,7 +5328,7 @@
         <v>2006</v>
       </c>
       <c r="D328" t="n">
-        <v>1838301255</v>
+        <v>7618372</v>
       </c>
     </row>
     <row r="329">
@@ -5342,7 +5342,7 @@
         <v>2007</v>
       </c>
       <c r="D329" t="n">
-        <v>4185509319</v>
+        <v>2918030</v>
       </c>
     </row>
     <row r="330">
@@ -5356,7 +5356,7 @@
         <v>2008</v>
       </c>
       <c r="D330" t="n">
-        <v>3677012897</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331">
@@ -5370,7 +5370,7 @@
         <v>2009</v>
       </c>
       <c r="D331" t="n">
-        <v>3978074421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332">
@@ -5384,7 +5384,7 @@
         <v>2010</v>
       </c>
       <c r="D332" t="n">
-        <v>4940147287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333">
@@ -5398,7 +5398,7 @@
         <v>2011</v>
       </c>
       <c r="D333" t="n">
-        <v>-662551628</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334">
@@ -5412,7 +5412,7 @@
         <v>2012</v>
       </c>
       <c r="D334" t="n">
-        <v>-891474104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
@@ -5426,7 +5426,7 @@
         <v>2013</v>
       </c>
       <c r="D335" t="n">
-        <v>-455542003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336">
@@ -5440,7 +5440,7 @@
         <v>2014</v>
       </c>
       <c r="D336" t="n">
-        <v>-1643172673</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337">
@@ -5454,7 +5454,7 @@
         <v>2015</v>
       </c>
       <c r="D337" t="n">
-        <v>-1356480000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338">
@@ -5468,7 +5468,7 @@
         <v>2000</v>
       </c>
       <c r="D338" t="n">
-        <v>3314395</v>
+        <v>5818142185</v>
       </c>
     </row>
     <row r="339">
@@ -5482,7 +5482,7 @@
         <v>2001</v>
       </c>
       <c r="D339" t="n">
-        <v>7796481</v>
+        <v>5768479350</v>
       </c>
     </row>
     <row r="340">
@@ -5496,7 +5496,7 @@
         <v>2002</v>
       </c>
       <c r="D340" t="n">
-        <v>4769951</v>
+        <v>1917032462</v>
       </c>
     </row>
     <row r="341">
@@ -5510,7 +5510,7 @@
         <v>2003</v>
       </c>
       <c r="D341" t="n">
-        <v>8457192</v>
+        <v>1510808913</v>
       </c>
     </row>
     <row r="342">
@@ -5524,7 +5524,7 @@
         <v>2004</v>
       </c>
       <c r="D342" t="n">
-        <v>-3021223</v>
+        <v>-1566613087</v>
       </c>
     </row>
     <row r="343">
@@ -5538,7 +5538,7 @@
         <v>2005</v>
       </c>
       <c r="D343" t="n">
-        <v>0</v>
+        <v>-346196613</v>
       </c>
     </row>
     <row r="344">
@@ -5552,7 +5552,7 @@
         <v>2006</v>
       </c>
       <c r="D344" t="n">
-        <v>0</v>
+        <v>-2628224158</v>
       </c>
     </row>
     <row r="345">
@@ -5566,7 +5566,7 @@
         <v>2007</v>
       </c>
       <c r="D345" t="n">
-        <v>90901178</v>
+        <v>1403931550</v>
       </c>
     </row>
     <row r="346">
@@ -5580,7 +5580,7 @@
         <v>2008</v>
       </c>
       <c r="D346" t="n">
-        <v>19376703</v>
+        <v>2215356676</v>
       </c>
     </row>
     <row r="347">
@@ -5594,7 +5594,7 @@
         <v>2009</v>
       </c>
       <c r="D347" t="n">
-        <v>120417439</v>
+        <v>6505443227</v>
       </c>
     </row>
     <row r="348">
@@ -5608,7 +5608,7 @@
         <v>2010</v>
       </c>
       <c r="D348" t="n">
-        <v>39923897</v>
+        <v>4246844218</v>
       </c>
     </row>
     <row r="349">
@@ -5622,7 +5622,7 @@
         <v>2011</v>
       </c>
       <c r="D349" t="n">
-        <v>938600442</v>
+        <v>2350051111</v>
       </c>
     </row>
     <row r="350">
@@ -5636,7 +5636,7 @@
         <v>2012</v>
       </c>
       <c r="D350" t="n">
-        <v>10023816</v>
+        <v>1733525212</v>
       </c>
     </row>
     <row r="351">
@@ -5650,7 +5650,7 @@
         <v>2013</v>
       </c>
       <c r="D351" t="n">
-        <v>-26284655</v>
+        <v>1277707477</v>
       </c>
     </row>
     <row r="352">
@@ -5664,7 +5664,7 @@
         <v>2014</v>
       </c>
       <c r="D352" t="n">
-        <v>9213237</v>
+        <v>3267868076</v>
       </c>
     </row>
     <row r="353">
@@ -5678,7 +5678,7 @@
         <v>2015</v>
       </c>
       <c r="D353" t="n">
-        <v>21000000</v>
+        <v>3945510000</v>
       </c>
     </row>
     <row r="354">
@@ -5692,7 +5692,7 @@
         <v>2000</v>
       </c>
       <c r="D354" t="n">
-        <v>21093993</v>
+        <v>3545233586</v>
       </c>
     </row>
     <row r="355">
@@ -5706,7 +5706,7 @@
         <v>2001</v>
       </c>
       <c r="D355" t="n">
-        <v>-58840522</v>
+        <v>2533576851</v>
       </c>
     </row>
     <row r="356">
@@ -5720,7 +5720,7 @@
         <v>2002</v>
       </c>
       <c r="D356" t="n">
-        <v>895660246</v>
+        <v>-4801932698</v>
       </c>
     </row>
     <row r="357">
@@ -5734,7 +5734,7 @@
         <v>2003</v>
       </c>
       <c r="D357" t="n">
-        <v>3241174458</v>
+        <v>-8320843804</v>
       </c>
     </row>
     <row r="358">
@@ -5748,7 +5748,7 @@
         <v>2004</v>
       </c>
       <c r="D358" t="n">
-        <v>-223137774</v>
+        <v>-3813511455</v>
       </c>
     </row>
     <row r="359">
@@ -5762,7 +5762,7 @@
         <v>2005</v>
       </c>
       <c r="D359" t="n">
-        <v>-1408491654</v>
+        <v>-2733971273</v>
       </c>
     </row>
     <row r="360">
@@ -5776,7 +5776,7 @@
         <v>2006</v>
       </c>
       <c r="D360" t="n">
-        <v>-2299913572</v>
+        <v>-5043170999</v>
       </c>
     </row>
     <row r="361">
@@ -5790,7 +5790,7 @@
         <v>2007</v>
       </c>
       <c r="D361" t="n">
-        <v>-1035755813</v>
+        <v>82669912</v>
       </c>
     </row>
     <row r="362">
@@ -5804,7 +5804,7 @@
         <v>2008</v>
       </c>
       <c r="D362" t="n">
-        <v>-186231584</v>
+        <v>3478599788</v>
       </c>
     </row>
     <row r="363">
@@ -5818,7 +5818,7 @@
         <v>2009</v>
       </c>
       <c r="D363" t="n">
-        <v>247989550</v>
+        <v>10937501927</v>
       </c>
     </row>
     <row r="364">
@@ -5832,7 +5832,7 @@
         <v>2010</v>
       </c>
       <c r="D364" t="n">
-        <v>-501879325</v>
+        <v>17120895282</v>
       </c>
     </row>
     <row r="365">
@@ -5846,7 +5846,7 @@
         <v>2011</v>
       </c>
       <c r="D365" t="n">
-        <v>-58397019</v>
+        <v>1602522423</v>
       </c>
     </row>
     <row r="366">
@@ -5860,7 +5860,7 @@
         <v>2012</v>
       </c>
       <c r="D366" t="n">
-        <v>-467151729</v>
+        <v>6995911547</v>
       </c>
     </row>
     <row r="367">
@@ -5874,7 +5874,7 @@
         <v>2013</v>
       </c>
       <c r="D367" t="n">
-        <v>569659176</v>
+        <v>7226379830</v>
       </c>
     </row>
     <row r="368">
@@ -5888,7 +5888,7 @@
         <v>2014</v>
       </c>
       <c r="D368" t="n">
-        <v>572360046</v>
+        <v>7025121520</v>
       </c>
     </row>
     <row r="369">
@@ -5902,7 +5902,7 @@
         <v>2015</v>
       </c>
       <c r="D369" t="n">
-        <v>392990000</v>
+        <v>11588320000</v>
       </c>
     </row>
     <row r="370">
@@ -5916,7 +5916,7 @@
         <v>2000</v>
       </c>
       <c r="D370" t="n">
-        <v>-101988872</v>
+        <v>305418841</v>
       </c>
     </row>
     <row r="371">
@@ -5930,7 +5930,7 @@
         <v>2001</v>
       </c>
       <c r="D371" t="n">
-        <v>33427959</v>
+        <v>30529087</v>
       </c>
     </row>
     <row r="372">
@@ -5944,7 +5944,7 @@
         <v>2002</v>
       </c>
       <c r="D372" t="n">
-        <v>-5306617</v>
+        <v>42994042</v>
       </c>
     </row>
     <row r="373">
@@ -5958,7 +5958,7 @@
         <v>2003</v>
       </c>
       <c r="D373" t="n">
-        <v>61413253</v>
+        <v>1495981962</v>
       </c>
     </row>
     <row r="374">
@@ -5972,7 +5972,7 @@
         <v>2004</v>
       </c>
       <c r="D374" t="n">
-        <v>-165974547</v>
+        <v>584957078</v>
       </c>
     </row>
     <row r="375">
@@ -5986,7 +5986,7 @@
         <v>2005</v>
       </c>
       <c r="D375" t="n">
-        <v>-103683053</v>
+        <v>386623059</v>
       </c>
     </row>
     <row r="376">
@@ -6000,7 +6000,7 @@
         <v>2006</v>
       </c>
       <c r="D376" t="n">
-        <v>-188025295</v>
+        <v>1604463937</v>
       </c>
     </row>
     <row r="377">
@@ -6014,7 +6014,7 @@
         <v>2007</v>
       </c>
       <c r="D377" t="n">
-        <v>-38775881</v>
+        <v>1920087822</v>
       </c>
     </row>
     <row r="378">
@@ -6028,7 +6028,7 @@
         <v>2008</v>
       </c>
       <c r="D378" t="n">
-        <v>-21710817</v>
+        <v>2949312961</v>
       </c>
     </row>
     <row r="379">
@@ -6042,7 +6042,7 @@
         <v>2009</v>
       </c>
       <c r="D379" t="n">
-        <v>-14277336</v>
+        <v>2131578032</v>
       </c>
     </row>
     <row r="380">
@@ -6056,7 +6056,7 @@
         <v>2010</v>
       </c>
       <c r="D380" t="n">
-        <v>-20486481</v>
+        <v>1591073253</v>
       </c>
     </row>
     <row r="381">
@@ -6070,7 +6070,7 @@
         <v>2011</v>
       </c>
       <c r="D381" t="n">
-        <v>-40367762</v>
+        <v>1261795992</v>
       </c>
     </row>
     <row r="382">
@@ -6084,7 +6084,7 @@
         <v>2012</v>
       </c>
       <c r="D382" t="n">
-        <v>36444188</v>
+        <v>1975596740</v>
       </c>
     </row>
     <row r="383">
@@ -6098,7 +6098,7 @@
         <v>2013</v>
       </c>
       <c r="D383" t="n">
-        <v>187516380</v>
+        <v>1812945182</v>
       </c>
     </row>
     <row r="384">
@@ -6112,7 +6112,7 @@
         <v>2014</v>
       </c>
       <c r="D384" t="n">
-        <v>38527357</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385">
@@ -6140,7 +6140,7 @@
         <v>2000</v>
       </c>
       <c r="D386" t="n">
-        <v>3784628</v>
+        <v>6284503</v>
       </c>
     </row>
     <row r="387">
@@ -6154,7 +6154,7 @@
         <v>2001</v>
       </c>
       <c r="D387" t="n">
-        <v>0</v>
+        <v>8236669</v>
       </c>
     </row>
     <row r="388">
@@ -6168,7 +6168,7 @@
         <v>2002</v>
       </c>
       <c r="D388" t="n">
-        <v>0</v>
+        <v>-6455888</v>
       </c>
     </row>
     <row r="389">
@@ -6182,7 +6182,7 @@
         <v>2003</v>
       </c>
       <c r="D389" t="n">
-        <v>0</v>
+        <v>-9192232</v>
       </c>
     </row>
     <row r="390">
@@ -6196,7 +6196,7 @@
         <v>2004</v>
       </c>
       <c r="D390" t="n">
-        <v>3516392</v>
+        <v>-10578638</v>
       </c>
     </row>
     <row r="391">
@@ -6210,7 +6210,7 @@
         <v>2005</v>
       </c>
       <c r="D391" t="n">
-        <v>0</v>
+        <v>541995</v>
       </c>
     </row>
     <row r="392">
@@ -6224,7 +6224,7 @@
         <v>2006</v>
       </c>
       <c r="D392" t="n">
-        <v>7618372</v>
+        <v>11784081</v>
       </c>
     </row>
     <row r="393">
@@ -6238,7 +6238,7 @@
         <v>2007</v>
       </c>
       <c r="D393" t="n">
-        <v>2918030</v>
+        <v>7159322</v>
       </c>
     </row>
     <row r="394">
@@ -6252,7 +6252,7 @@
         <v>2008</v>
       </c>
       <c r="D394" t="n">
-        <v>0</v>
+        <v>20488997</v>
       </c>
     </row>
     <row r="395">
@@ -6266,7 +6266,7 @@
         <v>2009</v>
       </c>
       <c r="D395" t="n">
-        <v>0</v>
+        <v>5506972</v>
       </c>
     </row>
     <row r="396">
@@ -6280,7 +6280,7 @@
         <v>2010</v>
       </c>
       <c r="D396" t="n">
-        <v>0</v>
+        <v>10536722</v>
       </c>
     </row>
     <row r="397">
@@ -6294,7 +6294,7 @@
         <v>2011</v>
       </c>
       <c r="D397" t="n">
-        <v>0</v>
+        <v>10019804</v>
       </c>
     </row>
     <row r="398">
@@ -6308,7 +6308,7 @@
         <v>2012</v>
       </c>
       <c r="D398" t="n">
-        <v>0</v>
+        <v>25177105</v>
       </c>
     </row>
     <row r="399">
@@ -6322,7 +6322,7 @@
         <v>2013</v>
       </c>
       <c r="D399" t="n">
-        <v>0</v>
+        <v>23870181</v>
       </c>
     </row>
     <row r="400">
@@ -6336,7 +6336,7 @@
         <v>2014</v>
       </c>
       <c r="D400" t="n">
-        <v>0</v>
+        <v>58805908</v>
       </c>
     </row>
     <row r="401">
@@ -6350,7 +6350,7 @@
         <v>2015</v>
       </c>
       <c r="D401" t="n">
-        <v>0</v>
+        <v>82360000</v>
       </c>
     </row>
     <row r="402">
@@ -6364,7 +6364,7 @@
         <v>2000</v>
       </c>
       <c r="D402" t="n">
-        <v>3545233586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403">
@@ -6378,7 +6378,7 @@
         <v>2001</v>
       </c>
       <c r="D403" t="n">
-        <v>2533576851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404">
@@ -6392,7 +6392,7 @@
         <v>2002</v>
       </c>
       <c r="D404" t="n">
-        <v>-4801932698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405">
@@ -6406,7 +6406,7 @@
         <v>2003</v>
       </c>
       <c r="D405" t="n">
-        <v>-8320843804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406">
@@ -6420,7 +6420,7 @@
         <v>2004</v>
       </c>
       <c r="D406" t="n">
-        <v>-3813511455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407">
@@ -6434,7 +6434,7 @@
         <v>2005</v>
       </c>
       <c r="D407" t="n">
-        <v>-2733971273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408">
@@ -6448,7 +6448,7 @@
         <v>2006</v>
       </c>
       <c r="D408" t="n">
-        <v>-5043170999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409">
@@ -6462,7 +6462,7 @@
         <v>2007</v>
       </c>
       <c r="D409" t="n">
-        <v>82669912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410">
@@ -6476,7 +6476,7 @@
         <v>2008</v>
       </c>
       <c r="D410" t="n">
-        <v>3478599788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411">
@@ -6490,7 +6490,7 @@
         <v>2009</v>
       </c>
       <c r="D411" t="n">
-        <v>10937501927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412">
@@ -6504,7 +6504,7 @@
         <v>2010</v>
       </c>
       <c r="D412" t="n">
-        <v>17120895282</v>
+        <v>1089841095</v>
       </c>
     </row>
     <row r="413">
@@ -6518,7 +6518,7 @@
         <v>2011</v>
       </c>
       <c r="D413" t="n">
-        <v>1602522423</v>
+        <v>1393983048</v>
       </c>
     </row>
     <row r="414">
@@ -6532,7 +6532,7 @@
         <v>2012</v>
       </c>
       <c r="D414" t="n">
-        <v>6995911547</v>
+        <v>741320848</v>
       </c>
     </row>
     <row r="415">
@@ -6546,7 +6546,7 @@
         <v>2013</v>
       </c>
       <c r="D415" t="n">
-        <v>7226379830</v>
+        <v>677243220</v>
       </c>
     </row>
     <row r="416">
@@ -6560,7 +6560,7 @@
         <v>2014</v>
       </c>
       <c r="D416" t="n">
-        <v>7025121520</v>
+        <v>645124583</v>
       </c>
     </row>
     <row r="417">
@@ -6574,7 +6574,7 @@
         <v>2015</v>
       </c>
       <c r="D417" t="n">
-        <v>11588320000</v>
+        <v>1035070000</v>
       </c>
     </row>
     <row r="418">
@@ -6588,7 +6588,7 @@
         <v>2000</v>
       </c>
       <c r="D418" t="n">
-        <v>5818142185</v>
+        <v>-165028156</v>
       </c>
     </row>
     <row r="419">
@@ -6602,7 +6602,7 @@
         <v>2001</v>
       </c>
       <c r="D419" t="n">
-        <v>5768479350</v>
+        <v>87061703</v>
       </c>
     </row>
     <row r="420">
@@ -6616,7 +6616,7 @@
         <v>2002</v>
       </c>
       <c r="D420" t="n">
-        <v>1917032462</v>
+        <v>-542135389</v>
       </c>
     </row>
     <row r="421">
@@ -6630,7 +6630,7 @@
         <v>2003</v>
       </c>
       <c r="D421" t="n">
-        <v>1510808913</v>
+        <v>-338088122</v>
       </c>
     </row>
     <row r="422">
@@ -6644,7 +6644,7 @@
         <v>2004</v>
       </c>
       <c r="D422" t="n">
-        <v>-1566613087</v>
+        <v>532460184</v>
       </c>
     </row>
     <row r="423">
@@ -6658,7 +6658,7 @@
         <v>2005</v>
       </c>
       <c r="D423" t="n">
-        <v>-346196613</v>
+        <v>-1160308090</v>
       </c>
     </row>
     <row r="424">
@@ -6672,7 +6672,7 @@
         <v>2006</v>
       </c>
       <c r="D424" t="n">
-        <v>-2628224158</v>
+        <v>-959151440</v>
       </c>
     </row>
     <row r="425">
@@ -6686,7 +6686,7 @@
         <v>2007</v>
       </c>
       <c r="D425" t="n">
-        <v>1403931550</v>
+        <v>-233880681</v>
       </c>
     </row>
     <row r="426">
@@ -6700,7 +6700,7 @@
         <v>2008</v>
       </c>
       <c r="D426" t="n">
-        <v>2215356676</v>
+        <v>338814496</v>
       </c>
     </row>
     <row r="427">
@@ -6714,7 +6714,7 @@
         <v>2009</v>
       </c>
       <c r="D427" t="n">
-        <v>6505443227</v>
+        <v>-60763261</v>
       </c>
     </row>
     <row r="428">
@@ -6728,7 +6728,7 @@
         <v>2010</v>
       </c>
       <c r="D428" t="n">
-        <v>4246844218</v>
+        <v>-133295665</v>
       </c>
     </row>
     <row r="429">
@@ -6742,7 +6742,7 @@
         <v>2011</v>
       </c>
       <c r="D429" t="n">
-        <v>2350051111</v>
+        <v>-177322724</v>
       </c>
     </row>
     <row r="430">
@@ -6756,7 +6756,7 @@
         <v>2012</v>
       </c>
       <c r="D430" t="n">
-        <v>1733525212</v>
+        <v>173720361</v>
       </c>
     </row>
     <row r="431">
@@ -6770,7 +6770,7 @@
         <v>2013</v>
       </c>
       <c r="D431" t="n">
-        <v>1277707477</v>
+        <v>136237549</v>
       </c>
     </row>
     <row r="432">
@@ -6784,7 +6784,7 @@
         <v>2014</v>
       </c>
       <c r="D432" t="n">
-        <v>3267868076</v>
+        <v>80609128</v>
       </c>
     </row>
     <row r="433">
@@ -6798,7 +6798,7 @@
         <v>2015</v>
       </c>
       <c r="D433" t="n">
-        <v>3945510000</v>
+        <v>43040000</v>
       </c>
     </row>
     <row r="434">
@@ -6812,7 +6812,7 @@
         <v>2000</v>
       </c>
       <c r="D434" t="n">
-        <v>6284503</v>
+        <v>-3882652434</v>
       </c>
     </row>
     <row r="435">
@@ -6826,7 +6826,7 @@
         <v>2001</v>
       </c>
       <c r="D435" t="n">
-        <v>8236669</v>
+        <v>-781954601</v>
       </c>
     </row>
     <row r="436">
@@ -6840,7 +6840,7 @@
         <v>2002</v>
       </c>
       <c r="D436" t="n">
-        <v>-6455888</v>
+        <v>-1590522604</v>
       </c>
     </row>
     <row r="437">
@@ -6854,7 +6854,7 @@
         <v>2003</v>
       </c>
       <c r="D437" t="n">
-        <v>-9192232</v>
+        <v>-2235030281</v>
       </c>
     </row>
     <row r="438">
@@ -6868,7 +6868,7 @@
         <v>2004</v>
       </c>
       <c r="D438" t="n">
-        <v>-10578638</v>
+        <v>-1673339510</v>
       </c>
     </row>
     <row r="439">
@@ -6882,7 +6882,7 @@
         <v>2005</v>
       </c>
       <c r="D439" t="n">
-        <v>541995</v>
+        <v>-1225196338</v>
       </c>
     </row>
     <row r="440">
@@ -6896,7 +6896,7 @@
         <v>2006</v>
       </c>
       <c r="D440" t="n">
-        <v>11784081</v>
+        <v>2513943788</v>
       </c>
     </row>
     <row r="441">
@@ -6910,7 +6910,7 @@
         <v>2007</v>
       </c>
       <c r="D441" t="n">
-        <v>7159322</v>
+        <v>-215590228</v>
       </c>
     </row>
     <row r="442">
@@ -6924,7 +6924,7 @@
         <v>2008</v>
       </c>
       <c r="D442" t="n">
-        <v>20488997</v>
+        <v>-2159378216</v>
       </c>
     </row>
     <row r="443">
@@ -6938,7 +6938,7 @@
         <v>2009</v>
       </c>
       <c r="D443" t="n">
-        <v>5506972</v>
+        <v>5094609635</v>
       </c>
     </row>
     <row r="444">
@@ -6952,7 +6952,7 @@
         <v>2010</v>
       </c>
       <c r="D444" t="n">
-        <v>10536722</v>
+        <v>2314502849</v>
       </c>
     </row>
     <row r="445">
@@ -6966,7 +6966,7 @@
         <v>2011</v>
       </c>
       <c r="D445" t="n">
-        <v>10019804</v>
+        <v>2203281816</v>
       </c>
     </row>
     <row r="446">
@@ -6980,7 +6980,7 @@
         <v>2012</v>
       </c>
       <c r="D446" t="n">
-        <v>25177105</v>
+        <v>4232162057</v>
       </c>
     </row>
     <row r="447">
@@ -6994,7 +6994,7 @@
         <v>2013</v>
       </c>
       <c r="D447" t="n">
-        <v>23870181</v>
+        <v>1261884779</v>
       </c>
     </row>
     <row r="448">
@@ -7008,7 +7008,7 @@
         <v>2014</v>
       </c>
       <c r="D448" t="n">
-        <v>58805908</v>
+        <v>-804214541</v>
       </c>
     </row>
     <row r="449">
@@ -7022,7 +7022,7 @@
         <v>2015</v>
       </c>
       <c r="D449" t="n">
-        <v>82360000</v>
+        <v>-1055090000</v>
       </c>
     </row>
     <row r="450">
@@ -7036,7 +7036,7 @@
         <v>2000</v>
       </c>
       <c r="D450" t="n">
-        <v>305418841</v>
+        <v>-949073111</v>
       </c>
     </row>
     <row r="451">
@@ -7050,7 +7050,7 @@
         <v>2001</v>
       </c>
       <c r="D451" t="n">
-        <v>30529087</v>
+        <v>-303605037</v>
       </c>
     </row>
     <row r="452">
@@ -7064,7 +7064,7 @@
         <v>2002</v>
       </c>
       <c r="D452" t="n">
-        <v>42994042</v>
+        <v>327722775</v>
       </c>
     </row>
     <row r="453">
@@ -7078,7 +7078,7 @@
         <v>2003</v>
       </c>
       <c r="D453" t="n">
-        <v>1495981962</v>
+        <v>20962871</v>
       </c>
     </row>
     <row r="454">
@@ -7092,7 +7092,7 @@
         <v>2004</v>
       </c>
       <c r="D454" t="n">
-        <v>584957078</v>
+        <v>363546702</v>
       </c>
     </row>
     <row r="455">
@@ -7106,7 +7106,7 @@
         <v>2005</v>
       </c>
       <c r="D455" t="n">
-        <v>386623059</v>
+        <v>780278805</v>
       </c>
     </row>
     <row r="456">
@@ -7120,7 +7120,7 @@
         <v>2006</v>
       </c>
       <c r="D456" t="n">
-        <v>1604463937</v>
+        <v>1030694999</v>
       </c>
     </row>
     <row r="457">
@@ -7134,7 +7134,7 @@
         <v>2007</v>
       </c>
       <c r="D457" t="n">
-        <v>1920087822</v>
+        <v>965831159</v>
       </c>
     </row>
     <row r="458">
@@ -7148,7 +7148,7 @@
         <v>2008</v>
       </c>
       <c r="D458" t="n">
-        <v>2949312961</v>
+        <v>2120689391</v>
       </c>
     </row>
     <row r="459">
@@ -7162,7 +7162,7 @@
         <v>2009</v>
       </c>
       <c r="D459" t="n">
-        <v>2131578032</v>
+        <v>558768591</v>
       </c>
     </row>
     <row r="460">
@@ -7176,7 +7176,7 @@
         <v>2010</v>
       </c>
       <c r="D460" t="n">
-        <v>1591073253</v>
+        <v>2057086951</v>
       </c>
     </row>
     <row r="461">
@@ -7190,7 +7190,7 @@
         <v>2011</v>
       </c>
       <c r="D461" t="n">
-        <v>1261795992</v>
+        <v>2291596034</v>
       </c>
     </row>
     <row r="462">
@@ -7204,7 +7204,7 @@
         <v>2012</v>
       </c>
       <c r="D462" t="n">
-        <v>1975596740</v>
+        <v>1207872999</v>
       </c>
     </row>
     <row r="463">
@@ -7218,7 +7218,7 @@
         <v>2013</v>
       </c>
       <c r="D463" t="n">
-        <v>1812945182</v>
+        <v>1307025010</v>
       </c>
     </row>
     <row r="464">
@@ -7232,7 +7232,7 @@
         <v>2014</v>
       </c>
       <c r="D464" t="n">
-        <v>0</v>
+        <v>2077469660</v>
       </c>
     </row>
     <row r="465">
@@ -7246,7 +7246,7 @@
         <v>2015</v>
       </c>
       <c r="D465" t="n">
-        <v>0</v>
+        <v>3114680000</v>
       </c>
     </row>
     <row r="466">
@@ -7400,7 +7400,7 @@
         <v>2010</v>
       </c>
       <c r="D476" t="n">
-        <v>1089841095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477">
@@ -7414,7 +7414,7 @@
         <v>2011</v>
       </c>
       <c r="D477" t="n">
-        <v>1393983048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478">
@@ -7428,7 +7428,7 @@
         <v>2012</v>
       </c>
       <c r="D478" t="n">
-        <v>741320848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479">
@@ -7442,7 +7442,7 @@
         <v>2013</v>
       </c>
       <c r="D479" t="n">
-        <v>677243220</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480">
@@ -7456,7 +7456,7 @@
         <v>2014</v>
       </c>
       <c r="D480" t="n">
-        <v>645124583</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481">
@@ -7470,7 +7470,7 @@
         <v>2015</v>
       </c>
       <c r="D481" t="n">
-        <v>1035070000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482">
@@ -7484,7 +7484,7 @@
         <v>2000</v>
       </c>
       <c r="D482" t="n">
-        <v>-165028156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483">
@@ -7498,7 +7498,7 @@
         <v>2001</v>
       </c>
       <c r="D483" t="n">
-        <v>87061703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484">
@@ -7512,7 +7512,7 @@
         <v>2002</v>
       </c>
       <c r="D484" t="n">
-        <v>-542135389</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485">
@@ -7526,7 +7526,7 @@
         <v>2003</v>
       </c>
       <c r="D485" t="n">
-        <v>-338088122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486">
@@ -7540,7 +7540,7 @@
         <v>2004</v>
       </c>
       <c r="D486" t="n">
-        <v>532460184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487">
@@ -7554,7 +7554,7 @@
         <v>2005</v>
       </c>
       <c r="D487" t="n">
-        <v>-1160308090</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488">
@@ -7568,7 +7568,7 @@
         <v>2006</v>
       </c>
       <c r="D488" t="n">
-        <v>-959151440</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489">
@@ -7582,7 +7582,7 @@
         <v>2007</v>
       </c>
       <c r="D489" t="n">
-        <v>-233880681</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490">
@@ -7596,7 +7596,7 @@
         <v>2008</v>
       </c>
       <c r="D490" t="n">
-        <v>338814496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491">
@@ -7610,7 +7610,7 @@
         <v>2009</v>
       </c>
       <c r="D491" t="n">
-        <v>-60763261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492">
@@ -7624,7 +7624,7 @@
         <v>2010</v>
       </c>
       <c r="D492" t="n">
-        <v>-133295665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493">
@@ -7638,7 +7638,7 @@
         <v>2011</v>
       </c>
       <c r="D493" t="n">
-        <v>-177322724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494">
@@ -7652,7 +7652,7 @@
         <v>2012</v>
       </c>
       <c r="D494" t="n">
-        <v>173720361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495">
@@ -7666,7 +7666,7 @@
         <v>2013</v>
       </c>
       <c r="D495" t="n">
-        <v>136237549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496">
@@ -7680,7 +7680,7 @@
         <v>2014</v>
       </c>
       <c r="D496" t="n">
-        <v>80609128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497">
@@ -7694,7 +7694,7 @@
         <v>2015</v>
       </c>
       <c r="D497" t="n">
-        <v>43040000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498">
@@ -7707,9 +7707,7 @@
       <c r="C498" t="n">
         <v>2000</v>
       </c>
-      <c r="D498" t="n">
-        <v>-3882652434</v>
-      </c>
+      <c r="D498"/>
     </row>
     <row r="499">
       <c r="A499" t="s">
@@ -7721,9 +7719,7 @@
       <c r="C499" t="n">
         <v>2001</v>
       </c>
-      <c r="D499" t="n">
-        <v>-781954601</v>
-      </c>
+      <c r="D499"/>
     </row>
     <row r="500">
       <c r="A500" t="s">
@@ -7735,9 +7731,7 @@
       <c r="C500" t="n">
         <v>2002</v>
       </c>
-      <c r="D500" t="n">
-        <v>-1590522604</v>
-      </c>
+      <c r="D500"/>
     </row>
     <row r="501">
       <c r="A501" t="s">
@@ -7749,9 +7743,7 @@
       <c r="C501" t="n">
         <v>2003</v>
       </c>
-      <c r="D501" t="n">
-        <v>-2235030281</v>
-      </c>
+      <c r="D501"/>
     </row>
     <row r="502">
       <c r="A502" t="s">
@@ -7763,9 +7755,7 @@
       <c r="C502" t="n">
         <v>2004</v>
       </c>
-      <c r="D502" t="n">
-        <v>-1673339510</v>
-      </c>
+      <c r="D502"/>
     </row>
     <row r="503">
       <c r="A503" t="s">
@@ -7777,9 +7767,7 @@
       <c r="C503" t="n">
         <v>2005</v>
       </c>
-      <c r="D503" t="n">
-        <v>-1225196338</v>
-      </c>
+      <c r="D503"/>
     </row>
     <row r="504">
       <c r="A504" t="s">
@@ -7791,9 +7779,7 @@
       <c r="C504" t="n">
         <v>2006</v>
       </c>
-      <c r="D504" t="n">
-        <v>2513943788</v>
-      </c>
+      <c r="D504"/>
     </row>
     <row r="505">
       <c r="A505" t="s">
@@ -7805,9 +7791,7 @@
       <c r="C505" t="n">
         <v>2007</v>
       </c>
-      <c r="D505" t="n">
-        <v>-215590228</v>
-      </c>
+      <c r="D505"/>
     </row>
     <row r="506">
       <c r="A506" t="s">
@@ -7819,9 +7803,7 @@
       <c r="C506" t="n">
         <v>2008</v>
       </c>
-      <c r="D506" t="n">
-        <v>-2159378216</v>
-      </c>
+      <c r="D506"/>
     </row>
     <row r="507">
       <c r="A507" t="s">
@@ -7833,9 +7815,7 @@
       <c r="C507" t="n">
         <v>2009</v>
       </c>
-      <c r="D507" t="n">
-        <v>5094609635</v>
-      </c>
+      <c r="D507"/>
     </row>
     <row r="508">
       <c r="A508" t="s">
@@ -7847,9 +7827,7 @@
       <c r="C508" t="n">
         <v>2010</v>
       </c>
-      <c r="D508" t="n">
-        <v>2314502849</v>
-      </c>
+      <c r="D508"/>
     </row>
     <row r="509">
       <c r="A509" t="s">
@@ -7861,9 +7839,7 @@
       <c r="C509" t="n">
         <v>2011</v>
       </c>
-      <c r="D509" t="n">
-        <v>2203281816</v>
-      </c>
+      <c r="D509"/>
     </row>
     <row r="510">
       <c r="A510" t="s">
@@ -7875,9 +7851,7 @@
       <c r="C510" t="n">
         <v>2012</v>
       </c>
-      <c r="D510" t="n">
-        <v>4232162057</v>
-      </c>
+      <c r="D510"/>
     </row>
     <row r="511">
       <c r="A511" t="s">
@@ -7889,9 +7863,7 @@
       <c r="C511" t="n">
         <v>2013</v>
       </c>
-      <c r="D511" t="n">
-        <v>1261884779</v>
-      </c>
+      <c r="D511"/>
     </row>
     <row r="512">
       <c r="A512" t="s">
@@ -7903,9 +7875,7 @@
       <c r="C512" t="n">
         <v>2014</v>
       </c>
-      <c r="D512" t="n">
-        <v>-804214541</v>
-      </c>
+      <c r="D512"/>
     </row>
     <row r="513">
       <c r="A513" t="s">
@@ -7917,9 +7887,7 @@
       <c r="C513" t="n">
         <v>2015</v>
       </c>
-      <c r="D513" t="n">
-        <v>-1055090000</v>
-      </c>
+      <c r="D513"/>
     </row>
     <row r="514">
       <c r="A514" t="s">
@@ -7932,7 +7900,7 @@
         <v>2000</v>
       </c>
       <c r="D514" t="n">
-        <v>-949073111</v>
+        <v>58632995</v>
       </c>
     </row>
     <row r="515">
@@ -7946,7 +7914,7 @@
         <v>2001</v>
       </c>
       <c r="D515" t="n">
-        <v>-303605037</v>
+        <v>64087110</v>
       </c>
     </row>
     <row r="516">
@@ -7960,7 +7928,7 @@
         <v>2002</v>
       </c>
       <c r="D516" t="n">
-        <v>327722775</v>
+        <v>321513959</v>
       </c>
     </row>
     <row r="517">
@@ -7974,7 +7942,7 @@
         <v>2003</v>
       </c>
       <c r="D517" t="n">
-        <v>20962871</v>
+        <v>1032432149</v>
       </c>
     </row>
     <row r="518">
@@ -7988,7 +7956,7 @@
         <v>2004</v>
       </c>
       <c r="D518" t="n">
-        <v>363546702</v>
+        <v>155227733</v>
       </c>
     </row>
     <row r="519">
@@ -8002,7 +7970,7 @@
         <v>2005</v>
       </c>
       <c r="D519" t="n">
-        <v>780278805</v>
+        <v>153801763</v>
       </c>
     </row>
     <row r="520">
@@ -8016,7 +7984,7 @@
         <v>2006</v>
       </c>
       <c r="D520" t="n">
-        <v>1030694999</v>
+        <v>334682810</v>
       </c>
     </row>
     <row r="521">
@@ -8030,7 +7998,7 @@
         <v>2007</v>
       </c>
       <c r="D521" t="n">
-        <v>965831159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522">
@@ -8044,7 +8012,7 @@
         <v>2008</v>
       </c>
       <c r="D522" t="n">
-        <v>2120689391</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523">
@@ -8058,7 +8026,7 @@
         <v>2009</v>
       </c>
       <c r="D523" t="n">
-        <v>558768591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524">
@@ -8072,7 +8040,7 @@
         <v>2010</v>
       </c>
       <c r="D524" t="n">
-        <v>2057086951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525">
@@ -8086,7 +8054,7 @@
         <v>2011</v>
       </c>
       <c r="D525" t="n">
-        <v>2291596034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526">
@@ -8100,7 +8068,7 @@
         <v>2012</v>
       </c>
       <c r="D526" t="n">
-        <v>1207872999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527">
@@ -8114,7 +8082,7 @@
         <v>2013</v>
       </c>
       <c r="D527" t="n">
-        <v>1307025010</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528">
@@ -8128,7 +8096,7 @@
         <v>2014</v>
       </c>
       <c r="D528" t="n">
-        <v>2077469660</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529">
@@ -8142,7 +8110,7 @@
         <v>2015</v>
       </c>
       <c r="D529" t="n">
-        <v>3114680000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530">
@@ -8184,7 +8152,7 @@
         <v>2002</v>
       </c>
       <c r="D532" t="n">
-        <v>0</v>
+        <v>4482005</v>
       </c>
     </row>
     <row r="533">
@@ -8198,7 +8166,7 @@
         <v>2003</v>
       </c>
       <c r="D533" t="n">
-        <v>0</v>
+        <v>4705710</v>
       </c>
     </row>
     <row r="534">
@@ -8212,7 +8180,7 @@
         <v>2004</v>
       </c>
       <c r="D534" t="n">
-        <v>0</v>
+        <v>7086676</v>
       </c>
     </row>
     <row r="535">
@@ -8226,7 +8194,7 @@
         <v>2005</v>
       </c>
       <c r="D535" t="n">
-        <v>0</v>
+        <v>8737283</v>
       </c>
     </row>
     <row r="536">
@@ -8240,7 +8208,7 @@
         <v>2006</v>
       </c>
       <c r="D536" t="n">
-        <v>0</v>
+        <v>9712454</v>
       </c>
     </row>
     <row r="537">
@@ -8254,7 +8222,7 @@
         <v>2007</v>
       </c>
       <c r="D537" t="n">
-        <v>0</v>
+        <v>9125255</v>
       </c>
     </row>
     <row r="538">
@@ -8268,7 +8236,7 @@
         <v>2008</v>
       </c>
       <c r="D538" t="n">
-        <v>0</v>
+        <v>9420159</v>
       </c>
     </row>
     <row r="539">
@@ -8282,7 +8250,7 @@
         <v>2009</v>
       </c>
       <c r="D539" t="n">
-        <v>0</v>
+        <v>9470388</v>
       </c>
     </row>
     <row r="540">
@@ -8296,7 +8264,7 @@
         <v>2010</v>
       </c>
       <c r="D540" t="n">
-        <v>0</v>
+        <v>8770065</v>
       </c>
     </row>
     <row r="541">
@@ -8310,7 +8278,7 @@
         <v>2011</v>
       </c>
       <c r="D541" t="n">
-        <v>0</v>
+        <v>9010950</v>
       </c>
     </row>
     <row r="542">
@@ -8324,7 +8292,7 @@
         <v>2012</v>
       </c>
       <c r="D542" t="n">
-        <v>0</v>
+        <v>10311537</v>
       </c>
     </row>
     <row r="543">
@@ -8338,7 +8306,7 @@
         <v>2013</v>
       </c>
       <c r="D543" t="n">
-        <v>0</v>
+        <v>9758175</v>
       </c>
     </row>
     <row r="544">
@@ -8352,7 +8320,7 @@
         <v>2014</v>
       </c>
       <c r="D544" t="n">
-        <v>0</v>
+        <v>13967192</v>
       </c>
     </row>
     <row r="545">
@@ -8366,7 +8334,7 @@
         <v>2015</v>
       </c>
       <c r="D545" t="n">
-        <v>0</v>
+        <v>15860000</v>
       </c>
     </row>
     <row r="546">
@@ -8421,9 +8389,7 @@
       <c r="C549" t="n">
         <v>2003</v>
       </c>
-      <c r="D549" t="n">
-        <v>0</v>
-      </c>
+      <c r="D549"/>
     </row>
     <row r="550">
       <c r="A550" t="s">
@@ -8435,9 +8401,7 @@
       <c r="C550" t="n">
         <v>2004</v>
       </c>
-      <c r="D550" t="n">
-        <v>0</v>
-      </c>
+      <c r="D550"/>
     </row>
     <row r="551">
       <c r="A551" t="s">
@@ -8449,9 +8413,7 @@
       <c r="C551" t="n">
         <v>2005</v>
       </c>
-      <c r="D551" t="n">
-        <v>0</v>
-      </c>
+      <c r="D551"/>
     </row>
     <row r="552">
       <c r="A552" t="s">
@@ -8463,9 +8425,7 @@
       <c r="C552" t="n">
         <v>2006</v>
       </c>
-      <c r="D552" t="n">
-        <v>0</v>
-      </c>
+      <c r="D552"/>
     </row>
     <row r="553">
       <c r="A553" t="s">
@@ -8477,9 +8437,7 @@
       <c r="C553" t="n">
         <v>2007</v>
       </c>
-      <c r="D553" t="n">
-        <v>0</v>
-      </c>
+      <c r="D553"/>
     </row>
     <row r="554">
       <c r="A554" t="s">
@@ -8491,9 +8449,7 @@
       <c r="C554" t="n">
         <v>2008</v>
       </c>
-      <c r="D554" t="n">
-        <v>0</v>
-      </c>
+      <c r="D554"/>
     </row>
     <row r="555">
       <c r="A555" t="s">
@@ -8505,9 +8461,7 @@
       <c r="C555" t="n">
         <v>2009</v>
       </c>
-      <c r="D555" t="n">
-        <v>0</v>
-      </c>
+      <c r="D555"/>
     </row>
     <row r="556">
       <c r="A556" t="s">
@@ -8519,9 +8473,7 @@
       <c r="C556" t="n">
         <v>2010</v>
       </c>
-      <c r="D556" t="n">
-        <v>0</v>
-      </c>
+      <c r="D556"/>
     </row>
     <row r="557">
       <c r="A557" t="s">
@@ -8533,9 +8485,7 @@
       <c r="C557" t="n">
         <v>2011</v>
       </c>
-      <c r="D557" t="n">
-        <v>0</v>
-      </c>
+      <c r="D557"/>
     </row>
     <row r="558">
       <c r="A558" t="s">
@@ -8547,9 +8497,7 @@
       <c r="C558" t="n">
         <v>2012</v>
       </c>
-      <c r="D558" t="n">
-        <v>0</v>
-      </c>
+      <c r="D558"/>
     </row>
     <row r="559">
       <c r="A559" t="s">
@@ -8561,9 +8509,7 @@
       <c r="C559" t="n">
         <v>2013</v>
       </c>
-      <c r="D559" t="n">
-        <v>0</v>
-      </c>
+      <c r="D559"/>
     </row>
     <row r="560">
       <c r="A560" t="s">
@@ -8575,9 +8521,7 @@
       <c r="C560" t="n">
         <v>2014</v>
       </c>
-      <c r="D560" t="n">
-        <v>0</v>
-      </c>
+      <c r="D560"/>
     </row>
     <row r="561">
       <c r="A561" t="s">
@@ -8589,9 +8533,7 @@
       <c r="C561" t="n">
         <v>2015</v>
       </c>
-      <c r="D561" t="n">
-        <v>0</v>
-      </c>
+      <c r="D561"/>
     </row>
     <row r="562">
       <c r="A562" t="s">
@@ -8603,7 +8545,9 @@
       <c r="C562" t="n">
         <v>2000</v>
       </c>
-      <c r="D562"/>
+      <c r="D562" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="563">
       <c r="A563" t="s">
@@ -8615,7 +8559,9 @@
       <c r="C563" t="n">
         <v>2001</v>
       </c>
-      <c r="D563"/>
+      <c r="D563" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="564">
       <c r="A564" t="s">
@@ -8627,7 +8573,9 @@
       <c r="C564" t="n">
         <v>2002</v>
       </c>
-      <c r="D564"/>
+      <c r="D564" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="565">
       <c r="A565" t="s">
@@ -8639,7 +8587,9 @@
       <c r="C565" t="n">
         <v>2003</v>
       </c>
-      <c r="D565"/>
+      <c r="D565" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="566">
       <c r="A566" t="s">
@@ -8651,7 +8601,9 @@
       <c r="C566" t="n">
         <v>2004</v>
       </c>
-      <c r="D566"/>
+      <c r="D566" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="567">
       <c r="A567" t="s">
@@ -8663,7 +8615,9 @@
       <c r="C567" t="n">
         <v>2005</v>
       </c>
-      <c r="D567"/>
+      <c r="D567" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="568">
       <c r="A568" t="s">
@@ -8675,7 +8629,9 @@
       <c r="C568" t="n">
         <v>2006</v>
       </c>
-      <c r="D568"/>
+      <c r="D568" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="569">
       <c r="A569" t="s">
@@ -8687,7 +8643,9 @@
       <c r="C569" t="n">
         <v>2007</v>
       </c>
-      <c r="D569"/>
+      <c r="D569" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="570">
       <c r="A570" t="s">
@@ -8699,7 +8657,9 @@
       <c r="C570" t="n">
         <v>2008</v>
       </c>
-      <c r="D570"/>
+      <c r="D570" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="571">
       <c r="A571" t="s">
@@ -8711,7 +8671,9 @@
       <c r="C571" t="n">
         <v>2009</v>
       </c>
-      <c r="D571"/>
+      <c r="D571" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="572">
       <c r="A572" t="s">
@@ -8723,7 +8685,9 @@
       <c r="C572" t="n">
         <v>2010</v>
       </c>
-      <c r="D572"/>
+      <c r="D572" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="573">
       <c r="A573" t="s">
@@ -8735,7 +8699,9 @@
       <c r="C573" t="n">
         <v>2011</v>
       </c>
-      <c r="D573"/>
+      <c r="D573" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="574">
       <c r="A574" t="s">
@@ -8747,7 +8713,9 @@
       <c r="C574" t="n">
         <v>2012</v>
       </c>
-      <c r="D574"/>
+      <c r="D574" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="575">
       <c r="A575" t="s">
@@ -8759,7 +8727,9 @@
       <c r="C575" t="n">
         <v>2013</v>
       </c>
-      <c r="D575"/>
+      <c r="D575" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="576">
       <c r="A576" t="s">
@@ -8771,7 +8741,9 @@
       <c r="C576" t="n">
         <v>2014</v>
       </c>
-      <c r="D576"/>
+      <c r="D576" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="577">
       <c r="A577" t="s">
@@ -8783,7 +8755,9 @@
       <c r="C577" t="n">
         <v>2015</v>
       </c>
-      <c r="D577"/>
+      <c r="D577" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="578">
       <c r="A578" t="s">
@@ -8796,7 +8770,7 @@
         <v>2000</v>
       </c>
       <c r="D578" t="n">
-        <v>58632995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579">
@@ -8810,7 +8784,7 @@
         <v>2001</v>
       </c>
       <c r="D579" t="n">
-        <v>64087110</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580">
@@ -8824,7 +8798,7 @@
         <v>2002</v>
       </c>
       <c r="D580" t="n">
-        <v>321513959</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581">
@@ -8838,7 +8812,7 @@
         <v>2003</v>
       </c>
       <c r="D581" t="n">
-        <v>1032432149</v>
+        <v>325977</v>
       </c>
     </row>
     <row r="582">
@@ -8852,7 +8826,7 @@
         <v>2004</v>
       </c>
       <c r="D582" t="n">
-        <v>155227733</v>
+        <v>344182</v>
       </c>
     </row>
     <row r="583">
@@ -8866,7 +8840,7 @@
         <v>2005</v>
       </c>
       <c r="D583" t="n">
-        <v>153801763</v>
+        <v>5151038</v>
       </c>
     </row>
     <row r="584">
@@ -8880,7 +8854,7 @@
         <v>2006</v>
       </c>
       <c r="D584" t="n">
-        <v>334682810</v>
+        <v>5043816</v>
       </c>
     </row>
     <row r="585">
@@ -8894,7 +8868,7 @@
         <v>2007</v>
       </c>
       <c r="D585" t="n">
-        <v>0</v>
+        <v>4570978</v>
       </c>
     </row>
     <row r="586">
@@ -8908,7 +8882,7 @@
         <v>2008</v>
       </c>
       <c r="D586" t="n">
-        <v>0</v>
+        <v>-80188</v>
       </c>
     </row>
     <row r="587">
@@ -8922,7 +8896,7 @@
         <v>2009</v>
       </c>
       <c r="D587" t="n">
-        <v>0</v>
+        <v>111673</v>
       </c>
     </row>
     <row r="588">
@@ -8936,7 +8910,7 @@
         <v>2010</v>
       </c>
       <c r="D588" t="n">
-        <v>0</v>
+        <v>558034</v>
       </c>
     </row>
     <row r="589">
@@ -8978,7 +8952,7 @@
         <v>2013</v>
       </c>
       <c r="D591" t="n">
-        <v>0</v>
+        <v>159575</v>
       </c>
     </row>
     <row r="592">
@@ -8992,7 +8966,7 @@
         <v>2014</v>
       </c>
       <c r="D592" t="n">
-        <v>0</v>
+        <v>-35281385</v>
       </c>
     </row>
     <row r="593">
@@ -9006,7 +8980,7 @@
         <v>2015</v>
       </c>
       <c r="D593" t="n">
-        <v>0</v>
+        <v>284100000</v>
       </c>
     </row>
     <row r="594">
@@ -9062,7 +9036,7 @@
         <v>2003</v>
       </c>
       <c r="D597" t="n">
-        <v>325977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598">
@@ -9076,7 +9050,7 @@
         <v>2004</v>
       </c>
       <c r="D598" t="n">
-        <v>344182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599">
@@ -9090,7 +9064,7 @@
         <v>2005</v>
       </c>
       <c r="D599" t="n">
-        <v>5151038</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600">
@@ -9104,7 +9078,7 @@
         <v>2006</v>
       </c>
       <c r="D600" t="n">
-        <v>5043816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601">
@@ -9118,7 +9092,7 @@
         <v>2007</v>
       </c>
       <c r="D601" t="n">
-        <v>4570978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602">
@@ -9132,7 +9106,7 @@
         <v>2008</v>
       </c>
       <c r="D602" t="n">
-        <v>-80188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603">
@@ -9146,7 +9120,7 @@
         <v>2009</v>
       </c>
       <c r="D603" t="n">
-        <v>111673</v>
+        <v>246313574</v>
       </c>
     </row>
     <row r="604">
@@ -9160,7 +9134,7 @@
         <v>2010</v>
       </c>
       <c r="D604" t="n">
-        <v>558034</v>
+        <v>270796581</v>
       </c>
     </row>
     <row r="605">
@@ -9174,7 +9148,7 @@
         <v>2011</v>
       </c>
       <c r="D605" t="n">
-        <v>0</v>
+        <v>286723938</v>
       </c>
     </row>
     <row r="606">
@@ -9188,7 +9162,7 @@
         <v>2012</v>
       </c>
       <c r="D606" t="n">
-        <v>0</v>
+        <v>88065530</v>
       </c>
     </row>
     <row r="607">
@@ -9202,7 +9176,7 @@
         <v>2013</v>
       </c>
       <c r="D607" t="n">
-        <v>159575</v>
+        <v>205953468</v>
       </c>
     </row>
     <row r="608">
@@ -9216,7 +9190,7 @@
         <v>2014</v>
       </c>
       <c r="D608" t="n">
-        <v>-35281385</v>
+        <v>194010155</v>
       </c>
     </row>
     <row r="609">
@@ -9230,7 +9204,7 @@
         <v>2015</v>
       </c>
       <c r="D609" t="n">
-        <v>284100000</v>
+        <v>254340000</v>
       </c>
     </row>
     <row r="610">
@@ -9285,7 +9259,9 @@
       <c r="C613" t="n">
         <v>2003</v>
       </c>
-      <c r="D613"/>
+      <c r="D613" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="614">
       <c r="A614" t="s">
@@ -9297,7 +9273,9 @@
       <c r="C614" t="n">
         <v>2004</v>
       </c>
-      <c r="D614"/>
+      <c r="D614" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="615">
       <c r="A615" t="s">
@@ -9309,7 +9287,9 @@
       <c r="C615" t="n">
         <v>2005</v>
       </c>
-      <c r="D615"/>
+      <c r="D615" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="616">
       <c r="A616" t="s">
@@ -9321,7 +9301,9 @@
       <c r="C616" t="n">
         <v>2006</v>
       </c>
-      <c r="D616"/>
+      <c r="D616" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="617">
       <c r="A617" t="s">
@@ -9333,7 +9315,9 @@
       <c r="C617" t="n">
         <v>2007</v>
       </c>
-      <c r="D617"/>
+      <c r="D617" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="618">
       <c r="A618" t="s">
@@ -9345,7 +9329,9 @@
       <c r="C618" t="n">
         <v>2008</v>
       </c>
-      <c r="D618"/>
+      <c r="D618" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="619">
       <c r="A619" t="s">
@@ -9357,7 +9343,9 @@
       <c r="C619" t="n">
         <v>2009</v>
       </c>
-      <c r="D619"/>
+      <c r="D619" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="620">
       <c r="A620" t="s">
@@ -9369,7 +9357,9 @@
       <c r="C620" t="n">
         <v>2010</v>
       </c>
-      <c r="D620"/>
+      <c r="D620" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="621">
       <c r="A621" t="s">
@@ -9381,7 +9371,9 @@
       <c r="C621" t="n">
         <v>2011</v>
       </c>
-      <c r="D621"/>
+      <c r="D621" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="622">
       <c r="A622" t="s">
@@ -9393,7 +9385,9 @@
       <c r="C622" t="n">
         <v>2012</v>
       </c>
-      <c r="D622"/>
+      <c r="D622" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="623">
       <c r="A623" t="s">
@@ -9405,7 +9399,9 @@
       <c r="C623" t="n">
         <v>2013</v>
       </c>
-      <c r="D623"/>
+      <c r="D623" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="624">
       <c r="A624" t="s">
@@ -9417,7 +9413,9 @@
       <c r="C624" t="n">
         <v>2014</v>
       </c>
-      <c r="D624"/>
+      <c r="D624" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="625">
       <c r="A625" t="s">
@@ -9429,7 +9427,9 @@
       <c r="C625" t="n">
         <v>2015</v>
       </c>
-      <c r="D625"/>
+      <c r="D625" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="626">
       <c r="A626" t="s">
@@ -9666,7 +9666,7 @@
         <v>2000</v>
       </c>
       <c r="D642" t="n">
-        <v>0</v>
+        <v>126478809</v>
       </c>
     </row>
     <row r="643">
@@ -9680,7 +9680,7 @@
         <v>2001</v>
       </c>
       <c r="D643" t="n">
-        <v>0</v>
+        <v>-1712263</v>
       </c>
     </row>
     <row r="644">
@@ -9694,7 +9694,7 @@
         <v>2002</v>
       </c>
       <c r="D644" t="n">
-        <v>4482005</v>
+        <v>-2061301</v>
       </c>
     </row>
     <row r="645">
@@ -9708,7 +9708,7 @@
         <v>2003</v>
       </c>
       <c r="D645" t="n">
-        <v>4705710</v>
+        <v>-2136287</v>
       </c>
     </row>
     <row r="646">
@@ -9722,7 +9722,7 @@
         <v>2004</v>
       </c>
       <c r="D646" t="n">
-        <v>7086676</v>
+        <v>-730447206</v>
       </c>
     </row>
     <row r="647">
@@ -9736,7 +9736,7 @@
         <v>2005</v>
       </c>
       <c r="D647" t="n">
-        <v>8737283</v>
+        <v>-2794073</v>
       </c>
     </row>
     <row r="648">
@@ -9750,7 +9750,7 @@
         <v>2006</v>
       </c>
       <c r="D648" t="n">
-        <v>9712454</v>
+        <v>-19846098</v>
       </c>
     </row>
     <row r="649">
@@ -9764,7 +9764,7 @@
         <v>2007</v>
       </c>
       <c r="D649" t="n">
-        <v>9125255</v>
+        <v>-206538847</v>
       </c>
     </row>
     <row r="650">
@@ -9778,7 +9778,7 @@
         <v>2008</v>
       </c>
       <c r="D650" t="n">
-        <v>9420159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651">
@@ -9792,7 +9792,7 @@
         <v>2009</v>
       </c>
       <c r="D651" t="n">
-        <v>9470388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652">
@@ -9806,7 +9806,7 @@
         <v>2010</v>
       </c>
       <c r="D652" t="n">
-        <v>8770065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653">
@@ -9820,7 +9820,7 @@
         <v>2011</v>
       </c>
       <c r="D653" t="n">
-        <v>9010950</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654">
@@ -9834,7 +9834,7 @@
         <v>2012</v>
       </c>
       <c r="D654" t="n">
-        <v>10311537</v>
+        <v>1742527</v>
       </c>
     </row>
     <row r="655">
@@ -9848,7 +9848,7 @@
         <v>2013</v>
       </c>
       <c r="D655" t="n">
-        <v>9758175</v>
+        <v>2520346</v>
       </c>
     </row>
     <row r="656">
@@ -9862,7 +9862,7 @@
         <v>2014</v>
       </c>
       <c r="D656" t="n">
-        <v>13967192</v>
+        <v>1550810</v>
       </c>
     </row>
     <row r="657">
@@ -9876,7 +9876,7 @@
         <v>2015</v>
       </c>
       <c r="D657" t="n">
-        <v>15860000</v>
+        <v>-450000</v>
       </c>
     </row>
     <row r="658">
@@ -10016,7 +10016,7 @@
         <v>2009</v>
       </c>
       <c r="D667" t="n">
-        <v>246313574</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668">
@@ -10030,7 +10030,7 @@
         <v>2010</v>
       </c>
       <c r="D668" t="n">
-        <v>270796581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669">
@@ -10044,7 +10044,7 @@
         <v>2011</v>
       </c>
       <c r="D669" t="n">
-        <v>286723938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670">
@@ -10058,7 +10058,7 @@
         <v>2012</v>
       </c>
       <c r="D670" t="n">
-        <v>88065530</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671">
@@ -10072,7 +10072,7 @@
         <v>2013</v>
       </c>
       <c r="D671" t="n">
-        <v>205953468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672">
@@ -10086,7 +10086,7 @@
         <v>2014</v>
       </c>
       <c r="D672" t="n">
-        <v>194010155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673">
@@ -10100,7 +10100,7 @@
         <v>2015</v>
       </c>
       <c r="D673" t="n">
-        <v>254340000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674">
@@ -10114,7 +10114,7 @@
         <v>2000</v>
       </c>
       <c r="D674" t="n">
-        <v>0</v>
+        <v>5347032</v>
       </c>
     </row>
     <row r="675">
@@ -10128,7 +10128,7 @@
         <v>2001</v>
       </c>
       <c r="D675" t="n">
-        <v>0</v>
+        <v>235959091</v>
       </c>
     </row>
     <row r="676">
@@ -10142,7 +10142,7 @@
         <v>2002</v>
       </c>
       <c r="D676" t="n">
-        <v>0</v>
+        <v>80029005</v>
       </c>
     </row>
     <row r="677">
@@ -10156,7 +10156,7 @@
         <v>2003</v>
       </c>
       <c r="D677" t="n">
-        <v>0</v>
+        <v>86261717</v>
       </c>
     </row>
     <row r="678">
@@ -10170,7 +10170,7 @@
         <v>2004</v>
       </c>
       <c r="D678" t="n">
-        <v>0</v>
+        <v>25857660</v>
       </c>
     </row>
     <row r="679">
@@ -10184,7 +10184,7 @@
         <v>2005</v>
       </c>
       <c r="D679" t="n">
-        <v>0</v>
+        <v>66221802</v>
       </c>
     </row>
     <row r="680">
@@ -10212,7 +10212,7 @@
         <v>2007</v>
       </c>
       <c r="D681" t="n">
-        <v>0</v>
+        <v>5274626</v>
       </c>
     </row>
     <row r="682">
@@ -10240,7 +10240,7 @@
         <v>2009</v>
       </c>
       <c r="D683" t="n">
-        <v>0</v>
+        <v>2794533</v>
       </c>
     </row>
     <row r="684">
@@ -10268,7 +10268,7 @@
         <v>2011</v>
       </c>
       <c r="D685" t="n">
-        <v>0</v>
+        <v>3292293</v>
       </c>
     </row>
     <row r="686">
@@ -10282,7 +10282,7 @@
         <v>2012</v>
       </c>
       <c r="D686" t="n">
-        <v>0</v>
+        <v>2157360</v>
       </c>
     </row>
     <row r="687">
@@ -10296,7 +10296,7 @@
         <v>2013</v>
       </c>
       <c r="D687" t="n">
-        <v>0</v>
+        <v>12125685</v>
       </c>
     </row>
     <row r="688">
@@ -10310,7 +10310,7 @@
         <v>2014</v>
       </c>
       <c r="D688" t="n">
-        <v>0</v>
+        <v>3157094</v>
       </c>
     </row>
     <row r="689">
@@ -10324,7 +10324,7 @@
         <v>2015</v>
       </c>
       <c r="D689" t="n">
-        <v>0</v>
+        <v>5800000</v>
       </c>
     </row>
     <row r="690">
@@ -10338,7 +10338,7 @@
         <v>2000</v>
       </c>
       <c r="D690" t="n">
-        <v>0</v>
+        <v>181669</v>
       </c>
     </row>
     <row r="691">
@@ -10352,7 +10352,7 @@
         <v>2001</v>
       </c>
       <c r="D691" t="n">
-        <v>0</v>
+        <v>1802117</v>
       </c>
     </row>
     <row r="692">
@@ -10366,7 +10366,7 @@
         <v>2002</v>
       </c>
       <c r="D692" t="n">
-        <v>0</v>
+        <v>2551633</v>
       </c>
     </row>
     <row r="693">
@@ -10380,7 +10380,7 @@
         <v>2003</v>
       </c>
       <c r="D693" t="n">
-        <v>0</v>
+        <v>-17973394</v>
       </c>
     </row>
     <row r="694">
@@ -10394,7 +10394,7 @@
         <v>2004</v>
       </c>
       <c r="D694" t="n">
-        <v>0</v>
+        <v>-67444662</v>
       </c>
     </row>
     <row r="695">
@@ -10408,7 +10408,7 @@
         <v>2005</v>
       </c>
       <c r="D695" t="n">
-        <v>0</v>
+        <v>-4249274</v>
       </c>
     </row>
     <row r="696">
@@ -10422,7 +10422,7 @@
         <v>2006</v>
       </c>
       <c r="D696" t="n">
-        <v>0</v>
+        <v>-1771762</v>
       </c>
     </row>
     <row r="697">
@@ -10436,7 +10436,7 @@
         <v>2007</v>
       </c>
       <c r="D697" t="n">
-        <v>0</v>
+        <v>-42597065</v>
       </c>
     </row>
     <row r="698">
@@ -10450,7 +10450,7 @@
         <v>2008</v>
       </c>
       <c r="D698" t="n">
-        <v>0</v>
+        <v>27013240</v>
       </c>
     </row>
     <row r="699">
@@ -10464,7 +10464,7 @@
         <v>2009</v>
       </c>
       <c r="D699" t="n">
-        <v>0</v>
+        <v>66936931</v>
       </c>
     </row>
     <row r="700">
@@ -10478,7 +10478,7 @@
         <v>2010</v>
       </c>
       <c r="D700" t="n">
-        <v>0</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="701">
@@ -10492,7 +10492,7 @@
         <v>2011</v>
       </c>
       <c r="D701" t="n">
-        <v>0</v>
+        <v>-108695380</v>
       </c>
     </row>
     <row r="702">
@@ -10506,7 +10506,7 @@
         <v>2012</v>
       </c>
       <c r="D702" t="n">
-        <v>0</v>
+        <v>-40783750</v>
       </c>
     </row>
     <row r="703">
@@ -10520,7 +10520,7 @@
         <v>2013</v>
       </c>
       <c r="D703" t="n">
-        <v>0</v>
+        <v>-18720629</v>
       </c>
     </row>
     <row r="704">
@@ -10534,7 +10534,7 @@
         <v>2014</v>
       </c>
       <c r="D704" t="n">
-        <v>0</v>
+        <v>-24278431</v>
       </c>
     </row>
     <row r="705">
@@ -10548,7 +10548,7 @@
         <v>2015</v>
       </c>
       <c r="D705" t="n">
-        <v>0</v>
+        <v>46030000</v>
       </c>
     </row>
     <row r="706">
@@ -10562,7 +10562,7 @@
         <v>2000</v>
       </c>
       <c r="D706" t="n">
-        <v>126478809</v>
+        <v>14248403</v>
       </c>
     </row>
     <row r="707">
@@ -10576,7 +10576,7 @@
         <v>2001</v>
       </c>
       <c r="D707" t="n">
-        <v>-1712263</v>
+        <v>12037932</v>
       </c>
     </row>
     <row r="708">
@@ -10590,7 +10590,7 @@
         <v>2002</v>
       </c>
       <c r="D708" t="n">
-        <v>-2061301</v>
+        <v>5572953</v>
       </c>
     </row>
     <row r="709">
@@ -10604,7 +10604,7 @@
         <v>2003</v>
       </c>
       <c r="D709" t="n">
-        <v>-2136287</v>
+        <v>89120</v>
       </c>
     </row>
     <row r="710">
@@ -10618,7 +10618,7 @@
         <v>2004</v>
       </c>
       <c r="D710" t="n">
-        <v>-730447206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711">
@@ -10632,7 +10632,7 @@
         <v>2005</v>
       </c>
       <c r="D711" t="n">
-        <v>-2794073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712">
@@ -10646,7 +10646,7 @@
         <v>2006</v>
       </c>
       <c r="D712" t="n">
-        <v>-19846098</v>
+        <v>23158359</v>
       </c>
     </row>
     <row r="713">
@@ -10660,7 +10660,7 @@
         <v>2007</v>
       </c>
       <c r="D713" t="n">
-        <v>-206538847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714">
@@ -10730,7 +10730,7 @@
         <v>2012</v>
       </c>
       <c r="D718" t="n">
-        <v>1742527</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719">
@@ -10744,7 +10744,7 @@
         <v>2013</v>
       </c>
       <c r="D719" t="n">
-        <v>2520346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720">
@@ -10758,7 +10758,7 @@
         <v>2014</v>
       </c>
       <c r="D720" t="n">
-        <v>1550810</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721">
@@ -10772,7 +10772,7 @@
         <v>2015</v>
       </c>
       <c r="D721" t="n">
-        <v>-450000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722">
@@ -10828,7 +10828,7 @@
         <v>2003</v>
       </c>
       <c r="D725" t="n">
-        <v>0</v>
+        <v>56277181</v>
       </c>
     </row>
     <row r="726">
@@ -10842,7 +10842,7 @@
         <v>2004</v>
       </c>
       <c r="D726" t="n">
-        <v>0</v>
+        <v>920246091</v>
       </c>
     </row>
     <row r="727">
@@ -10856,7 +10856,7 @@
         <v>2005</v>
       </c>
       <c r="D727" t="n">
-        <v>0</v>
+        <v>402287854</v>
       </c>
     </row>
     <row r="728">
@@ -10870,7 +10870,7 @@
         <v>2006</v>
       </c>
       <c r="D728" t="n">
-        <v>0</v>
+        <v>-123301384</v>
       </c>
     </row>
     <row r="729">
@@ -10884,7 +10884,7 @@
         <v>2007</v>
       </c>
       <c r="D729" t="n">
-        <v>0</v>
+        <v>-35462960</v>
       </c>
     </row>
     <row r="730">
@@ -10898,7 +10898,7 @@
         <v>2008</v>
       </c>
       <c r="D730" t="n">
-        <v>0</v>
+        <v>-1953943</v>
       </c>
     </row>
     <row r="731">
@@ -10912,7 +10912,7 @@
         <v>2009</v>
       </c>
       <c r="D731" t="n">
-        <v>0</v>
+        <v>-9465011</v>
       </c>
     </row>
     <row r="732">
@@ -10926,7 +10926,7 @@
         <v>2010</v>
       </c>
       <c r="D732" t="n">
-        <v>0</v>
+        <v>-19902561</v>
       </c>
     </row>
     <row r="733">
@@ -10940,7 +10940,7 @@
         <v>2011</v>
       </c>
       <c r="D733" t="n">
-        <v>0</v>
+        <v>9495961</v>
       </c>
     </row>
     <row r="734">
@@ -10954,7 +10954,7 @@
         <v>2012</v>
       </c>
       <c r="D734" t="n">
-        <v>0</v>
+        <v>45933508</v>
       </c>
     </row>
     <row r="735">
@@ -10968,7 +10968,7 @@
         <v>2013</v>
       </c>
       <c r="D735" t="n">
-        <v>0</v>
+        <v>-10623685</v>
       </c>
     </row>
     <row r="736">
@@ -10982,7 +10982,7 @@
         <v>2014</v>
       </c>
       <c r="D736" t="n">
-        <v>0</v>
+        <v>62564992</v>
       </c>
     </row>
     <row r="737">
@@ -10996,7 +10996,7 @@
         <v>2015</v>
       </c>
       <c r="D737" t="n">
-        <v>0</v>
+        <v>112780000</v>
       </c>
     </row>
     <row r="738">
@@ -11010,7 +11010,7 @@
         <v>2000</v>
       </c>
       <c r="D738" t="n">
-        <v>181669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739">
@@ -11024,7 +11024,7 @@
         <v>2001</v>
       </c>
       <c r="D739" t="n">
-        <v>1802117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740">
@@ -11038,7 +11038,7 @@
         <v>2002</v>
       </c>
       <c r="D740" t="n">
-        <v>2551633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741">
@@ -11052,7 +11052,7 @@
         <v>2003</v>
       </c>
       <c r="D741" t="n">
-        <v>-17973394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742">
@@ -11066,7 +11066,7 @@
         <v>2004</v>
       </c>
       <c r="D742" t="n">
-        <v>-67444662</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743">
@@ -11080,7 +11080,7 @@
         <v>2005</v>
       </c>
       <c r="D743" t="n">
-        <v>-4249274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744">
@@ -11094,7 +11094,7 @@
         <v>2006</v>
       </c>
       <c r="D744" t="n">
-        <v>-1771762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745">
@@ -11108,7 +11108,7 @@
         <v>2007</v>
       </c>
       <c r="D745" t="n">
-        <v>-42597065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746">
@@ -11122,7 +11122,7 @@
         <v>2008</v>
       </c>
       <c r="D746" t="n">
-        <v>27013240</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747">
@@ -11136,7 +11136,7 @@
         <v>2009</v>
       </c>
       <c r="D747" t="n">
-        <v>66936931</v>
+        <v>8858601</v>
       </c>
     </row>
     <row r="748">
@@ -11150,7 +11150,7 @@
         <v>2010</v>
       </c>
       <c r="D748" t="n">
-        <v>45770</v>
+        <v>-1691875</v>
       </c>
     </row>
     <row r="749">
@@ -11164,7 +11164,7 @@
         <v>2011</v>
       </c>
       <c r="D749" t="n">
-        <v>-108695380</v>
+        <v>21730329</v>
       </c>
     </row>
     <row r="750">
@@ -11178,7 +11178,7 @@
         <v>2012</v>
       </c>
       <c r="D750" t="n">
-        <v>-40783750</v>
+        <v>54855039</v>
       </c>
     </row>
     <row r="751">
@@ -11192,7 +11192,7 @@
         <v>2013</v>
       </c>
       <c r="D751" t="n">
-        <v>-18720629</v>
+        <v>6663118</v>
       </c>
     </row>
     <row r="752">
@@ -11206,7 +11206,7 @@
         <v>2014</v>
       </c>
       <c r="D752" t="n">
-        <v>-24278431</v>
+        <v>449580141</v>
       </c>
     </row>
     <row r="753">
@@ -11220,7 +11220,7 @@
         <v>2015</v>
       </c>
       <c r="D753" t="n">
-        <v>46030000</v>
+        <v>3836180000</v>
       </c>
     </row>
     <row r="754">
@@ -11234,7 +11234,7 @@
         <v>2000</v>
       </c>
       <c r="D754" t="n">
-        <v>0</v>
+        <v>-101988872</v>
       </c>
     </row>
     <row r="755">
@@ -11248,7 +11248,7 @@
         <v>2001</v>
       </c>
       <c r="D755" t="n">
-        <v>0</v>
+        <v>33427959</v>
       </c>
     </row>
     <row r="756">
@@ -11262,7 +11262,7 @@
         <v>2002</v>
       </c>
       <c r="D756" t="n">
-        <v>0</v>
+        <v>-5306617</v>
       </c>
     </row>
     <row r="757">
@@ -11276,7 +11276,7 @@
         <v>2003</v>
       </c>
       <c r="D757" t="n">
-        <v>56277181</v>
+        <v>61413253</v>
       </c>
     </row>
     <row r="758">
@@ -11290,7 +11290,7 @@
         <v>2004</v>
       </c>
       <c r="D758" t="n">
-        <v>920246091</v>
+        <v>-165974547</v>
       </c>
     </row>
     <row r="759">
@@ -11304,7 +11304,7 @@
         <v>2005</v>
       </c>
       <c r="D759" t="n">
-        <v>402287854</v>
+        <v>-103683053</v>
       </c>
     </row>
     <row r="760">
@@ -11318,7 +11318,7 @@
         <v>2006</v>
       </c>
       <c r="D760" t="n">
-        <v>-123301384</v>
+        <v>-188025295</v>
       </c>
     </row>
     <row r="761">
@@ -11332,7 +11332,7 @@
         <v>2007</v>
       </c>
       <c r="D761" t="n">
-        <v>-35462960</v>
+        <v>-38775881</v>
       </c>
     </row>
     <row r="762">
@@ -11346,7 +11346,7 @@
         <v>2008</v>
       </c>
       <c r="D762" t="n">
-        <v>-1953943</v>
+        <v>-21710817</v>
       </c>
     </row>
     <row r="763">
@@ -11360,7 +11360,7 @@
         <v>2009</v>
       </c>
       <c r="D763" t="n">
-        <v>-9465011</v>
+        <v>-14277336</v>
       </c>
     </row>
     <row r="764">
@@ -11374,7 +11374,7 @@
         <v>2010</v>
       </c>
       <c r="D764" t="n">
-        <v>-19902561</v>
+        <v>-20486481</v>
       </c>
     </row>
     <row r="765">
@@ -11388,7 +11388,7 @@
         <v>2011</v>
       </c>
       <c r="D765" t="n">
-        <v>9495961</v>
+        <v>-40367762</v>
       </c>
     </row>
     <row r="766">
@@ -11402,7 +11402,7 @@
         <v>2012</v>
       </c>
       <c r="D766" t="n">
-        <v>45933508</v>
+        <v>36444188</v>
       </c>
     </row>
     <row r="767">
@@ -11416,7 +11416,7 @@
         <v>2013</v>
       </c>
       <c r="D767" t="n">
-        <v>-10623685</v>
+        <v>187516380</v>
       </c>
     </row>
     <row r="768">
@@ -11430,7 +11430,7 @@
         <v>2014</v>
       </c>
       <c r="D768" t="n">
-        <v>62564992</v>
+        <v>38527357</v>
       </c>
     </row>
     <row r="769">
@@ -11444,7 +11444,7 @@
         <v>2015</v>
       </c>
       <c r="D769" t="n">
-        <v>112780000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770">

--- a/user-data/out-oof-net/out-oof-net.xlsx
+++ b/user-data/out-oof-net/out-oof-net.xlsx
@@ -27,12 +27,6 @@
     <t xml:space="preserve">round</t>
   </si>
   <si>
-    <t xml:space="preserve">AE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">UAE</t>
-  </si>
-  <si>
     <t xml:space="preserve">afdb</t>
   </si>
   <si>
@@ -43,6 +37,12 @@
   </si>
   <si>
     <t xml:space="preserve">All Donors, Total</t>
+  </si>
+  <si>
+    <t xml:space="preserve">badea</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Arab Bank for Economic Development in Africa (BADEA)</t>
   </si>
   <si>
     <t xml:space="preserve">arab-fund-afesd</t>
@@ -57,22 +57,16 @@
     <t xml:space="preserve">Asian Development Bank (ADB)</t>
   </si>
   <si>
-    <t xml:space="preserve">AT</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Austria</t>
-  </si>
-  <si>
     <t xml:space="preserve">AU</t>
   </si>
   <si>
     <t xml:space="preserve">Australia</t>
   </si>
   <si>
-    <t xml:space="preserve">badea</t>
+    <t xml:space="preserve">AT</t>
   </si>
   <si>
-    <t xml:space="preserve">Arab Bank for Economic Development in Africa (BADEA)</t>
+    <t xml:space="preserve">Austria</t>
   </si>
   <si>
     <t xml:space="preserve">BE</t>
@@ -93,22 +87,16 @@
     <t xml:space="preserve">Caribbean Development Bank (CarDB)</t>
   </si>
   <si>
+    <t xml:space="preserve">cif</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Climate Investment Funds (CIF)</t>
+  </si>
+  <si>
     <t xml:space="preserve">ceb</t>
   </si>
   <si>
     <t xml:space="preserve">Council of Europe Development Bank (CEB)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">CH</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Switzerland</t>
-  </si>
-  <si>
-    <t xml:space="preserve">cif</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Climate Investment Funds (CIF)</t>
   </si>
   <si>
     <t xml:space="preserve">CZ</t>
@@ -123,12 +111,6 @@
     <t xml:space="preserve">DAC Countries, Total</t>
   </si>
   <si>
-    <t xml:space="preserve">DE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Germany</t>
-  </si>
-  <si>
     <t xml:space="preserve">DK</t>
   </si>
   <si>
@@ -139,12 +121,6 @@
   </si>
   <si>
     <t xml:space="preserve">European Bank for Reconstruction and Development (EBRD)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Spain</t>
   </si>
   <si>
     <t xml:space="preserve">EU</t>
@@ -165,10 +141,10 @@
     <t xml:space="preserve">France</t>
   </si>
   <si>
-    <t xml:space="preserve">GB</t>
+    <t xml:space="preserve">DE</t>
   </si>
   <si>
-    <t xml:space="preserve">United Kingdom</t>
+    <t xml:space="preserve">Germany</t>
   </si>
   <si>
     <t xml:space="preserve">GR</t>
@@ -177,28 +153,28 @@
     <t xml:space="preserve">Greece</t>
   </si>
   <si>
+    <t xml:space="preserve">idb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inter-American Development Bank (IDB)</t>
+  </si>
+  <si>
     <t xml:space="preserve">ibrd</t>
   </si>
   <si>
     <t xml:space="preserve">International Bank for Reconstruction and Development (IBRD)</t>
   </si>
   <si>
-    <t xml:space="preserve">idb</t>
+    <t xml:space="preserve">ifc</t>
   </si>
   <si>
-    <t xml:space="preserve">Inter-American Development Bank (IDB)</t>
+    <t xml:space="preserve">International Finance Corporation (IFC)</t>
   </si>
   <si>
     <t xml:space="preserve">ifad</t>
   </si>
   <si>
     <t xml:space="preserve">International Fund for Agricultural Development (IFAD)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ifc</t>
-  </si>
-  <si>
-    <t xml:space="preserve">International Finance Corporation (IFC)</t>
   </si>
   <si>
     <t xml:space="preserve">islamic-dev-bank</t>
@@ -249,10 +225,10 @@
     <t xml:space="preserve">Netherlands</t>
   </si>
   <si>
-    <t xml:space="preserve">NO</t>
+    <t xml:space="preserve">NZ</t>
   </si>
   <si>
-    <t xml:space="preserve">Norway</t>
+    <t xml:space="preserve">New Zealand</t>
   </si>
   <si>
     <t xml:space="preserve">non-dac-countries-total</t>
@@ -267,10 +243,10 @@
     <t xml:space="preserve">Nordic Development Fund (NDF)</t>
   </si>
   <si>
-    <t xml:space="preserve">NZ</t>
+    <t xml:space="preserve">NO</t>
   </si>
   <si>
-    <t xml:space="preserve">New Zealand</t>
+    <t xml:space="preserve">Norway</t>
   </si>
   <si>
     <t xml:space="preserve">ofid</t>
@@ -303,16 +279,40 @@
     <t xml:space="preserve">Saudi Arabia</t>
   </si>
   <si>
+    <t xml:space="preserve">ES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Spain</t>
+  </si>
+  <si>
     <t xml:space="preserve">SE</t>
   </si>
   <si>
     <t xml:space="preserve">Sweden</t>
   </si>
   <si>
+    <t xml:space="preserve">CH</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Switzerland</t>
+  </si>
+  <si>
     <t xml:space="preserve">TR</t>
   </si>
   <si>
     <t xml:space="preserve">Turkey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">AE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">UAE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GB</t>
+  </si>
+  <si>
+    <t xml:space="preserve">United Kingdom</t>
   </si>
   <si>
     <t xml:space="preserve">US</t>
@@ -327,7 +327,7 @@
     <t xml:space="preserve">Description: Net other official flows provided, US$.</t>
   </si>
   <si>
-    <t xml:space="preserve">Units of measure: US$</t>
+    <t xml:space="preserve">Units of measure: constant 2015 US$</t>
   </si>
   <si>
     <t xml:space="preserve">Source: Development Initiatives based on OECD DAC.</t>
@@ -796,7 +796,7 @@
         <v>2000</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>-405143629</v>
       </c>
     </row>
     <row r="3">
@@ -810,7 +810,7 @@
         <v>2001</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>-106233350</v>
       </c>
     </row>
     <row r="4">
@@ -824,7 +824,7 @@
         <v>2002</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>-1050451599</v>
       </c>
     </row>
     <row r="5">
@@ -838,7 +838,7 @@
         <v>2003</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>-733671395</v>
       </c>
     </row>
     <row r="6">
@@ -852,7 +852,7 @@
         <v>2004</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>-808871586</v>
       </c>
     </row>
     <row r="7">
@@ -866,7 +866,7 @@
         <v>2005</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>-354113990</v>
       </c>
     </row>
     <row r="8">
@@ -880,7 +880,7 @@
         <v>2006</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>-436852717</v>
       </c>
     </row>
     <row r="9">
@@ -894,7 +894,7 @@
         <v>2007</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>105450451</v>
       </c>
     </row>
     <row r="10">
@@ -908,7 +908,7 @@
         <v>2008</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>372017700</v>
       </c>
     </row>
     <row r="11">
@@ -922,7 +922,7 @@
         <v>2009</v>
       </c>
       <c r="D11" t="n">
-        <v>8858601</v>
+        <v>2350100386</v>
       </c>
     </row>
     <row r="12">
@@ -936,7 +936,7 @@
         <v>2010</v>
       </c>
       <c r="D12" t="n">
-        <v>-1691875</v>
+        <v>1082500167</v>
       </c>
     </row>
     <row r="13">
@@ -950,7 +950,7 @@
         <v>2011</v>
       </c>
       <c r="D13" t="n">
-        <v>21730329</v>
+        <v>1814266012</v>
       </c>
     </row>
     <row r="14">
@@ -964,7 +964,7 @@
         <v>2012</v>
       </c>
       <c r="D14" t="n">
-        <v>54855039</v>
+        <v>2409458038</v>
       </c>
     </row>
     <row r="15">
@@ -978,7 +978,7 @@
         <v>2013</v>
       </c>
       <c r="D15" t="n">
-        <v>6663118</v>
+        <v>958697053</v>
       </c>
     </row>
     <row r="16">
@@ -992,7 +992,7 @@
         <v>2014</v>
       </c>
       <c r="D16" t="n">
-        <v>449580141</v>
+        <v>1563680939</v>
       </c>
     </row>
     <row r="17">
@@ -1006,7 +1006,7 @@
         <v>2015</v>
       </c>
       <c r="D17" t="n">
-        <v>3836180000</v>
+        <v>996800000</v>
       </c>
     </row>
     <row r="18">
@@ -1019,9 +1019,7 @@
       <c r="C18" t="n">
         <v>2000</v>
       </c>
-      <c r="D18" t="n">
-        <v>-405143629</v>
-      </c>
+      <c r="D18"/>
     </row>
     <row r="19">
       <c r="A19" t="s">
@@ -1033,9 +1031,7 @@
       <c r="C19" t="n">
         <v>2001</v>
       </c>
-      <c r="D19" t="n">
-        <v>-106233350</v>
-      </c>
+      <c r="D19"/>
     </row>
     <row r="20">
       <c r="A20" t="s">
@@ -1047,9 +1043,7 @@
       <c r="C20" t="n">
         <v>2002</v>
       </c>
-      <c r="D20" t="n">
-        <v>-1050451599</v>
-      </c>
+      <c r="D20"/>
     </row>
     <row r="21">
       <c r="A21" t="s">
@@ -1061,9 +1055,7 @@
       <c r="C21" t="n">
         <v>2003</v>
       </c>
-      <c r="D21" t="n">
-        <v>-733671395</v>
-      </c>
+      <c r="D21"/>
     </row>
     <row r="22">
       <c r="A22" t="s">
@@ -1075,9 +1067,7 @@
       <c r="C22" t="n">
         <v>2004</v>
       </c>
-      <c r="D22" t="n">
-        <v>-808871586</v>
-      </c>
+      <c r="D22"/>
     </row>
     <row r="23">
       <c r="A23" t="s">
@@ -1089,9 +1079,7 @@
       <c r="C23" t="n">
         <v>2005</v>
       </c>
-      <c r="D23" t="n">
-        <v>-354113990</v>
-      </c>
+      <c r="D23"/>
     </row>
     <row r="24">
       <c r="A24" t="s">
@@ -1103,9 +1091,7 @@
       <c r="C24" t="n">
         <v>2006</v>
       </c>
-      <c r="D24" t="n">
-        <v>-436852717</v>
-      </c>
+      <c r="D24"/>
     </row>
     <row r="25">
       <c r="A25" t="s">
@@ -1117,9 +1103,7 @@
       <c r="C25" t="n">
         <v>2007</v>
       </c>
-      <c r="D25" t="n">
-        <v>105450451</v>
-      </c>
+      <c r="D25"/>
     </row>
     <row r="26">
       <c r="A26" t="s">
@@ -1131,9 +1115,7 @@
       <c r="C26" t="n">
         <v>2008</v>
       </c>
-      <c r="D26" t="n">
-        <v>372017700</v>
-      </c>
+      <c r="D26"/>
     </row>
     <row r="27">
       <c r="A27" t="s">
@@ -1145,9 +1127,7 @@
       <c r="C27" t="n">
         <v>2009</v>
       </c>
-      <c r="D27" t="n">
-        <v>2350100386</v>
-      </c>
+      <c r="D27"/>
     </row>
     <row r="28">
       <c r="A28" t="s">
@@ -1159,9 +1139,7 @@
       <c r="C28" t="n">
         <v>2010</v>
       </c>
-      <c r="D28" t="n">
-        <v>1082500167</v>
-      </c>
+      <c r="D28"/>
     </row>
     <row r="29">
       <c r="A29" t="s">
@@ -1173,9 +1151,7 @@
       <c r="C29" t="n">
         <v>2011</v>
       </c>
-      <c r="D29" t="n">
-        <v>1814266012</v>
-      </c>
+      <c r="D29"/>
     </row>
     <row r="30">
       <c r="A30" t="s">
@@ -1187,9 +1163,7 @@
       <c r="C30" t="n">
         <v>2012</v>
       </c>
-      <c r="D30" t="n">
-        <v>2409458038</v>
-      </c>
+      <c r="D30"/>
     </row>
     <row r="31">
       <c r="A31" t="s">
@@ -1201,9 +1175,7 @@
       <c r="C31" t="n">
         <v>2013</v>
       </c>
-      <c r="D31" t="n">
-        <v>958697053</v>
-      </c>
+      <c r="D31"/>
     </row>
     <row r="32">
       <c r="A32" t="s">
@@ -1215,9 +1187,7 @@
       <c r="C32" t="n">
         <v>2014</v>
       </c>
-      <c r="D32" t="n">
-        <v>1563680939</v>
-      </c>
+      <c r="D32"/>
     </row>
     <row r="33">
       <c r="A33" t="s">
@@ -1229,9 +1199,7 @@
       <c r="C33" t="n">
         <v>2015</v>
       </c>
-      <c r="D33" t="n">
-        <v>996800000</v>
-      </c>
+      <c r="D33"/>
     </row>
     <row r="34">
       <c r="A34" t="s">
@@ -1243,7 +1211,9 @@
       <c r="C34" t="n">
         <v>2000</v>
       </c>
-      <c r="D34"/>
+      <c r="D34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
@@ -1255,7 +1225,9 @@
       <c r="C35" t="n">
         <v>2001</v>
       </c>
-      <c r="D35"/>
+      <c r="D35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
@@ -1267,7 +1239,9 @@
       <c r="C36" t="n">
         <v>2002</v>
       </c>
-      <c r="D36"/>
+      <c r="D36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
@@ -1279,7 +1253,9 @@
       <c r="C37" t="n">
         <v>2003</v>
       </c>
-      <c r="D37"/>
+      <c r="D37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
@@ -1291,7 +1267,9 @@
       <c r="C38" t="n">
         <v>2004</v>
       </c>
-      <c r="D38"/>
+      <c r="D38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
@@ -1303,7 +1281,9 @@
       <c r="C39" t="n">
         <v>2005</v>
       </c>
-      <c r="D39"/>
+      <c r="D39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
@@ -1315,7 +1295,9 @@
       <c r="C40" t="n">
         <v>2006</v>
       </c>
-      <c r="D40"/>
+      <c r="D40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
@@ -1327,7 +1309,9 @@
       <c r="C41" t="n">
         <v>2007</v>
       </c>
-      <c r="D41"/>
+      <c r="D41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
@@ -1339,7 +1323,9 @@
       <c r="C42" t="n">
         <v>2008</v>
       </c>
-      <c r="D42"/>
+      <c r="D42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
@@ -1351,7 +1337,9 @@
       <c r="C43" t="n">
         <v>2009</v>
       </c>
-      <c r="D43"/>
+      <c r="D43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
@@ -1363,7 +1351,9 @@
       <c r="C44" t="n">
         <v>2010</v>
       </c>
-      <c r="D44"/>
+      <c r="D44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
@@ -1375,7 +1365,9 @@
       <c r="C45" t="n">
         <v>2011</v>
       </c>
-      <c r="D45"/>
+      <c r="D45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
@@ -1387,7 +1379,9 @@
       <c r="C46" t="n">
         <v>2012</v>
       </c>
-      <c r="D46"/>
+      <c r="D46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
@@ -1399,7 +1393,9 @@
       <c r="C47" t="n">
         <v>2013</v>
       </c>
-      <c r="D47"/>
+      <c r="D47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
@@ -1411,7 +1407,9 @@
       <c r="C48" t="n">
         <v>2014</v>
       </c>
-      <c r="D48"/>
+      <c r="D48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
@@ -1423,7 +1421,9 @@
       <c r="C49" t="n">
         <v>2015</v>
       </c>
-      <c r="D49"/>
+      <c r="D49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
@@ -1884,7 +1884,7 @@
         <v>2000</v>
       </c>
       <c r="D82" t="n">
-        <v>113049137</v>
+        <v>1002593305</v>
       </c>
     </row>
     <row r="83">
@@ -1898,7 +1898,7 @@
         <v>2001</v>
       </c>
       <c r="D83" t="n">
-        <v>-208691520</v>
+        <v>-57725023</v>
       </c>
     </row>
     <row r="84">
@@ -1912,7 +1912,7 @@
         <v>2002</v>
       </c>
       <c r="D84" t="n">
-        <v>-53715845</v>
+        <v>-69401177</v>
       </c>
     </row>
     <row r="85">
@@ -1926,7 +1926,7 @@
         <v>2003</v>
       </c>
       <c r="D85" t="n">
-        <v>54006230</v>
+        <v>-13129740</v>
       </c>
     </row>
     <row r="86">
@@ -1940,7 +1940,7 @@
         <v>2004</v>
       </c>
       <c r="D86" t="n">
-        <v>-249097228</v>
+        <v>-108478368</v>
       </c>
     </row>
     <row r="87">
@@ -1954,7 +1954,7 @@
         <v>2005</v>
       </c>
       <c r="D87" t="n">
-        <v>328499079</v>
+        <v>-115544990</v>
       </c>
     </row>
     <row r="88">
@@ -1968,7 +1968,7 @@
         <v>2006</v>
       </c>
       <c r="D88" t="n">
-        <v>-460837337</v>
+        <v>233132731</v>
       </c>
     </row>
     <row r="89">
@@ -1982,7 +1982,7 @@
         <v>2007</v>
       </c>
       <c r="D89" t="n">
-        <v>-576591323</v>
+        <v>-23774712</v>
       </c>
     </row>
     <row r="90">
@@ -1996,7 +1996,7 @@
         <v>2008</v>
       </c>
       <c r="D90" t="n">
-        <v>88270735</v>
+        <v>-110421820</v>
       </c>
     </row>
     <row r="91">
@@ -2010,7 +2010,7 @@
         <v>2009</v>
       </c>
       <c r="D91" t="n">
-        <v>-38194140</v>
+        <v>394483576</v>
       </c>
     </row>
     <row r="92">
@@ -2024,7 +2024,7 @@
         <v>2010</v>
       </c>
       <c r="D92" t="n">
-        <v>-140504185</v>
+        <v>228447140</v>
       </c>
     </row>
     <row r="93">
@@ -2038,7 +2038,7 @@
         <v>2011</v>
       </c>
       <c r="D93" t="n">
-        <v>25726307</v>
+        <v>191361017</v>
       </c>
     </row>
     <row r="94">
@@ -2052,7 +2052,7 @@
         <v>2012</v>
       </c>
       <c r="D94" t="n">
-        <v>43771403</v>
+        <v>239146695</v>
       </c>
     </row>
     <row r="95">
@@ -2066,7 +2066,7 @@
         <v>2013</v>
       </c>
       <c r="D95" t="n">
-        <v>390381634</v>
+        <v>359355168</v>
       </c>
     </row>
     <row r="96">
@@ -2080,7 +2080,7 @@
         <v>2014</v>
       </c>
       <c r="D96" t="n">
-        <v>105476993</v>
+        <v>120211016</v>
       </c>
     </row>
     <row r="97">
@@ -2094,7 +2094,7 @@
         <v>2015</v>
       </c>
       <c r="D97" t="n">
-        <v>-1090000</v>
+        <v>275480000</v>
       </c>
     </row>
     <row r="98">
@@ -2108,7 +2108,7 @@
         <v>2000</v>
       </c>
       <c r="D98" t="n">
-        <v>1002593305</v>
+        <v>113049137</v>
       </c>
     </row>
     <row r="99">
@@ -2122,7 +2122,7 @@
         <v>2001</v>
       </c>
       <c r="D99" t="n">
-        <v>-57725023</v>
+        <v>-208691520</v>
       </c>
     </row>
     <row r="100">
@@ -2136,7 +2136,7 @@
         <v>2002</v>
       </c>
       <c r="D100" t="n">
-        <v>-69401177</v>
+        <v>-53715845</v>
       </c>
     </row>
     <row r="101">
@@ -2150,7 +2150,7 @@
         <v>2003</v>
       </c>
       <c r="D101" t="n">
-        <v>-13129740</v>
+        <v>54006230</v>
       </c>
     </row>
     <row r="102">
@@ -2164,7 +2164,7 @@
         <v>2004</v>
       </c>
       <c r="D102" t="n">
-        <v>-108478368</v>
+        <v>-249097228</v>
       </c>
     </row>
     <row r="103">
@@ -2178,7 +2178,7 @@
         <v>2005</v>
       </c>
       <c r="D103" t="n">
-        <v>-115544990</v>
+        <v>328499079</v>
       </c>
     </row>
     <row r="104">
@@ -2192,7 +2192,7 @@
         <v>2006</v>
       </c>
       <c r="D104" t="n">
-        <v>233132731</v>
+        <v>-460837337</v>
       </c>
     </row>
     <row r="105">
@@ -2206,7 +2206,7 @@
         <v>2007</v>
       </c>
       <c r="D105" t="n">
-        <v>-23774712</v>
+        <v>-576591323</v>
       </c>
     </row>
     <row r="106">
@@ -2220,7 +2220,7 @@
         <v>2008</v>
       </c>
       <c r="D106" t="n">
-        <v>-110421820</v>
+        <v>88270735</v>
       </c>
     </row>
     <row r="107">
@@ -2234,7 +2234,7 @@
         <v>2009</v>
       </c>
       <c r="D107" t="n">
-        <v>394483576</v>
+        <v>-38194140</v>
       </c>
     </row>
     <row r="108">
@@ -2248,7 +2248,7 @@
         <v>2010</v>
       </c>
       <c r="D108" t="n">
-        <v>228447140</v>
+        <v>-140504185</v>
       </c>
     </row>
     <row r="109">
@@ -2262,7 +2262,7 @@
         <v>2011</v>
       </c>
       <c r="D109" t="n">
-        <v>191361017</v>
+        <v>25726307</v>
       </c>
     </row>
     <row r="110">
@@ -2276,7 +2276,7 @@
         <v>2012</v>
       </c>
       <c r="D110" t="n">
-        <v>239146695</v>
+        <v>43771403</v>
       </c>
     </row>
     <row r="111">
@@ -2290,7 +2290,7 @@
         <v>2013</v>
       </c>
       <c r="D111" t="n">
-        <v>359355168</v>
+        <v>390381634</v>
       </c>
     </row>
     <row r="112">
@@ -2304,7 +2304,7 @@
         <v>2014</v>
       </c>
       <c r="D112" t="n">
-        <v>120211016</v>
+        <v>105476993</v>
       </c>
     </row>
     <row r="113">
@@ -2318,7 +2318,7 @@
         <v>2015</v>
       </c>
       <c r="D113" t="n">
-        <v>275480000</v>
+        <v>-1090000</v>
       </c>
     </row>
     <row r="114">
@@ -2332,7 +2332,7 @@
         <v>2000</v>
       </c>
       <c r="D114" t="n">
-        <v>0</v>
+        <v>-13484995</v>
       </c>
     </row>
     <row r="115">
@@ -2346,7 +2346,7 @@
         <v>2001</v>
       </c>
       <c r="D115" t="n">
-        <v>0</v>
+        <v>10898727</v>
       </c>
     </row>
     <row r="116">
@@ -2360,7 +2360,7 @@
         <v>2002</v>
       </c>
       <c r="D116" t="n">
-        <v>0</v>
+        <v>153910649</v>
       </c>
     </row>
     <row r="117">
@@ -2374,7 +2374,7 @@
         <v>2003</v>
       </c>
       <c r="D117" t="n">
-        <v>0</v>
+        <v>1138981872</v>
       </c>
     </row>
     <row r="118">
@@ -2388,7 +2388,7 @@
         <v>2004</v>
       </c>
       <c r="D118" t="n">
-        <v>0</v>
+        <v>-98803667</v>
       </c>
     </row>
     <row r="119">
@@ -2402,7 +2402,7 @@
         <v>2005</v>
       </c>
       <c r="D119" t="n">
-        <v>0</v>
+        <v>407006040</v>
       </c>
     </row>
     <row r="120">
@@ -2416,7 +2416,7 @@
         <v>2006</v>
       </c>
       <c r="D120" t="n">
-        <v>0</v>
+        <v>-437135752</v>
       </c>
     </row>
     <row r="121">
@@ -2430,7 +2430,7 @@
         <v>2007</v>
       </c>
       <c r="D121" t="n">
-        <v>0</v>
+        <v>-146076334</v>
       </c>
     </row>
     <row r="122">
@@ -2444,7 +2444,7 @@
         <v>2008</v>
       </c>
       <c r="D122" t="n">
-        <v>0</v>
+        <v>-116037010</v>
       </c>
     </row>
     <row r="123">
@@ -2458,7 +2458,7 @@
         <v>2009</v>
       </c>
       <c r="D123" t="n">
-        <v>0</v>
+        <v>78038441</v>
       </c>
     </row>
     <row r="124">
@@ -2472,7 +2472,7 @@
         <v>2010</v>
       </c>
       <c r="D124" t="n">
-        <v>0</v>
+        <v>-13477622</v>
       </c>
     </row>
     <row r="125">
@@ -2486,7 +2486,7 @@
         <v>2011</v>
       </c>
       <c r="D125" t="n">
-        <v>0</v>
+        <v>-12411137</v>
       </c>
     </row>
     <row r="126">
@@ -2500,7 +2500,7 @@
         <v>2012</v>
       </c>
       <c r="D126" t="n">
-        <v>0</v>
+        <v>48566468</v>
       </c>
     </row>
     <row r="127">
@@ -2514,7 +2514,7 @@
         <v>2013</v>
       </c>
       <c r="D127" t="n">
-        <v>0</v>
+        <v>64517182</v>
       </c>
     </row>
     <row r="128">
@@ -2528,7 +2528,7 @@
         <v>2014</v>
       </c>
       <c r="D128" t="n">
-        <v>0</v>
+        <v>-37033092</v>
       </c>
     </row>
     <row r="129">
@@ -2542,7 +2542,7 @@
         <v>2015</v>
       </c>
       <c r="D129" t="n">
-        <v>0</v>
+        <v>-27720000</v>
       </c>
     </row>
     <row r="130">
@@ -2556,7 +2556,7 @@
         <v>2000</v>
       </c>
       <c r="D130" t="n">
-        <v>-13484995</v>
+        <v>7582957</v>
       </c>
     </row>
     <row r="131">
@@ -2570,7 +2570,7 @@
         <v>2001</v>
       </c>
       <c r="D131" t="n">
-        <v>10898727</v>
+        <v>-158157721</v>
       </c>
     </row>
     <row r="132">
@@ -2584,7 +2584,7 @@
         <v>2002</v>
       </c>
       <c r="D132" t="n">
-        <v>153910649</v>
+        <v>-687143534</v>
       </c>
     </row>
     <row r="133">
@@ -2598,7 +2598,7 @@
         <v>2003</v>
       </c>
       <c r="D133" t="n">
-        <v>1138981872</v>
+        <v>-500665872</v>
       </c>
     </row>
     <row r="134">
@@ -2612,7 +2612,7 @@
         <v>2004</v>
       </c>
       <c r="D134" t="n">
-        <v>-98803667</v>
+        <v>-998366247</v>
       </c>
     </row>
     <row r="135">
@@ -2626,7 +2626,7 @@
         <v>2005</v>
       </c>
       <c r="D135" t="n">
-        <v>407006040</v>
+        <v>-606472365</v>
       </c>
     </row>
     <row r="136">
@@ -2640,7 +2640,7 @@
         <v>2006</v>
       </c>
       <c r="D136" t="n">
-        <v>-437135752</v>
+        <v>368398367</v>
       </c>
     </row>
     <row r="137">
@@ -2654,7 +2654,7 @@
         <v>2007</v>
       </c>
       <c r="D137" t="n">
-        <v>-146076334</v>
+        <v>-4023024</v>
       </c>
     </row>
     <row r="138">
@@ -2668,7 +2668,7 @@
         <v>2008</v>
       </c>
       <c r="D138" t="n">
-        <v>-116037010</v>
+        <v>1461848859</v>
       </c>
     </row>
     <row r="139">
@@ -2682,7 +2682,7 @@
         <v>2009</v>
       </c>
       <c r="D139" t="n">
-        <v>78038441</v>
+        <v>-1127762675</v>
       </c>
     </row>
     <row r="140">
@@ -2696,7 +2696,7 @@
         <v>2010</v>
       </c>
       <c r="D140" t="n">
-        <v>-13477622</v>
+        <v>1177375642</v>
       </c>
     </row>
     <row r="141">
@@ -2710,7 +2710,7 @@
         <v>2011</v>
       </c>
       <c r="D141" t="n">
-        <v>-12411137</v>
+        <v>267659560</v>
       </c>
     </row>
     <row r="142">
@@ -2724,7 +2724,7 @@
         <v>2012</v>
       </c>
       <c r="D142" t="n">
-        <v>48566468</v>
+        <v>143851154</v>
       </c>
     </row>
     <row r="143">
@@ -2738,7 +2738,7 @@
         <v>2013</v>
       </c>
       <c r="D143" t="n">
-        <v>64517182</v>
+        <v>347917301</v>
       </c>
     </row>
     <row r="144">
@@ -2752,7 +2752,7 @@
         <v>2014</v>
       </c>
       <c r="D144" t="n">
-        <v>-37033092</v>
+        <v>473435861</v>
       </c>
     </row>
     <row r="145">
@@ -2766,7 +2766,7 @@
         <v>2015</v>
       </c>
       <c r="D145" t="n">
-        <v>-27720000</v>
+        <v>557460000</v>
       </c>
     </row>
     <row r="146">
@@ -2780,7 +2780,7 @@
         <v>2000</v>
       </c>
       <c r="D146" t="n">
-        <v>7582957</v>
+        <v>66647755</v>
       </c>
     </row>
     <row r="147">
@@ -2794,7 +2794,7 @@
         <v>2001</v>
       </c>
       <c r="D147" t="n">
-        <v>-158157721</v>
+        <v>43179261</v>
       </c>
     </row>
     <row r="148">
@@ -2808,7 +2808,7 @@
         <v>2002</v>
       </c>
       <c r="D148" t="n">
-        <v>-687143534</v>
+        <v>78433611</v>
       </c>
     </row>
     <row r="149">
@@ -2822,7 +2822,7 @@
         <v>2003</v>
       </c>
       <c r="D149" t="n">
-        <v>-500665872</v>
+        <v>54771374</v>
       </c>
     </row>
     <row r="150">
@@ -2836,7 +2836,7 @@
         <v>2004</v>
       </c>
       <c r="D150" t="n">
-        <v>-998366247</v>
+        <v>127403599</v>
       </c>
     </row>
     <row r="151">
@@ -2850,7 +2850,7 @@
         <v>2005</v>
       </c>
       <c r="D151" t="n">
-        <v>-606472365</v>
+        <v>19033587</v>
       </c>
     </row>
     <row r="152">
@@ -2864,7 +2864,7 @@
         <v>2006</v>
       </c>
       <c r="D152" t="n">
-        <v>368398367</v>
+        <v>36630410</v>
       </c>
     </row>
     <row r="153">
@@ -2878,7 +2878,7 @@
         <v>2007</v>
       </c>
       <c r="D153" t="n">
-        <v>-4023024</v>
+        <v>44248858</v>
       </c>
     </row>
     <row r="154">
@@ -2892,7 +2892,7 @@
         <v>2008</v>
       </c>
       <c r="D154" t="n">
-        <v>1461848859</v>
+        <v>26525441</v>
       </c>
     </row>
     <row r="155">
@@ -2906,7 +2906,7 @@
         <v>2009</v>
       </c>
       <c r="D155" t="n">
-        <v>-1127762675</v>
+        <v>50939493</v>
       </c>
     </row>
     <row r="156">
@@ -2920,7 +2920,7 @@
         <v>2010</v>
       </c>
       <c r="D156" t="n">
-        <v>1177375642</v>
+        <v>124269406</v>
       </c>
     </row>
     <row r="157">
@@ -2934,7 +2934,7 @@
         <v>2011</v>
       </c>
       <c r="D157" t="n">
-        <v>267659560</v>
+        <v>32068682</v>
       </c>
     </row>
     <row r="158">
@@ -2948,7 +2948,7 @@
         <v>2012</v>
       </c>
       <c r="D158" t="n">
-        <v>143851154</v>
+        <v>-9301039</v>
       </c>
     </row>
     <row r="159">
@@ -2962,7 +2962,7 @@
         <v>2013</v>
       </c>
       <c r="D159" t="n">
-        <v>347917301</v>
+        <v>-8959196</v>
       </c>
     </row>
     <row r="160">
@@ -2976,7 +2976,7 @@
         <v>2014</v>
       </c>
       <c r="D160" t="n">
-        <v>473435861</v>
+        <v>-1157279</v>
       </c>
     </row>
     <row r="161">
@@ -2990,7 +2990,7 @@
         <v>2015</v>
       </c>
       <c r="D161" t="n">
-        <v>557460000</v>
+        <v>34940000</v>
       </c>
     </row>
     <row r="162">
@@ -3004,7 +3004,7 @@
         <v>2000</v>
       </c>
       <c r="D162" t="n">
-        <v>66647755</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163">
@@ -3018,7 +3018,7 @@
         <v>2001</v>
       </c>
       <c r="D163" t="n">
-        <v>43179261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164">
@@ -3032,7 +3032,7 @@
         <v>2002</v>
       </c>
       <c r="D164" t="n">
-        <v>78433611</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165">
@@ -3046,7 +3046,7 @@
         <v>2003</v>
       </c>
       <c r="D165" t="n">
-        <v>54771374</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166">
@@ -3060,7 +3060,7 @@
         <v>2004</v>
       </c>
       <c r="D166" t="n">
-        <v>127403599</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
@@ -3074,7 +3074,7 @@
         <v>2005</v>
       </c>
       <c r="D167" t="n">
-        <v>19033587</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
@@ -3088,7 +3088,7 @@
         <v>2006</v>
       </c>
       <c r="D168" t="n">
-        <v>36630410</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
@@ -3102,7 +3102,7 @@
         <v>2007</v>
       </c>
       <c r="D169" t="n">
-        <v>44248858</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170">
@@ -3116,7 +3116,7 @@
         <v>2008</v>
       </c>
       <c r="D170" t="n">
-        <v>26525441</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
@@ -3130,7 +3130,7 @@
         <v>2009</v>
       </c>
       <c r="D171" t="n">
-        <v>50939493</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
@@ -3144,7 +3144,7 @@
         <v>2010</v>
       </c>
       <c r="D172" t="n">
-        <v>124269406</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
@@ -3158,7 +3158,7 @@
         <v>2011</v>
       </c>
       <c r="D173" t="n">
-        <v>32068682</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
@@ -3172,7 +3172,7 @@
         <v>2012</v>
       </c>
       <c r="D174" t="n">
-        <v>-9301039</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
@@ -3186,7 +3186,7 @@
         <v>2013</v>
       </c>
       <c r="D175" t="n">
-        <v>-8959196</v>
+        <v>61894992</v>
       </c>
     </row>
     <row r="176">
@@ -3200,7 +3200,7 @@
         <v>2014</v>
       </c>
       <c r="D176" t="n">
-        <v>-1157279</v>
+        <v>49269572</v>
       </c>
     </row>
     <row r="177">
@@ -3214,7 +3214,7 @@
         <v>2015</v>
       </c>
       <c r="D177" t="n">
-        <v>34940000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
@@ -3452,7 +3452,7 @@
         <v>2000</v>
       </c>
       <c r="D194" t="n">
-        <v>14248403</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
@@ -3466,7 +3466,7 @@
         <v>2001</v>
       </c>
       <c r="D195" t="n">
-        <v>12037932</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
@@ -3480,7 +3480,7 @@
         <v>2002</v>
       </c>
       <c r="D196" t="n">
-        <v>5572953</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
@@ -3494,7 +3494,7 @@
         <v>2003</v>
       </c>
       <c r="D197" t="n">
-        <v>89120</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
@@ -3536,7 +3536,7 @@
         <v>2006</v>
       </c>
       <c r="D200" t="n">
-        <v>23158359</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
@@ -3648,7 +3648,7 @@
         <v>2014</v>
       </c>
       <c r="D208" t="n">
-        <v>0</v>
+        <v>4273035</v>
       </c>
     </row>
     <row r="209">
@@ -3662,7 +3662,7 @@
         <v>2015</v>
       </c>
       <c r="D209" t="n">
-        <v>0</v>
+        <v>49500000</v>
       </c>
     </row>
     <row r="210">
@@ -3676,7 +3676,7 @@
         <v>2000</v>
       </c>
       <c r="D210" t="n">
-        <v>0</v>
+        <v>-6664748801</v>
       </c>
     </row>
     <row r="211">
@@ -3690,7 +3690,7 @@
         <v>2001</v>
       </c>
       <c r="D211" t="n">
-        <v>0</v>
+        <v>-1402201511</v>
       </c>
     </row>
     <row r="212">
@@ -3704,7 +3704,7 @@
         <v>2002</v>
       </c>
       <c r="D212" t="n">
-        <v>0</v>
+        <v>3568654699</v>
       </c>
     </row>
     <row r="213">
@@ -3718,7 +3718,7 @@
         <v>2003</v>
       </c>
       <c r="D213" t="n">
-        <v>0</v>
+        <v>-959991298</v>
       </c>
     </row>
     <row r="214">
@@ -3732,7 +3732,7 @@
         <v>2004</v>
       </c>
       <c r="D214" t="n">
-        <v>0</v>
+        <v>-5532562061</v>
       </c>
     </row>
     <row r="215">
@@ -3746,7 +3746,7 @@
         <v>2005</v>
       </c>
       <c r="D215" t="n">
-        <v>0</v>
+        <v>3170032773</v>
       </c>
     </row>
     <row r="216">
@@ -3760,7 +3760,7 @@
         <v>2006</v>
       </c>
       <c r="D216" t="n">
-        <v>0</v>
+        <v>-9900644003</v>
       </c>
     </row>
     <row r="217">
@@ -3774,7 +3774,7 @@
         <v>2007</v>
       </c>
       <c r="D217" t="n">
-        <v>0</v>
+        <v>-5747652637</v>
       </c>
     </row>
     <row r="218">
@@ -3788,7 +3788,7 @@
         <v>2008</v>
       </c>
       <c r="D218" t="n">
-        <v>0</v>
+        <v>-591939055</v>
       </c>
     </row>
     <row r="219">
@@ -3802,7 +3802,7 @@
         <v>2009</v>
       </c>
       <c r="D219" t="n">
-        <v>0</v>
+        <v>7643639433</v>
       </c>
     </row>
     <row r="220">
@@ -3816,7 +3816,7 @@
         <v>2010</v>
       </c>
       <c r="D220" t="n">
-        <v>0</v>
+        <v>5216420049</v>
       </c>
     </row>
     <row r="221">
@@ -3830,7 +3830,7 @@
         <v>2011</v>
       </c>
       <c r="D221" t="n">
-        <v>0</v>
+        <v>6732352070</v>
       </c>
     </row>
     <row r="222">
@@ -3844,7 +3844,7 @@
         <v>2012</v>
       </c>
       <c r="D222" t="n">
-        <v>0</v>
+        <v>8413464087</v>
       </c>
     </row>
     <row r="223">
@@ -3858,7 +3858,7 @@
         <v>2013</v>
       </c>
       <c r="D223" t="n">
-        <v>61894992</v>
+        <v>5672675076</v>
       </c>
     </row>
     <row r="224">
@@ -3872,7 +3872,7 @@
         <v>2014</v>
       </c>
       <c r="D224" t="n">
-        <v>49269572</v>
+        <v>3026759368</v>
       </c>
     </row>
     <row r="225">
@@ -3886,7 +3886,7 @@
         <v>2015</v>
       </c>
       <c r="D225" t="n">
-        <v>0</v>
+        <v>5199440000</v>
       </c>
     </row>
     <row r="226">
@@ -3900,7 +3900,7 @@
         <v>2000</v>
       </c>
       <c r="D226" t="n">
-        <v>0</v>
+        <v>-4259231</v>
       </c>
     </row>
     <row r="227">
@@ -3914,7 +3914,7 @@
         <v>2001</v>
       </c>
       <c r="D227" t="n">
-        <v>0</v>
+        <v>-6467759</v>
       </c>
     </row>
     <row r="228">
@@ -3928,7 +3928,7 @@
         <v>2002</v>
       </c>
       <c r="D228" t="n">
-        <v>0</v>
+        <v>-4987480</v>
       </c>
     </row>
     <row r="229">
@@ -3942,7 +3942,7 @@
         <v>2003</v>
       </c>
       <c r="D229" t="n">
-        <v>0</v>
+        <v>51081956</v>
       </c>
     </row>
     <row r="230">
@@ -3956,7 +3956,7 @@
         <v>2004</v>
       </c>
       <c r="D230" t="n">
-        <v>0</v>
+        <v>22832218</v>
       </c>
     </row>
     <row r="231">
@@ -3970,7 +3970,7 @@
         <v>2005</v>
       </c>
       <c r="D231" t="n">
-        <v>0</v>
+        <v>-8843956</v>
       </c>
     </row>
     <row r="232">
@@ -3984,7 +3984,7 @@
         <v>2006</v>
       </c>
       <c r="D232" t="n">
-        <v>0</v>
+        <v>-80975882</v>
       </c>
     </row>
     <row r="233">
@@ -3998,7 +3998,7 @@
         <v>2007</v>
       </c>
       <c r="D233" t="n">
-        <v>0</v>
+        <v>-108890586</v>
       </c>
     </row>
     <row r="234">
@@ -4012,7 +4012,7 @@
         <v>2008</v>
       </c>
       <c r="D234" t="n">
-        <v>0</v>
+        <v>-66483754</v>
       </c>
     </row>
     <row r="235">
@@ -4026,7 +4026,7 @@
         <v>2009</v>
       </c>
       <c r="D235" t="n">
-        <v>0</v>
+        <v>5584653</v>
       </c>
     </row>
     <row r="236">
@@ -4040,7 +4040,7 @@
         <v>2010</v>
       </c>
       <c r="D236" t="n">
-        <v>0</v>
+        <v>-30243067</v>
       </c>
     </row>
     <row r="237">
@@ -4054,7 +4054,7 @@
         <v>2011</v>
       </c>
       <c r="D237" t="n">
-        <v>0</v>
+        <v>8891782</v>
       </c>
     </row>
     <row r="238">
@@ -4068,7 +4068,7 @@
         <v>2012</v>
       </c>
       <c r="D238" t="n">
-        <v>0</v>
+        <v>4931585</v>
       </c>
     </row>
     <row r="239">
@@ -4082,7 +4082,7 @@
         <v>2013</v>
       </c>
       <c r="D239" t="n">
-        <v>0</v>
+        <v>6955934</v>
       </c>
     </row>
     <row r="240">
@@ -4096,7 +4096,7 @@
         <v>2014</v>
       </c>
       <c r="D240" t="n">
-        <v>4273035</v>
+        <v>12540049</v>
       </c>
     </row>
     <row r="241">
@@ -4110,7 +4110,7 @@
         <v>2015</v>
       </c>
       <c r="D241" t="n">
-        <v>49500000</v>
+        <v>4230000</v>
       </c>
     </row>
     <row r="242">
@@ -4124,7 +4124,7 @@
         <v>2000</v>
       </c>
       <c r="D242" t="n">
-        <v>-6664748801</v>
+        <v>315999755</v>
       </c>
     </row>
     <row r="243">
@@ -4138,7 +4138,7 @@
         <v>2001</v>
       </c>
       <c r="D243" t="n">
-        <v>-1402201511</v>
+        <v>312107904</v>
       </c>
     </row>
     <row r="244">
@@ -4152,7 +4152,7 @@
         <v>2002</v>
       </c>
       <c r="D244" t="n">
-        <v>3568654699</v>
+        <v>125347299</v>
       </c>
     </row>
     <row r="245">
@@ -4166,7 +4166,7 @@
         <v>2003</v>
       </c>
       <c r="D245" t="n">
-        <v>-959991298</v>
+        <v>260760927</v>
       </c>
     </row>
     <row r="246">
@@ -4180,7 +4180,7 @@
         <v>2004</v>
       </c>
       <c r="D246" t="n">
-        <v>-5532562061</v>
+        <v>936658469</v>
       </c>
     </row>
     <row r="247">
@@ -4194,7 +4194,7 @@
         <v>2005</v>
       </c>
       <c r="D247" t="n">
-        <v>3170032773</v>
+        <v>37822745</v>
       </c>
     </row>
     <row r="248">
@@ -4208,7 +4208,7 @@
         <v>2006</v>
       </c>
       <c r="D248" t="n">
-        <v>-9900644003</v>
+        <v>481204090</v>
       </c>
     </row>
     <row r="249">
@@ -4222,7 +4222,7 @@
         <v>2007</v>
       </c>
       <c r="D249" t="n">
-        <v>-5747652637</v>
+        <v>1358302931</v>
       </c>
     </row>
     <row r="250">
@@ -4236,7 +4236,7 @@
         <v>2008</v>
       </c>
       <c r="D250" t="n">
-        <v>-591939055</v>
+        <v>1826185184</v>
       </c>
     </row>
     <row r="251">
@@ -4250,7 +4250,7 @@
         <v>2009</v>
       </c>
       <c r="D251" t="n">
-        <v>7643639433</v>
+        <v>1936479300</v>
       </c>
     </row>
     <row r="252">
@@ -4264,7 +4264,7 @@
         <v>2010</v>
       </c>
       <c r="D252" t="n">
-        <v>5216420049</v>
+        <v>1892314475</v>
       </c>
     </row>
     <row r="253">
@@ -4278,7 +4278,7 @@
         <v>2011</v>
       </c>
       <c r="D253" t="n">
-        <v>6732352070</v>
+        <v>2039755850</v>
       </c>
     </row>
     <row r="254">
@@ -4292,7 +4292,7 @@
         <v>2012</v>
       </c>
       <c r="D254" t="n">
-        <v>8413464087</v>
+        <v>1601010318</v>
       </c>
     </row>
     <row r="255">
@@ -4306,7 +4306,7 @@
         <v>2013</v>
       </c>
       <c r="D255" t="n">
-        <v>5672675076</v>
+        <v>1511826138</v>
       </c>
     </row>
     <row r="256">
@@ -4320,7 +4320,7 @@
         <v>2014</v>
       </c>
       <c r="D256" t="n">
-        <v>3026759368</v>
+        <v>1574222044</v>
       </c>
     </row>
     <row r="257">
@@ -4334,7 +4334,7 @@
         <v>2015</v>
       </c>
       <c r="D257" t="n">
-        <v>5199440000</v>
+        <v>2246700000</v>
       </c>
     </row>
     <row r="258">
@@ -4348,7 +4348,7 @@
         <v>2000</v>
       </c>
       <c r="D258" t="n">
-        <v>-665039297</v>
+        <v>653362514</v>
       </c>
     </row>
     <row r="259">
@@ -4362,7 +4362,7 @@
         <v>2001</v>
       </c>
       <c r="D259" t="n">
-        <v>-981593148</v>
+        <v>509891513</v>
       </c>
     </row>
     <row r="260">
@@ -4376,7 +4376,7 @@
         <v>2002</v>
       </c>
       <c r="D260" t="n">
-        <v>5153811786</v>
+        <v>1260356625</v>
       </c>
     </row>
     <row r="261">
@@ -4390,7 +4390,7 @@
         <v>2003</v>
       </c>
       <c r="D261" t="n">
-        <v>-4080911887</v>
+        <v>1334561977</v>
       </c>
     </row>
     <row r="262">
@@ -4404,7 +4404,7 @@
         <v>2004</v>
       </c>
       <c r="D262" t="n">
-        <v>-1082874717</v>
+        <v>1927970662</v>
       </c>
     </row>
     <row r="263">
@@ -4418,7 +4418,7 @@
         <v>2005</v>
       </c>
       <c r="D263" t="n">
-        <v>7219482186</v>
+        <v>1625560089</v>
       </c>
     </row>
     <row r="264">
@@ -4432,7 +4432,7 @@
         <v>2006</v>
       </c>
       <c r="D264" t="n">
-        <v>-5786096473</v>
+        <v>1838301255</v>
       </c>
     </row>
     <row r="265">
@@ -4446,7 +4446,7 @@
         <v>2007</v>
       </c>
       <c r="D265" t="n">
-        <v>-2300362785</v>
+        <v>4185509319</v>
       </c>
     </row>
     <row r="266">
@@ -4460,7 +4460,7 @@
         <v>2008</v>
       </c>
       <c r="D266" t="n">
-        <v>-395978805</v>
+        <v>3677012897</v>
       </c>
     </row>
     <row r="267">
@@ -4474,7 +4474,7 @@
         <v>2009</v>
       </c>
       <c r="D267" t="n">
-        <v>163178348</v>
+        <v>3978074421</v>
       </c>
     </row>
     <row r="268">
@@ -4488,7 +4488,7 @@
         <v>2010</v>
       </c>
       <c r="D268" t="n">
-        <v>-371169922</v>
+        <v>4940147287</v>
       </c>
     </row>
     <row r="269">
@@ -4502,7 +4502,7 @@
         <v>2011</v>
       </c>
       <c r="D269" t="n">
-        <v>-351404321</v>
+        <v>-662551628</v>
       </c>
     </row>
     <row r="270">
@@ -4516,7 +4516,7 @@
         <v>2012</v>
       </c>
       <c r="D270" t="n">
-        <v>-773254842</v>
+        <v>-891474104</v>
       </c>
     </row>
     <row r="271">
@@ -4530,7 +4530,7 @@
         <v>2013</v>
       </c>
       <c r="D271" t="n">
-        <v>-317587029</v>
+        <v>-455542003</v>
       </c>
     </row>
     <row r="272">
@@ -4544,7 +4544,7 @@
         <v>2014</v>
       </c>
       <c r="D272" t="n">
-        <v>264793044</v>
+        <v>-1643172673</v>
       </c>
     </row>
     <row r="273">
@@ -4558,7 +4558,7 @@
         <v>2015</v>
       </c>
       <c r="D273" t="n">
-        <v>1516360000</v>
+        <v>-1356480000</v>
       </c>
     </row>
     <row r="274">
@@ -4572,7 +4572,7 @@
         <v>2000</v>
       </c>
       <c r="D274" t="n">
-        <v>-4259231</v>
+        <v>3314395</v>
       </c>
     </row>
     <row r="275">
@@ -4586,7 +4586,7 @@
         <v>2001</v>
       </c>
       <c r="D275" t="n">
-        <v>-6467759</v>
+        <v>7796481</v>
       </c>
     </row>
     <row r="276">
@@ -4600,7 +4600,7 @@
         <v>2002</v>
       </c>
       <c r="D276" t="n">
-        <v>-4987480</v>
+        <v>4769951</v>
       </c>
     </row>
     <row r="277">
@@ -4614,7 +4614,7 @@
         <v>2003</v>
       </c>
       <c r="D277" t="n">
-        <v>51081956</v>
+        <v>8457192</v>
       </c>
     </row>
     <row r="278">
@@ -4628,7 +4628,7 @@
         <v>2004</v>
       </c>
       <c r="D278" t="n">
-        <v>22832218</v>
+        <v>-3021223</v>
       </c>
     </row>
     <row r="279">
@@ -4642,7 +4642,7 @@
         <v>2005</v>
       </c>
       <c r="D279" t="n">
-        <v>-8843956</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
@@ -4656,7 +4656,7 @@
         <v>2006</v>
       </c>
       <c r="D280" t="n">
-        <v>-80975882</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
@@ -4670,7 +4670,7 @@
         <v>2007</v>
       </c>
       <c r="D281" t="n">
-        <v>-108890586</v>
+        <v>90901178</v>
       </c>
     </row>
     <row r="282">
@@ -4684,7 +4684,7 @@
         <v>2008</v>
       </c>
       <c r="D282" t="n">
-        <v>-66483754</v>
+        <v>19376703</v>
       </c>
     </row>
     <row r="283">
@@ -4698,7 +4698,7 @@
         <v>2009</v>
       </c>
       <c r="D283" t="n">
-        <v>5584653</v>
+        <v>120417439</v>
       </c>
     </row>
     <row r="284">
@@ -4712,7 +4712,7 @@
         <v>2010</v>
       </c>
       <c r="D284" t="n">
-        <v>-30243067</v>
+        <v>39923897</v>
       </c>
     </row>
     <row r="285">
@@ -4726,7 +4726,7 @@
         <v>2011</v>
       </c>
       <c r="D285" t="n">
-        <v>8891782</v>
+        <v>938600442</v>
       </c>
     </row>
     <row r="286">
@@ -4740,7 +4740,7 @@
         <v>2012</v>
       </c>
       <c r="D286" t="n">
-        <v>4931585</v>
+        <v>10023816</v>
       </c>
     </row>
     <row r="287">
@@ -4754,7 +4754,7 @@
         <v>2013</v>
       </c>
       <c r="D287" t="n">
-        <v>6955934</v>
+        <v>-26284655</v>
       </c>
     </row>
     <row r="288">
@@ -4768,7 +4768,7 @@
         <v>2014</v>
       </c>
       <c r="D288" t="n">
-        <v>12540049</v>
+        <v>9213237</v>
       </c>
     </row>
     <row r="289">
@@ -4782,7 +4782,7 @@
         <v>2015</v>
       </c>
       <c r="D289" t="n">
-        <v>4230000</v>
+        <v>21000000</v>
       </c>
     </row>
     <row r="290">
@@ -4796,7 +4796,7 @@
         <v>2000</v>
       </c>
       <c r="D290" t="n">
-        <v>315999755</v>
+        <v>21093993</v>
       </c>
     </row>
     <row r="291">
@@ -4810,7 +4810,7 @@
         <v>2001</v>
       </c>
       <c r="D291" t="n">
-        <v>312107904</v>
+        <v>-58840522</v>
       </c>
     </row>
     <row r="292">
@@ -4824,7 +4824,7 @@
         <v>2002</v>
       </c>
       <c r="D292" t="n">
-        <v>125347299</v>
+        <v>895660246</v>
       </c>
     </row>
     <row r="293">
@@ -4838,7 +4838,7 @@
         <v>2003</v>
       </c>
       <c r="D293" t="n">
-        <v>260760927</v>
+        <v>3241174458</v>
       </c>
     </row>
     <row r="294">
@@ -4852,7 +4852,7 @@
         <v>2004</v>
       </c>
       <c r="D294" t="n">
-        <v>936658469</v>
+        <v>-223137774</v>
       </c>
     </row>
     <row r="295">
@@ -4866,7 +4866,7 @@
         <v>2005</v>
       </c>
       <c r="D295" t="n">
-        <v>37822745</v>
+        <v>-1408491654</v>
       </c>
     </row>
     <row r="296">
@@ -4880,7 +4880,7 @@
         <v>2006</v>
       </c>
       <c r="D296" t="n">
-        <v>481204090</v>
+        <v>-2299913572</v>
       </c>
     </row>
     <row r="297">
@@ -4894,7 +4894,7 @@
         <v>2007</v>
       </c>
       <c r="D297" t="n">
-        <v>1358302931</v>
+        <v>-1035755813</v>
       </c>
     </row>
     <row r="298">
@@ -4908,7 +4908,7 @@
         <v>2008</v>
       </c>
       <c r="D298" t="n">
-        <v>1826185184</v>
+        <v>-186231584</v>
       </c>
     </row>
     <row r="299">
@@ -4922,7 +4922,7 @@
         <v>2009</v>
       </c>
       <c r="D299" t="n">
-        <v>1936479300</v>
+        <v>247989550</v>
       </c>
     </row>
     <row r="300">
@@ -4936,7 +4936,7 @@
         <v>2010</v>
       </c>
       <c r="D300" t="n">
-        <v>1892314475</v>
+        <v>-501879325</v>
       </c>
     </row>
     <row r="301">
@@ -4950,7 +4950,7 @@
         <v>2011</v>
       </c>
       <c r="D301" t="n">
-        <v>2039755850</v>
+        <v>-58397019</v>
       </c>
     </row>
     <row r="302">
@@ -4964,7 +4964,7 @@
         <v>2012</v>
       </c>
       <c r="D302" t="n">
-        <v>1601010318</v>
+        <v>-467151729</v>
       </c>
     </row>
     <row r="303">
@@ -4978,7 +4978,7 @@
         <v>2013</v>
       </c>
       <c r="D303" t="n">
-        <v>1511826138</v>
+        <v>569659176</v>
       </c>
     </row>
     <row r="304">
@@ -4992,7 +4992,7 @@
         <v>2014</v>
       </c>
       <c r="D304" t="n">
-        <v>1574222044</v>
+        <v>572360046</v>
       </c>
     </row>
     <row r="305">
@@ -5006,7 +5006,7 @@
         <v>2015</v>
       </c>
       <c r="D305" t="n">
-        <v>2246700000</v>
+        <v>392990000</v>
       </c>
     </row>
     <row r="306">
@@ -5020,7 +5020,7 @@
         <v>2000</v>
       </c>
       <c r="D306" t="n">
-        <v>5347032</v>
+        <v>-665039297</v>
       </c>
     </row>
     <row r="307">
@@ -5034,7 +5034,7 @@
         <v>2001</v>
       </c>
       <c r="D307" t="n">
-        <v>235959091</v>
+        <v>-981593148</v>
       </c>
     </row>
     <row r="308">
@@ -5048,7 +5048,7 @@
         <v>2002</v>
       </c>
       <c r="D308" t="n">
-        <v>80029005</v>
+        <v>5153811786</v>
       </c>
     </row>
     <row r="309">
@@ -5062,7 +5062,7 @@
         <v>2003</v>
       </c>
       <c r="D309" t="n">
-        <v>86261717</v>
+        <v>-4080911887</v>
       </c>
     </row>
     <row r="310">
@@ -5076,7 +5076,7 @@
         <v>2004</v>
       </c>
       <c r="D310" t="n">
-        <v>25857660</v>
+        <v>-1082874717</v>
       </c>
     </row>
     <row r="311">
@@ -5090,7 +5090,7 @@
         <v>2005</v>
       </c>
       <c r="D311" t="n">
-        <v>66221802</v>
+        <v>7219482186</v>
       </c>
     </row>
     <row r="312">
@@ -5104,7 +5104,7 @@
         <v>2006</v>
       </c>
       <c r="D312" t="n">
-        <v>0</v>
+        <v>-5786096473</v>
       </c>
     </row>
     <row r="313">
@@ -5118,7 +5118,7 @@
         <v>2007</v>
       </c>
       <c r="D313" t="n">
-        <v>5274626</v>
+        <v>-2300362785</v>
       </c>
     </row>
     <row r="314">
@@ -5132,7 +5132,7 @@
         <v>2008</v>
       </c>
       <c r="D314" t="n">
-        <v>0</v>
+        <v>-395978805</v>
       </c>
     </row>
     <row r="315">
@@ -5146,7 +5146,7 @@
         <v>2009</v>
       </c>
       <c r="D315" t="n">
-        <v>2794533</v>
+        <v>163178348</v>
       </c>
     </row>
     <row r="316">
@@ -5160,7 +5160,7 @@
         <v>2010</v>
       </c>
       <c r="D316" t="n">
-        <v>0</v>
+        <v>-371169922</v>
       </c>
     </row>
     <row r="317">
@@ -5174,7 +5174,7 @@
         <v>2011</v>
       </c>
       <c r="D317" t="n">
-        <v>3292293</v>
+        <v>-351404321</v>
       </c>
     </row>
     <row r="318">
@@ -5188,7 +5188,7 @@
         <v>2012</v>
       </c>
       <c r="D318" t="n">
-        <v>2157360</v>
+        <v>-773254842</v>
       </c>
     </row>
     <row r="319">
@@ -5202,7 +5202,7 @@
         <v>2013</v>
       </c>
       <c r="D319" t="n">
-        <v>12125685</v>
+        <v>-317587029</v>
       </c>
     </row>
     <row r="320">
@@ -5216,7 +5216,7 @@
         <v>2014</v>
       </c>
       <c r="D320" t="n">
-        <v>3157094</v>
+        <v>264793044</v>
       </c>
     </row>
     <row r="321">
@@ -5230,7 +5230,7 @@
         <v>2015</v>
       </c>
       <c r="D321" t="n">
-        <v>5800000</v>
+        <v>1516360000</v>
       </c>
     </row>
     <row r="322">
@@ -5244,7 +5244,7 @@
         <v>2000</v>
       </c>
       <c r="D322" t="n">
-        <v>653362514</v>
+        <v>3784628</v>
       </c>
     </row>
     <row r="323">
@@ -5258,7 +5258,7 @@
         <v>2001</v>
       </c>
       <c r="D323" t="n">
-        <v>509891513</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324">
@@ -5272,7 +5272,7 @@
         <v>2002</v>
       </c>
       <c r="D324" t="n">
-        <v>1260356625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325">
@@ -5286,7 +5286,7 @@
         <v>2003</v>
       </c>
       <c r="D325" t="n">
-        <v>1334561977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326">
@@ -5300,7 +5300,7 @@
         <v>2004</v>
       </c>
       <c r="D326" t="n">
-        <v>1927970662</v>
+        <v>3516392</v>
       </c>
     </row>
     <row r="327">
@@ -5314,7 +5314,7 @@
         <v>2005</v>
       </c>
       <c r="D327" t="n">
-        <v>1625560089</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328">
@@ -5328,7 +5328,7 @@
         <v>2006</v>
       </c>
       <c r="D328" t="n">
-        <v>1838301255</v>
+        <v>7618372</v>
       </c>
     </row>
     <row r="329">
@@ -5342,7 +5342,7 @@
         <v>2007</v>
       </c>
       <c r="D329" t="n">
-        <v>4185509319</v>
+        <v>2918030</v>
       </c>
     </row>
     <row r="330">
@@ -5356,7 +5356,7 @@
         <v>2008</v>
       </c>
       <c r="D330" t="n">
-        <v>3677012897</v>
+        <v>0</v>
       </c>
     </row>
     <row r="331">
@@ -5370,7 +5370,7 @@
         <v>2009</v>
       </c>
       <c r="D331" t="n">
-        <v>3978074421</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332">
@@ -5384,7 +5384,7 @@
         <v>2010</v>
       </c>
       <c r="D332" t="n">
-        <v>4940147287</v>
+        <v>0</v>
       </c>
     </row>
     <row r="333">
@@ -5398,7 +5398,7 @@
         <v>2011</v>
       </c>
       <c r="D333" t="n">
-        <v>-662551628</v>
+        <v>0</v>
       </c>
     </row>
     <row r="334">
@@ -5412,7 +5412,7 @@
         <v>2012</v>
       </c>
       <c r="D334" t="n">
-        <v>-891474104</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
@@ -5426,7 +5426,7 @@
         <v>2013</v>
       </c>
       <c r="D335" t="n">
-        <v>-455542003</v>
+        <v>0</v>
       </c>
     </row>
     <row r="336">
@@ -5440,7 +5440,7 @@
         <v>2014</v>
       </c>
       <c r="D336" t="n">
-        <v>-1643172673</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337">
@@ -5454,7 +5454,7 @@
         <v>2015</v>
       </c>
       <c r="D337" t="n">
-        <v>-1356480000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338">
@@ -5468,7 +5468,7 @@
         <v>2000</v>
       </c>
       <c r="D338" t="n">
-        <v>3314395</v>
+        <v>5818142185</v>
       </c>
     </row>
     <row r="339">
@@ -5482,7 +5482,7 @@
         <v>2001</v>
       </c>
       <c r="D339" t="n">
-        <v>7796481</v>
+        <v>5768479350</v>
       </c>
     </row>
     <row r="340">
@@ -5496,7 +5496,7 @@
         <v>2002</v>
       </c>
       <c r="D340" t="n">
-        <v>4769951</v>
+        <v>1917032462</v>
       </c>
     </row>
     <row r="341">
@@ -5510,7 +5510,7 @@
         <v>2003</v>
       </c>
       <c r="D341" t="n">
-        <v>8457192</v>
+        <v>1510808913</v>
       </c>
     </row>
     <row r="342">
@@ -5524,7 +5524,7 @@
         <v>2004</v>
       </c>
       <c r="D342" t="n">
-        <v>-3021223</v>
+        <v>-1566613087</v>
       </c>
     </row>
     <row r="343">
@@ -5538,7 +5538,7 @@
         <v>2005</v>
       </c>
       <c r="D343" t="n">
-        <v>0</v>
+        <v>-346196613</v>
       </c>
     </row>
     <row r="344">
@@ -5552,7 +5552,7 @@
         <v>2006</v>
       </c>
       <c r="D344" t="n">
-        <v>0</v>
+        <v>-2628224158</v>
       </c>
     </row>
     <row r="345">
@@ -5566,7 +5566,7 @@
         <v>2007</v>
       </c>
       <c r="D345" t="n">
-        <v>90901178</v>
+        <v>1403931550</v>
       </c>
     </row>
     <row r="346">
@@ -5580,7 +5580,7 @@
         <v>2008</v>
       </c>
       <c r="D346" t="n">
-        <v>19376703</v>
+        <v>2215356676</v>
       </c>
     </row>
     <row r="347">
@@ -5594,7 +5594,7 @@
         <v>2009</v>
       </c>
       <c r="D347" t="n">
-        <v>120417439</v>
+        <v>6505443227</v>
       </c>
     </row>
     <row r="348">
@@ -5608,7 +5608,7 @@
         <v>2010</v>
       </c>
       <c r="D348" t="n">
-        <v>39923897</v>
+        <v>4246844218</v>
       </c>
     </row>
     <row r="349">
@@ -5622,7 +5622,7 @@
         <v>2011</v>
       </c>
       <c r="D349" t="n">
-        <v>938600442</v>
+        <v>2350051111</v>
       </c>
     </row>
     <row r="350">
@@ -5636,7 +5636,7 @@
         <v>2012</v>
       </c>
       <c r="D350" t="n">
-        <v>10023816</v>
+        <v>1733525212</v>
       </c>
     </row>
     <row r="351">
@@ -5650,7 +5650,7 @@
         <v>2013</v>
       </c>
       <c r="D351" t="n">
-        <v>-26284655</v>
+        <v>1277707477</v>
       </c>
     </row>
     <row r="352">
@@ -5664,7 +5664,7 @@
         <v>2014</v>
       </c>
       <c r="D352" t="n">
-        <v>9213237</v>
+        <v>3267868076</v>
       </c>
     </row>
     <row r="353">
@@ -5678,7 +5678,7 @@
         <v>2015</v>
       </c>
       <c r="D353" t="n">
-        <v>21000000</v>
+        <v>3945510000</v>
       </c>
     </row>
     <row r="354">
@@ -5692,7 +5692,7 @@
         <v>2000</v>
       </c>
       <c r="D354" t="n">
-        <v>21093993</v>
+        <v>3545233586</v>
       </c>
     </row>
     <row r="355">
@@ -5706,7 +5706,7 @@
         <v>2001</v>
       </c>
       <c r="D355" t="n">
-        <v>-58840522</v>
+        <v>2533576851</v>
       </c>
     </row>
     <row r="356">
@@ -5720,7 +5720,7 @@
         <v>2002</v>
       </c>
       <c r="D356" t="n">
-        <v>895660246</v>
+        <v>-4801932698</v>
       </c>
     </row>
     <row r="357">
@@ -5734,7 +5734,7 @@
         <v>2003</v>
       </c>
       <c r="D357" t="n">
-        <v>3241174458</v>
+        <v>-8320843804</v>
       </c>
     </row>
     <row r="358">
@@ -5748,7 +5748,7 @@
         <v>2004</v>
       </c>
       <c r="D358" t="n">
-        <v>-223137774</v>
+        <v>-3813511455</v>
       </c>
     </row>
     <row r="359">
@@ -5762,7 +5762,7 @@
         <v>2005</v>
       </c>
       <c r="D359" t="n">
-        <v>-1408491654</v>
+        <v>-2733971273</v>
       </c>
     </row>
     <row r="360">
@@ -5776,7 +5776,7 @@
         <v>2006</v>
       </c>
       <c r="D360" t="n">
-        <v>-2299913572</v>
+        <v>-5043170999</v>
       </c>
     </row>
     <row r="361">
@@ -5790,7 +5790,7 @@
         <v>2007</v>
       </c>
       <c r="D361" t="n">
-        <v>-1035755813</v>
+        <v>82669912</v>
       </c>
     </row>
     <row r="362">
@@ -5804,7 +5804,7 @@
         <v>2008</v>
       </c>
       <c r="D362" t="n">
-        <v>-186231584</v>
+        <v>3478599788</v>
       </c>
     </row>
     <row r="363">
@@ -5818,7 +5818,7 @@
         <v>2009</v>
       </c>
       <c r="D363" t="n">
-        <v>247989550</v>
+        <v>10937501927</v>
       </c>
     </row>
     <row r="364">
@@ -5832,7 +5832,7 @@
         <v>2010</v>
       </c>
       <c r="D364" t="n">
-        <v>-501879325</v>
+        <v>17120895282</v>
       </c>
     </row>
     <row r="365">
@@ -5846,7 +5846,7 @@
         <v>2011</v>
       </c>
       <c r="D365" t="n">
-        <v>-58397019</v>
+        <v>1602522423</v>
       </c>
     </row>
     <row r="366">
@@ -5860,7 +5860,7 @@
         <v>2012</v>
       </c>
       <c r="D366" t="n">
-        <v>-467151729</v>
+        <v>6995911547</v>
       </c>
     </row>
     <row r="367">
@@ -5874,7 +5874,7 @@
         <v>2013</v>
       </c>
       <c r="D367" t="n">
-        <v>569659176</v>
+        <v>7226379830</v>
       </c>
     </row>
     <row r="368">
@@ -5888,7 +5888,7 @@
         <v>2014</v>
       </c>
       <c r="D368" t="n">
-        <v>572360046</v>
+        <v>7025121520</v>
       </c>
     </row>
     <row r="369">
@@ -5902,7 +5902,7 @@
         <v>2015</v>
       </c>
       <c r="D369" t="n">
-        <v>392990000</v>
+        <v>11588320000</v>
       </c>
     </row>
     <row r="370">
@@ -5916,7 +5916,7 @@
         <v>2000</v>
       </c>
       <c r="D370" t="n">
-        <v>-101988872</v>
+        <v>305418841</v>
       </c>
     </row>
     <row r="371">
@@ -5930,7 +5930,7 @@
         <v>2001</v>
       </c>
       <c r="D371" t="n">
-        <v>33427959</v>
+        <v>30529087</v>
       </c>
     </row>
     <row r="372">
@@ -5944,7 +5944,7 @@
         <v>2002</v>
       </c>
       <c r="D372" t="n">
-        <v>-5306617</v>
+        <v>42994042</v>
       </c>
     </row>
     <row r="373">
@@ -5958,7 +5958,7 @@
         <v>2003</v>
       </c>
       <c r="D373" t="n">
-        <v>61413253</v>
+        <v>1495981962</v>
       </c>
     </row>
     <row r="374">
@@ -5972,7 +5972,7 @@
         <v>2004</v>
       </c>
       <c r="D374" t="n">
-        <v>-165974547</v>
+        <v>584957078</v>
       </c>
     </row>
     <row r="375">
@@ -5986,7 +5986,7 @@
         <v>2005</v>
       </c>
       <c r="D375" t="n">
-        <v>-103683053</v>
+        <v>386623059</v>
       </c>
     </row>
     <row r="376">
@@ -6000,7 +6000,7 @@
         <v>2006</v>
       </c>
       <c r="D376" t="n">
-        <v>-188025295</v>
+        <v>1604463937</v>
       </c>
     </row>
     <row r="377">
@@ -6014,7 +6014,7 @@
         <v>2007</v>
       </c>
       <c r="D377" t="n">
-        <v>-38775881</v>
+        <v>1920087822</v>
       </c>
     </row>
     <row r="378">
@@ -6028,7 +6028,7 @@
         <v>2008</v>
       </c>
       <c r="D378" t="n">
-        <v>-21710817</v>
+        <v>2949312961</v>
       </c>
     </row>
     <row r="379">
@@ -6042,7 +6042,7 @@
         <v>2009</v>
       </c>
       <c r="D379" t="n">
-        <v>-14277336</v>
+        <v>2131578032</v>
       </c>
     </row>
     <row r="380">
@@ -6056,7 +6056,7 @@
         <v>2010</v>
       </c>
       <c r="D380" t="n">
-        <v>-20486481</v>
+        <v>1591073253</v>
       </c>
     </row>
     <row r="381">
@@ -6070,7 +6070,7 @@
         <v>2011</v>
       </c>
       <c r="D381" t="n">
-        <v>-40367762</v>
+        <v>1261795992</v>
       </c>
     </row>
     <row r="382">
@@ -6084,7 +6084,7 @@
         <v>2012</v>
       </c>
       <c r="D382" t="n">
-        <v>36444188</v>
+        <v>1975596740</v>
       </c>
     </row>
     <row r="383">
@@ -6098,7 +6098,7 @@
         <v>2013</v>
       </c>
       <c r="D383" t="n">
-        <v>187516380</v>
+        <v>1812945182</v>
       </c>
     </row>
     <row r="384">
@@ -6112,7 +6112,7 @@
         <v>2014</v>
       </c>
       <c r="D384" t="n">
-        <v>38527357</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385">
@@ -6140,7 +6140,7 @@
         <v>2000</v>
       </c>
       <c r="D386" t="n">
-        <v>3784628</v>
+        <v>6284503</v>
       </c>
     </row>
     <row r="387">
@@ -6154,7 +6154,7 @@
         <v>2001</v>
       </c>
       <c r="D387" t="n">
-        <v>0</v>
+        <v>8236669</v>
       </c>
     </row>
     <row r="388">
@@ -6168,7 +6168,7 @@
         <v>2002</v>
       </c>
       <c r="D388" t="n">
-        <v>0</v>
+        <v>-6455888</v>
       </c>
     </row>
     <row r="389">
@@ -6182,7 +6182,7 @@
         <v>2003</v>
       </c>
       <c r="D389" t="n">
-        <v>0</v>
+        <v>-9192232</v>
       </c>
     </row>
     <row r="390">
@@ -6196,7 +6196,7 @@
         <v>2004</v>
       </c>
       <c r="D390" t="n">
-        <v>3516392</v>
+        <v>-10578638</v>
       </c>
     </row>
     <row r="391">
@@ -6210,7 +6210,7 @@
         <v>2005</v>
       </c>
       <c r="D391" t="n">
-        <v>0</v>
+        <v>541995</v>
       </c>
     </row>
     <row r="392">
@@ -6224,7 +6224,7 @@
         <v>2006</v>
       </c>
       <c r="D392" t="n">
-        <v>7618372</v>
+        <v>11784081</v>
       </c>
     </row>
     <row r="393">
@@ -6238,7 +6238,7 @@
         <v>2007</v>
       </c>
       <c r="D393" t="n">
-        <v>2918030</v>
+        <v>7159322</v>
       </c>
     </row>
     <row r="394">
@@ -6252,7 +6252,7 @@
         <v>2008</v>
       </c>
       <c r="D394" t="n">
-        <v>0</v>
+        <v>20488997</v>
       </c>
     </row>
     <row r="395">
@@ -6266,7 +6266,7 @@
         <v>2009</v>
       </c>
       <c r="D395" t="n">
-        <v>0</v>
+        <v>5506972</v>
       </c>
     </row>
     <row r="396">
@@ -6280,7 +6280,7 @@
         <v>2010</v>
       </c>
       <c r="D396" t="n">
-        <v>0</v>
+        <v>10536722</v>
       </c>
     </row>
     <row r="397">
@@ -6294,7 +6294,7 @@
         <v>2011</v>
       </c>
       <c r="D397" t="n">
-        <v>0</v>
+        <v>10019804</v>
       </c>
     </row>
     <row r="398">
@@ -6308,7 +6308,7 @@
         <v>2012</v>
       </c>
       <c r="D398" t="n">
-        <v>0</v>
+        <v>25177105</v>
       </c>
     </row>
     <row r="399">
@@ -6322,7 +6322,7 @@
         <v>2013</v>
       </c>
       <c r="D399" t="n">
-        <v>0</v>
+        <v>23870181</v>
       </c>
     </row>
     <row r="400">
@@ -6336,7 +6336,7 @@
         <v>2014</v>
       </c>
       <c r="D400" t="n">
-        <v>0</v>
+        <v>58805908</v>
       </c>
     </row>
     <row r="401">
@@ -6350,7 +6350,7 @@
         <v>2015</v>
       </c>
       <c r="D401" t="n">
-        <v>0</v>
+        <v>82360000</v>
       </c>
     </row>
     <row r="402">
@@ -6364,7 +6364,7 @@
         <v>2000</v>
       </c>
       <c r="D402" t="n">
-        <v>3545233586</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403">
@@ -6378,7 +6378,7 @@
         <v>2001</v>
       </c>
       <c r="D403" t="n">
-        <v>2533576851</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404">
@@ -6392,7 +6392,7 @@
         <v>2002</v>
       </c>
       <c r="D404" t="n">
-        <v>-4801932698</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405">
@@ -6406,7 +6406,7 @@
         <v>2003</v>
       </c>
       <c r="D405" t="n">
-        <v>-8320843804</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406">
@@ -6420,7 +6420,7 @@
         <v>2004</v>
       </c>
       <c r="D406" t="n">
-        <v>-3813511455</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407">
@@ -6434,7 +6434,7 @@
         <v>2005</v>
       </c>
       <c r="D407" t="n">
-        <v>-2733971273</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408">
@@ -6448,7 +6448,7 @@
         <v>2006</v>
       </c>
       <c r="D408" t="n">
-        <v>-5043170999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409">
@@ -6462,7 +6462,7 @@
         <v>2007</v>
       </c>
       <c r="D409" t="n">
-        <v>82669912</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410">
@@ -6476,7 +6476,7 @@
         <v>2008</v>
       </c>
       <c r="D410" t="n">
-        <v>3478599788</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411">
@@ -6490,7 +6490,7 @@
         <v>2009</v>
       </c>
       <c r="D411" t="n">
-        <v>10937501927</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412">
@@ -6504,7 +6504,7 @@
         <v>2010</v>
       </c>
       <c r="D412" t="n">
-        <v>17120895282</v>
+        <v>1089841095</v>
       </c>
     </row>
     <row r="413">
@@ -6518,7 +6518,7 @@
         <v>2011</v>
       </c>
       <c r="D413" t="n">
-        <v>1602522423</v>
+        <v>1393983048</v>
       </c>
     </row>
     <row r="414">
@@ -6532,7 +6532,7 @@
         <v>2012</v>
       </c>
       <c r="D414" t="n">
-        <v>6995911547</v>
+        <v>741320848</v>
       </c>
     </row>
     <row r="415">
@@ -6546,7 +6546,7 @@
         <v>2013</v>
       </c>
       <c r="D415" t="n">
-        <v>7226379830</v>
+        <v>677243220</v>
       </c>
     </row>
     <row r="416">
@@ -6560,7 +6560,7 @@
         <v>2014</v>
       </c>
       <c r="D416" t="n">
-        <v>7025121520</v>
+        <v>645124583</v>
       </c>
     </row>
     <row r="417">
@@ -6574,7 +6574,7 @@
         <v>2015</v>
       </c>
       <c r="D417" t="n">
-        <v>11588320000</v>
+        <v>1035070000</v>
       </c>
     </row>
     <row r="418">
@@ -6588,7 +6588,7 @@
         <v>2000</v>
       </c>
       <c r="D418" t="n">
-        <v>5818142185</v>
+        <v>-165028156</v>
       </c>
     </row>
     <row r="419">
@@ -6602,7 +6602,7 @@
         <v>2001</v>
       </c>
       <c r="D419" t="n">
-        <v>5768479350</v>
+        <v>87061703</v>
       </c>
     </row>
     <row r="420">
@@ -6616,7 +6616,7 @@
         <v>2002</v>
       </c>
       <c r="D420" t="n">
-        <v>1917032462</v>
+        <v>-542135389</v>
       </c>
     </row>
     <row r="421">
@@ -6630,7 +6630,7 @@
         <v>2003</v>
       </c>
       <c r="D421" t="n">
-        <v>1510808913</v>
+        <v>-338088122</v>
       </c>
     </row>
     <row r="422">
@@ -6644,7 +6644,7 @@
         <v>2004</v>
       </c>
       <c r="D422" t="n">
-        <v>-1566613087</v>
+        <v>532460184</v>
       </c>
     </row>
     <row r="423">
@@ -6658,7 +6658,7 @@
         <v>2005</v>
       </c>
       <c r="D423" t="n">
-        <v>-346196613</v>
+        <v>-1160308090</v>
       </c>
     </row>
     <row r="424">
@@ -6672,7 +6672,7 @@
         <v>2006</v>
       </c>
       <c r="D424" t="n">
-        <v>-2628224158</v>
+        <v>-959151440</v>
       </c>
     </row>
     <row r="425">
@@ -6686,7 +6686,7 @@
         <v>2007</v>
       </c>
       <c r="D425" t="n">
-        <v>1403931550</v>
+        <v>-233880681</v>
       </c>
     </row>
     <row r="426">
@@ -6700,7 +6700,7 @@
         <v>2008</v>
       </c>
       <c r="D426" t="n">
-        <v>2215356676</v>
+        <v>338814496</v>
       </c>
     </row>
     <row r="427">
@@ -6714,7 +6714,7 @@
         <v>2009</v>
       </c>
       <c r="D427" t="n">
-        <v>6505443227</v>
+        <v>-60763261</v>
       </c>
     </row>
     <row r="428">
@@ -6728,7 +6728,7 @@
         <v>2010</v>
       </c>
       <c r="D428" t="n">
-        <v>4246844218</v>
+        <v>-133295665</v>
       </c>
     </row>
     <row r="429">
@@ -6742,7 +6742,7 @@
         <v>2011</v>
       </c>
       <c r="D429" t="n">
-        <v>2350051111</v>
+        <v>-177322724</v>
       </c>
     </row>
     <row r="430">
@@ -6756,7 +6756,7 @@
         <v>2012</v>
       </c>
       <c r="D430" t="n">
-        <v>1733525212</v>
+        <v>173720361</v>
       </c>
     </row>
     <row r="431">
@@ -6770,7 +6770,7 @@
         <v>2013</v>
       </c>
       <c r="D431" t="n">
-        <v>1277707477</v>
+        <v>136237549</v>
       </c>
     </row>
     <row r="432">
@@ -6784,7 +6784,7 @@
         <v>2014</v>
       </c>
       <c r="D432" t="n">
-        <v>3267868076</v>
+        <v>80609128</v>
       </c>
     </row>
     <row r="433">
@@ -6798,7 +6798,7 @@
         <v>2015</v>
       </c>
       <c r="D433" t="n">
-        <v>3945510000</v>
+        <v>43040000</v>
       </c>
     </row>
     <row r="434">
@@ -6812,7 +6812,7 @@
         <v>2000</v>
       </c>
       <c r="D434" t="n">
-        <v>6284503</v>
+        <v>-3882652434</v>
       </c>
     </row>
     <row r="435">
@@ -6826,7 +6826,7 @@
         <v>2001</v>
       </c>
       <c r="D435" t="n">
-        <v>8236669</v>
+        <v>-781954601</v>
       </c>
     </row>
     <row r="436">
@@ -6840,7 +6840,7 @@
         <v>2002</v>
       </c>
       <c r="D436" t="n">
-        <v>-6455888</v>
+        <v>-1590522604</v>
       </c>
     </row>
     <row r="437">
@@ -6854,7 +6854,7 @@
         <v>2003</v>
       </c>
       <c r="D437" t="n">
-        <v>-9192232</v>
+        <v>-2235030281</v>
       </c>
     </row>
     <row r="438">
@@ -6868,7 +6868,7 @@
         <v>2004</v>
       </c>
       <c r="D438" t="n">
-        <v>-10578638</v>
+        <v>-1673339510</v>
       </c>
     </row>
     <row r="439">
@@ -6882,7 +6882,7 @@
         <v>2005</v>
       </c>
       <c r="D439" t="n">
-        <v>541995</v>
+        <v>-1225196338</v>
       </c>
     </row>
     <row r="440">
@@ -6896,7 +6896,7 @@
         <v>2006</v>
       </c>
       <c r="D440" t="n">
-        <v>11784081</v>
+        <v>2513943788</v>
       </c>
     </row>
     <row r="441">
@@ -6910,7 +6910,7 @@
         <v>2007</v>
       </c>
       <c r="D441" t="n">
-        <v>7159322</v>
+        <v>-215590228</v>
       </c>
     </row>
     <row r="442">
@@ -6924,7 +6924,7 @@
         <v>2008</v>
       </c>
       <c r="D442" t="n">
-        <v>20488997</v>
+        <v>-2159378216</v>
       </c>
     </row>
     <row r="443">
@@ -6938,7 +6938,7 @@
         <v>2009</v>
       </c>
       <c r="D443" t="n">
-        <v>5506972</v>
+        <v>5094609635</v>
       </c>
     </row>
     <row r="444">
@@ -6952,7 +6952,7 @@
         <v>2010</v>
       </c>
       <c r="D444" t="n">
-        <v>10536722</v>
+        <v>2314502849</v>
       </c>
     </row>
     <row r="445">
@@ -6966,7 +6966,7 @@
         <v>2011</v>
       </c>
       <c r="D445" t="n">
-        <v>10019804</v>
+        <v>2203281816</v>
       </c>
     </row>
     <row r="446">
@@ -6980,7 +6980,7 @@
         <v>2012</v>
       </c>
       <c r="D446" t="n">
-        <v>25177105</v>
+        <v>4232162057</v>
       </c>
     </row>
     <row r="447">
@@ -6994,7 +6994,7 @@
         <v>2013</v>
       </c>
       <c r="D447" t="n">
-        <v>23870181</v>
+        <v>1261884779</v>
       </c>
     </row>
     <row r="448">
@@ -7008,7 +7008,7 @@
         <v>2014</v>
       </c>
       <c r="D448" t="n">
-        <v>58805908</v>
+        <v>-804214541</v>
       </c>
     </row>
     <row r="449">
@@ -7022,7 +7022,7 @@
         <v>2015</v>
       </c>
       <c r="D449" t="n">
-        <v>82360000</v>
+        <v>-1055090000</v>
       </c>
     </row>
     <row r="450">
@@ -7036,7 +7036,7 @@
         <v>2000</v>
       </c>
       <c r="D450" t="n">
-        <v>305418841</v>
+        <v>-949073111</v>
       </c>
     </row>
     <row r="451">
@@ -7050,7 +7050,7 @@
         <v>2001</v>
       </c>
       <c r="D451" t="n">
-        <v>30529087</v>
+        <v>-303605037</v>
       </c>
     </row>
     <row r="452">
@@ -7064,7 +7064,7 @@
         <v>2002</v>
       </c>
       <c r="D452" t="n">
-        <v>42994042</v>
+        <v>327722775</v>
       </c>
     </row>
     <row r="453">
@@ -7078,7 +7078,7 @@
         <v>2003</v>
       </c>
       <c r="D453" t="n">
-        <v>1495981962</v>
+        <v>20962871</v>
       </c>
     </row>
     <row r="454">
@@ -7092,7 +7092,7 @@
         <v>2004</v>
       </c>
       <c r="D454" t="n">
-        <v>584957078</v>
+        <v>363546702</v>
       </c>
     </row>
     <row r="455">
@@ -7106,7 +7106,7 @@
         <v>2005</v>
       </c>
       <c r="D455" t="n">
-        <v>386623059</v>
+        <v>780278805</v>
       </c>
     </row>
     <row r="456">
@@ -7120,7 +7120,7 @@
         <v>2006</v>
       </c>
       <c r="D456" t="n">
-        <v>1604463937</v>
+        <v>1030694999</v>
       </c>
     </row>
     <row r="457">
@@ -7134,7 +7134,7 @@
         <v>2007</v>
       </c>
       <c r="D457" t="n">
-        <v>1920087822</v>
+        <v>965831159</v>
       </c>
     </row>
     <row r="458">
@@ -7148,7 +7148,7 @@
         <v>2008</v>
       </c>
       <c r="D458" t="n">
-        <v>2949312961</v>
+        <v>2120689391</v>
       </c>
     </row>
     <row r="459">
@@ -7162,7 +7162,7 @@
         <v>2009</v>
       </c>
       <c r="D459" t="n">
-        <v>2131578032</v>
+        <v>558768591</v>
       </c>
     </row>
     <row r="460">
@@ -7176,7 +7176,7 @@
         <v>2010</v>
       </c>
       <c r="D460" t="n">
-        <v>1591073253</v>
+        <v>2057086951</v>
       </c>
     </row>
     <row r="461">
@@ -7190,7 +7190,7 @@
         <v>2011</v>
       </c>
       <c r="D461" t="n">
-        <v>1261795992</v>
+        <v>2291596034</v>
       </c>
     </row>
     <row r="462">
@@ -7204,7 +7204,7 @@
         <v>2012</v>
       </c>
       <c r="D462" t="n">
-        <v>1975596740</v>
+        <v>1207872999</v>
       </c>
     </row>
     <row r="463">
@@ -7218,7 +7218,7 @@
         <v>2013</v>
       </c>
       <c r="D463" t="n">
-        <v>1812945182</v>
+        <v>1307025010</v>
       </c>
     </row>
     <row r="464">
@@ -7232,7 +7232,7 @@
         <v>2014</v>
       </c>
       <c r="D464" t="n">
-        <v>0</v>
+        <v>2077469660</v>
       </c>
     </row>
     <row r="465">
@@ -7246,7 +7246,7 @@
         <v>2015</v>
       </c>
       <c r="D465" t="n">
-        <v>0</v>
+        <v>3114680000</v>
       </c>
     </row>
     <row r="466">
@@ -7400,7 +7400,7 @@
         <v>2010</v>
       </c>
       <c r="D476" t="n">
-        <v>1089841095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="477">
@@ -7414,7 +7414,7 @@
         <v>2011</v>
       </c>
       <c r="D477" t="n">
-        <v>1393983048</v>
+        <v>0</v>
       </c>
     </row>
     <row r="478">
@@ -7428,7 +7428,7 @@
         <v>2012</v>
       </c>
       <c r="D478" t="n">
-        <v>741320848</v>
+        <v>0</v>
       </c>
     </row>
     <row r="479">
@@ -7442,7 +7442,7 @@
         <v>2013</v>
       </c>
       <c r="D479" t="n">
-        <v>677243220</v>
+        <v>0</v>
       </c>
     </row>
     <row r="480">
@@ -7456,7 +7456,7 @@
         <v>2014</v>
       </c>
       <c r="D480" t="n">
-        <v>645124583</v>
+        <v>0</v>
       </c>
     </row>
     <row r="481">
@@ -7470,7 +7470,7 @@
         <v>2015</v>
       </c>
       <c r="D481" t="n">
-        <v>1035070000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="482">
@@ -7484,7 +7484,7 @@
         <v>2000</v>
       </c>
       <c r="D482" t="n">
-        <v>-165028156</v>
+        <v>0</v>
       </c>
     </row>
     <row r="483">
@@ -7498,7 +7498,7 @@
         <v>2001</v>
       </c>
       <c r="D483" t="n">
-        <v>87061703</v>
+        <v>0</v>
       </c>
     </row>
     <row r="484">
@@ -7512,7 +7512,7 @@
         <v>2002</v>
       </c>
       <c r="D484" t="n">
-        <v>-542135389</v>
+        <v>0</v>
       </c>
     </row>
     <row r="485">
@@ -7526,7 +7526,7 @@
         <v>2003</v>
       </c>
       <c r="D485" t="n">
-        <v>-338088122</v>
+        <v>0</v>
       </c>
     </row>
     <row r="486">
@@ -7540,7 +7540,7 @@
         <v>2004</v>
       </c>
       <c r="D486" t="n">
-        <v>532460184</v>
+        <v>0</v>
       </c>
     </row>
     <row r="487">
@@ -7554,7 +7554,7 @@
         <v>2005</v>
       </c>
       <c r="D487" t="n">
-        <v>-1160308090</v>
+        <v>0</v>
       </c>
     </row>
     <row r="488">
@@ -7568,7 +7568,7 @@
         <v>2006</v>
       </c>
       <c r="D488" t="n">
-        <v>-959151440</v>
+        <v>0</v>
       </c>
     </row>
     <row r="489">
@@ -7582,7 +7582,7 @@
         <v>2007</v>
       </c>
       <c r="D489" t="n">
-        <v>-233880681</v>
+        <v>0</v>
       </c>
     </row>
     <row r="490">
@@ -7596,7 +7596,7 @@
         <v>2008</v>
       </c>
       <c r="D490" t="n">
-        <v>338814496</v>
+        <v>0</v>
       </c>
     </row>
     <row r="491">
@@ -7610,7 +7610,7 @@
         <v>2009</v>
       </c>
       <c r="D491" t="n">
-        <v>-60763261</v>
+        <v>0</v>
       </c>
     </row>
     <row r="492">
@@ -7624,7 +7624,7 @@
         <v>2010</v>
       </c>
       <c r="D492" t="n">
-        <v>-133295665</v>
+        <v>0</v>
       </c>
     </row>
     <row r="493">
@@ -7638,7 +7638,7 @@
         <v>2011</v>
       </c>
       <c r="D493" t="n">
-        <v>-177322724</v>
+        <v>0</v>
       </c>
     </row>
     <row r="494">
@@ -7652,7 +7652,7 @@
         <v>2012</v>
       </c>
       <c r="D494" t="n">
-        <v>173720361</v>
+        <v>0</v>
       </c>
     </row>
     <row r="495">
@@ -7666,7 +7666,7 @@
         <v>2013</v>
       </c>
       <c r="D495" t="n">
-        <v>136237549</v>
+        <v>0</v>
       </c>
     </row>
     <row r="496">
@@ -7680,7 +7680,7 @@
         <v>2014</v>
       </c>
       <c r="D496" t="n">
-        <v>80609128</v>
+        <v>0</v>
       </c>
     </row>
     <row r="497">
@@ -7694,7 +7694,7 @@
         <v>2015</v>
       </c>
       <c r="D497" t="n">
-        <v>43040000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="498">
@@ -7707,9 +7707,7 @@
       <c r="C498" t="n">
         <v>2000</v>
       </c>
-      <c r="D498" t="n">
-        <v>-3882652434</v>
-      </c>
+      <c r="D498"/>
     </row>
     <row r="499">
       <c r="A499" t="s">
@@ -7721,9 +7719,7 @@
       <c r="C499" t="n">
         <v>2001</v>
       </c>
-      <c r="D499" t="n">
-        <v>-781954601</v>
-      </c>
+      <c r="D499"/>
     </row>
     <row r="500">
       <c r="A500" t="s">
@@ -7735,9 +7731,7 @@
       <c r="C500" t="n">
         <v>2002</v>
       </c>
-      <c r="D500" t="n">
-        <v>-1590522604</v>
-      </c>
+      <c r="D500"/>
     </row>
     <row r="501">
       <c r="A501" t="s">
@@ -7749,9 +7743,7 @@
       <c r="C501" t="n">
         <v>2003</v>
       </c>
-      <c r="D501" t="n">
-        <v>-2235030281</v>
-      </c>
+      <c r="D501"/>
     </row>
     <row r="502">
       <c r="A502" t="s">
@@ -7763,9 +7755,7 @@
       <c r="C502" t="n">
         <v>2004</v>
       </c>
-      <c r="D502" t="n">
-        <v>-1673339510</v>
-      </c>
+      <c r="D502"/>
     </row>
     <row r="503">
       <c r="A503" t="s">
@@ -7777,9 +7767,7 @@
       <c r="C503" t="n">
         <v>2005</v>
       </c>
-      <c r="D503" t="n">
-        <v>-1225196338</v>
-      </c>
+      <c r="D503"/>
     </row>
     <row r="504">
       <c r="A504" t="s">
@@ -7791,9 +7779,7 @@
       <c r="C504" t="n">
         <v>2006</v>
       </c>
-      <c r="D504" t="n">
-        <v>2513943788</v>
-      </c>
+      <c r="D504"/>
     </row>
     <row r="505">
       <c r="A505" t="s">
@@ -7805,9 +7791,7 @@
       <c r="C505" t="n">
         <v>2007</v>
       </c>
-      <c r="D505" t="n">
-        <v>-215590228</v>
-      </c>
+      <c r="D505"/>
     </row>
     <row r="506">
       <c r="A506" t="s">
@@ -7819,9 +7803,7 @@
       <c r="C506" t="n">
         <v>2008</v>
       </c>
-      <c r="D506" t="n">
-        <v>-2159378216</v>
-      </c>
+      <c r="D506"/>
     </row>
     <row r="507">
       <c r="A507" t="s">
@@ -7833,9 +7815,7 @@
       <c r="C507" t="n">
         <v>2009</v>
       </c>
-      <c r="D507" t="n">
-        <v>5094609635</v>
-      </c>
+      <c r="D507"/>
     </row>
     <row r="508">
       <c r="A508" t="s">
@@ -7847,9 +7827,7 @@
       <c r="C508" t="n">
         <v>2010</v>
       </c>
-      <c r="D508" t="n">
-        <v>2314502849</v>
-      </c>
+      <c r="D508"/>
     </row>
     <row r="509">
       <c r="A509" t="s">
@@ -7861,9 +7839,7 @@
       <c r="C509" t="n">
         <v>2011</v>
       </c>
-      <c r="D509" t="n">
-        <v>2203281816</v>
-      </c>
+      <c r="D509"/>
     </row>
     <row r="510">
       <c r="A510" t="s">
@@ -7875,9 +7851,7 @@
       <c r="C510" t="n">
         <v>2012</v>
       </c>
-      <c r="D510" t="n">
-        <v>4232162057</v>
-      </c>
+      <c r="D510"/>
     </row>
     <row r="511">
       <c r="A511" t="s">
@@ -7889,9 +7863,7 @@
       <c r="C511" t="n">
         <v>2013</v>
       </c>
-      <c r="D511" t="n">
-        <v>1261884779</v>
-      </c>
+      <c r="D511"/>
     </row>
     <row r="512">
       <c r="A512" t="s">
@@ -7903,9 +7875,7 @@
       <c r="C512" t="n">
         <v>2014</v>
       </c>
-      <c r="D512" t="n">
-        <v>-804214541</v>
-      </c>
+      <c r="D512"/>
     </row>
     <row r="513">
       <c r="A513" t="s">
@@ -7917,9 +7887,7 @@
       <c r="C513" t="n">
         <v>2015</v>
       </c>
-      <c r="D513" t="n">
-        <v>-1055090000</v>
-      </c>
+      <c r="D513"/>
     </row>
     <row r="514">
       <c r="A514" t="s">
@@ -7932,7 +7900,7 @@
         <v>2000</v>
       </c>
       <c r="D514" t="n">
-        <v>-949073111</v>
+        <v>58632995</v>
       </c>
     </row>
     <row r="515">
@@ -7946,7 +7914,7 @@
         <v>2001</v>
       </c>
       <c r="D515" t="n">
-        <v>-303605037</v>
+        <v>64087110</v>
       </c>
     </row>
     <row r="516">
@@ -7960,7 +7928,7 @@
         <v>2002</v>
       </c>
       <c r="D516" t="n">
-        <v>327722775</v>
+        <v>321513959</v>
       </c>
     </row>
     <row r="517">
@@ -7974,7 +7942,7 @@
         <v>2003</v>
       </c>
       <c r="D517" t="n">
-        <v>20962871</v>
+        <v>1032432149</v>
       </c>
     </row>
     <row r="518">
@@ -7988,7 +7956,7 @@
         <v>2004</v>
       </c>
       <c r="D518" t="n">
-        <v>363546702</v>
+        <v>155227733</v>
       </c>
     </row>
     <row r="519">
@@ -8002,7 +7970,7 @@
         <v>2005</v>
       </c>
       <c r="D519" t="n">
-        <v>780278805</v>
+        <v>153801763</v>
       </c>
     </row>
     <row r="520">
@@ -8016,7 +7984,7 @@
         <v>2006</v>
       </c>
       <c r="D520" t="n">
-        <v>1030694999</v>
+        <v>334682810</v>
       </c>
     </row>
     <row r="521">
@@ -8030,7 +7998,7 @@
         <v>2007</v>
       </c>
       <c r="D521" t="n">
-        <v>965831159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="522">
@@ -8044,7 +8012,7 @@
         <v>2008</v>
       </c>
       <c r="D522" t="n">
-        <v>2120689391</v>
+        <v>0</v>
       </c>
     </row>
     <row r="523">
@@ -8058,7 +8026,7 @@
         <v>2009</v>
       </c>
       <c r="D523" t="n">
-        <v>558768591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="524">
@@ -8072,7 +8040,7 @@
         <v>2010</v>
       </c>
       <c r="D524" t="n">
-        <v>2057086951</v>
+        <v>0</v>
       </c>
     </row>
     <row r="525">
@@ -8086,7 +8054,7 @@
         <v>2011</v>
       </c>
       <c r="D525" t="n">
-        <v>2291596034</v>
+        <v>0</v>
       </c>
     </row>
     <row r="526">
@@ -8100,7 +8068,7 @@
         <v>2012</v>
       </c>
       <c r="D526" t="n">
-        <v>1207872999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="527">
@@ -8114,7 +8082,7 @@
         <v>2013</v>
       </c>
       <c r="D527" t="n">
-        <v>1307025010</v>
+        <v>0</v>
       </c>
     </row>
     <row r="528">
@@ -8128,7 +8096,7 @@
         <v>2014</v>
       </c>
       <c r="D528" t="n">
-        <v>2077469660</v>
+        <v>0</v>
       </c>
     </row>
     <row r="529">
@@ -8142,7 +8110,7 @@
         <v>2015</v>
       </c>
       <c r="D529" t="n">
-        <v>3114680000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="530">
@@ -8184,7 +8152,7 @@
         <v>2002</v>
       </c>
       <c r="D532" t="n">
-        <v>0</v>
+        <v>4482005</v>
       </c>
     </row>
     <row r="533">
@@ -8198,7 +8166,7 @@
         <v>2003</v>
       </c>
       <c r="D533" t="n">
-        <v>0</v>
+        <v>4705710</v>
       </c>
     </row>
     <row r="534">
@@ -8212,7 +8180,7 @@
         <v>2004</v>
       </c>
       <c r="D534" t="n">
-        <v>0</v>
+        <v>7086676</v>
       </c>
     </row>
     <row r="535">
@@ -8226,7 +8194,7 @@
         <v>2005</v>
       </c>
       <c r="D535" t="n">
-        <v>0</v>
+        <v>8737283</v>
       </c>
     </row>
     <row r="536">
@@ -8240,7 +8208,7 @@
         <v>2006</v>
       </c>
       <c r="D536" t="n">
-        <v>0</v>
+        <v>9712454</v>
       </c>
     </row>
     <row r="537">
@@ -8254,7 +8222,7 @@
         <v>2007</v>
       </c>
       <c r="D537" t="n">
-        <v>0</v>
+        <v>9125255</v>
       </c>
     </row>
     <row r="538">
@@ -8268,7 +8236,7 @@
         <v>2008</v>
       </c>
       <c r="D538" t="n">
-        <v>0</v>
+        <v>9420159</v>
       </c>
     </row>
     <row r="539">
@@ -8282,7 +8250,7 @@
         <v>2009</v>
       </c>
       <c r="D539" t="n">
-        <v>0</v>
+        <v>9470388</v>
       </c>
     </row>
     <row r="540">
@@ -8296,7 +8264,7 @@
         <v>2010</v>
       </c>
       <c r="D540" t="n">
-        <v>0</v>
+        <v>8770065</v>
       </c>
     </row>
     <row r="541">
@@ -8310,7 +8278,7 @@
         <v>2011</v>
       </c>
       <c r="D541" t="n">
-        <v>0</v>
+        <v>9010950</v>
       </c>
     </row>
     <row r="542">
@@ -8324,7 +8292,7 @@
         <v>2012</v>
       </c>
       <c r="D542" t="n">
-        <v>0</v>
+        <v>10311537</v>
       </c>
     </row>
     <row r="543">
@@ -8338,7 +8306,7 @@
         <v>2013</v>
       </c>
       <c r="D543" t="n">
-        <v>0</v>
+        <v>9758175</v>
       </c>
     </row>
     <row r="544">
@@ -8352,7 +8320,7 @@
         <v>2014</v>
       </c>
       <c r="D544" t="n">
-        <v>0</v>
+        <v>13967192</v>
       </c>
     </row>
     <row r="545">
@@ -8366,7 +8334,7 @@
         <v>2015</v>
       </c>
       <c r="D545" t="n">
-        <v>0</v>
+        <v>15860000</v>
       </c>
     </row>
     <row r="546">
@@ -8421,9 +8389,7 @@
       <c r="C549" t="n">
         <v>2003</v>
       </c>
-      <c r="D549" t="n">
-        <v>0</v>
-      </c>
+      <c r="D549"/>
     </row>
     <row r="550">
       <c r="A550" t="s">
@@ -8435,9 +8401,7 @@
       <c r="C550" t="n">
         <v>2004</v>
       </c>
-      <c r="D550" t="n">
-        <v>0</v>
-      </c>
+      <c r="D550"/>
     </row>
     <row r="551">
       <c r="A551" t="s">
@@ -8449,9 +8413,7 @@
       <c r="C551" t="n">
         <v>2005</v>
       </c>
-      <c r="D551" t="n">
-        <v>0</v>
-      </c>
+      <c r="D551"/>
     </row>
     <row r="552">
       <c r="A552" t="s">
@@ -8463,9 +8425,7 @@
       <c r="C552" t="n">
         <v>2006</v>
       </c>
-      <c r="D552" t="n">
-        <v>0</v>
-      </c>
+      <c r="D552"/>
     </row>
     <row r="553">
       <c r="A553" t="s">
@@ -8477,9 +8437,7 @@
       <c r="C553" t="n">
         <v>2007</v>
       </c>
-      <c r="D553" t="n">
-        <v>0</v>
-      </c>
+      <c r="D553"/>
     </row>
     <row r="554">
       <c r="A554" t="s">
@@ -8491,9 +8449,7 @@
       <c r="C554" t="n">
         <v>2008</v>
       </c>
-      <c r="D554" t="n">
-        <v>0</v>
-      </c>
+      <c r="D554"/>
     </row>
     <row r="555">
       <c r="A555" t="s">
@@ -8505,9 +8461,7 @@
       <c r="C555" t="n">
         <v>2009</v>
       </c>
-      <c r="D555" t="n">
-        <v>0</v>
-      </c>
+      <c r="D555"/>
     </row>
     <row r="556">
       <c r="A556" t="s">
@@ -8519,9 +8473,7 @@
       <c r="C556" t="n">
         <v>2010</v>
       </c>
-      <c r="D556" t="n">
-        <v>0</v>
-      </c>
+      <c r="D556"/>
     </row>
     <row r="557">
       <c r="A557" t="s">
@@ -8533,9 +8485,7 @@
       <c r="C557" t="n">
         <v>2011</v>
       </c>
-      <c r="D557" t="n">
-        <v>0</v>
-      </c>
+      <c r="D557"/>
     </row>
     <row r="558">
       <c r="A558" t="s">
@@ -8547,9 +8497,7 @@
       <c r="C558" t="n">
         <v>2012</v>
       </c>
-      <c r="D558" t="n">
-        <v>0</v>
-      </c>
+      <c r="D558"/>
     </row>
     <row r="559">
       <c r="A559" t="s">
@@ -8561,9 +8509,7 @@
       <c r="C559" t="n">
         <v>2013</v>
       </c>
-      <c r="D559" t="n">
-        <v>0</v>
-      </c>
+      <c r="D559"/>
     </row>
     <row r="560">
       <c r="A560" t="s">
@@ -8575,9 +8521,7 @@
       <c r="C560" t="n">
         <v>2014</v>
       </c>
-      <c r="D560" t="n">
-        <v>0</v>
-      </c>
+      <c r="D560"/>
     </row>
     <row r="561">
       <c r="A561" t="s">
@@ -8589,9 +8533,7 @@
       <c r="C561" t="n">
         <v>2015</v>
       </c>
-      <c r="D561" t="n">
-        <v>0</v>
-      </c>
+      <c r="D561"/>
     </row>
     <row r="562">
       <c r="A562" t="s">
@@ -8603,7 +8545,9 @@
       <c r="C562" t="n">
         <v>2000</v>
       </c>
-      <c r="D562"/>
+      <c r="D562" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="563">
       <c r="A563" t="s">
@@ -8615,7 +8559,9 @@
       <c r="C563" t="n">
         <v>2001</v>
       </c>
-      <c r="D563"/>
+      <c r="D563" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="564">
       <c r="A564" t="s">
@@ -8627,7 +8573,9 @@
       <c r="C564" t="n">
         <v>2002</v>
       </c>
-      <c r="D564"/>
+      <c r="D564" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="565">
       <c r="A565" t="s">
@@ -8639,7 +8587,9 @@
       <c r="C565" t="n">
         <v>2003</v>
       </c>
-      <c r="D565"/>
+      <c r="D565" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="566">
       <c r="A566" t="s">
@@ -8651,7 +8601,9 @@
       <c r="C566" t="n">
         <v>2004</v>
       </c>
-      <c r="D566"/>
+      <c r="D566" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="567">
       <c r="A567" t="s">
@@ -8663,7 +8615,9 @@
       <c r="C567" t="n">
         <v>2005</v>
       </c>
-      <c r="D567"/>
+      <c r="D567" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="568">
       <c r="A568" t="s">
@@ -8675,7 +8629,9 @@
       <c r="C568" t="n">
         <v>2006</v>
       </c>
-      <c r="D568"/>
+      <c r="D568" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="569">
       <c r="A569" t="s">
@@ -8687,7 +8643,9 @@
       <c r="C569" t="n">
         <v>2007</v>
       </c>
-      <c r="D569"/>
+      <c r="D569" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="570">
       <c r="A570" t="s">
@@ -8699,7 +8657,9 @@
       <c r="C570" t="n">
         <v>2008</v>
       </c>
-      <c r="D570"/>
+      <c r="D570" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="571">
       <c r="A571" t="s">
@@ -8711,7 +8671,9 @@
       <c r="C571" t="n">
         <v>2009</v>
       </c>
-      <c r="D571"/>
+      <c r="D571" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="572">
       <c r="A572" t="s">
@@ -8723,7 +8685,9 @@
       <c r="C572" t="n">
         <v>2010</v>
       </c>
-      <c r="D572"/>
+      <c r="D572" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="573">
       <c r="A573" t="s">
@@ -8735,7 +8699,9 @@
       <c r="C573" t="n">
         <v>2011</v>
       </c>
-      <c r="D573"/>
+      <c r="D573" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="574">
       <c r="A574" t="s">
@@ -8747,7 +8713,9 @@
       <c r="C574" t="n">
         <v>2012</v>
       </c>
-      <c r="D574"/>
+      <c r="D574" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="575">
       <c r="A575" t="s">
@@ -8759,7 +8727,9 @@
       <c r="C575" t="n">
         <v>2013</v>
       </c>
-      <c r="D575"/>
+      <c r="D575" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="576">
       <c r="A576" t="s">
@@ -8771,7 +8741,9 @@
       <c r="C576" t="n">
         <v>2014</v>
       </c>
-      <c r="D576"/>
+      <c r="D576" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="577">
       <c r="A577" t="s">
@@ -8783,7 +8755,9 @@
       <c r="C577" t="n">
         <v>2015</v>
       </c>
-      <c r="D577"/>
+      <c r="D577" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="578">
       <c r="A578" t="s">
@@ -8796,7 +8770,7 @@
         <v>2000</v>
       </c>
       <c r="D578" t="n">
-        <v>58632995</v>
+        <v>0</v>
       </c>
     </row>
     <row r="579">
@@ -8810,7 +8784,7 @@
         <v>2001</v>
       </c>
       <c r="D579" t="n">
-        <v>64087110</v>
+        <v>0</v>
       </c>
     </row>
     <row r="580">
@@ -8824,7 +8798,7 @@
         <v>2002</v>
       </c>
       <c r="D580" t="n">
-        <v>321513959</v>
+        <v>0</v>
       </c>
     </row>
     <row r="581">
@@ -8838,7 +8812,7 @@
         <v>2003</v>
       </c>
       <c r="D581" t="n">
-        <v>1032432149</v>
+        <v>325977</v>
       </c>
     </row>
     <row r="582">
@@ -8852,7 +8826,7 @@
         <v>2004</v>
       </c>
       <c r="D582" t="n">
-        <v>155227733</v>
+        <v>344182</v>
       </c>
     </row>
     <row r="583">
@@ -8866,7 +8840,7 @@
         <v>2005</v>
       </c>
       <c r="D583" t="n">
-        <v>153801763</v>
+        <v>5151038</v>
       </c>
     </row>
     <row r="584">
@@ -8880,7 +8854,7 @@
         <v>2006</v>
       </c>
       <c r="D584" t="n">
-        <v>334682810</v>
+        <v>5043816</v>
       </c>
     </row>
     <row r="585">
@@ -8894,7 +8868,7 @@
         <v>2007</v>
       </c>
       <c r="D585" t="n">
-        <v>0</v>
+        <v>4570978</v>
       </c>
     </row>
     <row r="586">
@@ -8908,7 +8882,7 @@
         <v>2008</v>
       </c>
       <c r="D586" t="n">
-        <v>0</v>
+        <v>-80188</v>
       </c>
     </row>
     <row r="587">
@@ -8922,7 +8896,7 @@
         <v>2009</v>
       </c>
       <c r="D587" t="n">
-        <v>0</v>
+        <v>111673</v>
       </c>
     </row>
     <row r="588">
@@ -8936,7 +8910,7 @@
         <v>2010</v>
       </c>
       <c r="D588" t="n">
-        <v>0</v>
+        <v>558034</v>
       </c>
     </row>
     <row r="589">
@@ -8978,7 +8952,7 @@
         <v>2013</v>
       </c>
       <c r="D591" t="n">
-        <v>0</v>
+        <v>159575</v>
       </c>
     </row>
     <row r="592">
@@ -8992,7 +8966,7 @@
         <v>2014</v>
       </c>
       <c r="D592" t="n">
-        <v>0</v>
+        <v>-35281385</v>
       </c>
     </row>
     <row r="593">
@@ -9006,7 +8980,7 @@
         <v>2015</v>
       </c>
       <c r="D593" t="n">
-        <v>0</v>
+        <v>284100000</v>
       </c>
     </row>
     <row r="594">
@@ -9062,7 +9036,7 @@
         <v>2003</v>
       </c>
       <c r="D597" t="n">
-        <v>325977</v>
+        <v>0</v>
       </c>
     </row>
     <row r="598">
@@ -9076,7 +9050,7 @@
         <v>2004</v>
       </c>
       <c r="D598" t="n">
-        <v>344182</v>
+        <v>0</v>
       </c>
     </row>
     <row r="599">
@@ -9090,7 +9064,7 @@
         <v>2005</v>
       </c>
       <c r="D599" t="n">
-        <v>5151038</v>
+        <v>0</v>
       </c>
     </row>
     <row r="600">
@@ -9104,7 +9078,7 @@
         <v>2006</v>
       </c>
       <c r="D600" t="n">
-        <v>5043816</v>
+        <v>0</v>
       </c>
     </row>
     <row r="601">
@@ -9118,7 +9092,7 @@
         <v>2007</v>
       </c>
       <c r="D601" t="n">
-        <v>4570978</v>
+        <v>0</v>
       </c>
     </row>
     <row r="602">
@@ -9132,7 +9106,7 @@
         <v>2008</v>
       </c>
       <c r="D602" t="n">
-        <v>-80188</v>
+        <v>0</v>
       </c>
     </row>
     <row r="603">
@@ -9146,7 +9120,7 @@
         <v>2009</v>
       </c>
       <c r="D603" t="n">
-        <v>111673</v>
+        <v>246313574</v>
       </c>
     </row>
     <row r="604">
@@ -9160,7 +9134,7 @@
         <v>2010</v>
       </c>
       <c r="D604" t="n">
-        <v>558034</v>
+        <v>270796581</v>
       </c>
     </row>
     <row r="605">
@@ -9174,7 +9148,7 @@
         <v>2011</v>
       </c>
       <c r="D605" t="n">
-        <v>0</v>
+        <v>286723938</v>
       </c>
     </row>
     <row r="606">
@@ -9188,7 +9162,7 @@
         <v>2012</v>
       </c>
       <c r="D606" t="n">
-        <v>0</v>
+        <v>88065530</v>
       </c>
     </row>
     <row r="607">
@@ -9202,7 +9176,7 @@
         <v>2013</v>
       </c>
       <c r="D607" t="n">
-        <v>159575</v>
+        <v>205953468</v>
       </c>
     </row>
     <row r="608">
@@ -9216,7 +9190,7 @@
         <v>2014</v>
       </c>
       <c r="D608" t="n">
-        <v>-35281385</v>
+        <v>194010155</v>
       </c>
     </row>
     <row r="609">
@@ -9230,7 +9204,7 @@
         <v>2015</v>
       </c>
       <c r="D609" t="n">
-        <v>284100000</v>
+        <v>254340000</v>
       </c>
     </row>
     <row r="610">
@@ -9285,7 +9259,9 @@
       <c r="C613" t="n">
         <v>2003</v>
       </c>
-      <c r="D613"/>
+      <c r="D613" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="614">
       <c r="A614" t="s">
@@ -9297,7 +9273,9 @@
       <c r="C614" t="n">
         <v>2004</v>
       </c>
-      <c r="D614"/>
+      <c r="D614" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="615">
       <c r="A615" t="s">
@@ -9309,7 +9287,9 @@
       <c r="C615" t="n">
         <v>2005</v>
       </c>
-      <c r="D615"/>
+      <c r="D615" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="616">
       <c r="A616" t="s">
@@ -9321,7 +9301,9 @@
       <c r="C616" t="n">
         <v>2006</v>
       </c>
-      <c r="D616"/>
+      <c r="D616" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="617">
       <c r="A617" t="s">
@@ -9333,7 +9315,9 @@
       <c r="C617" t="n">
         <v>2007</v>
       </c>
-      <c r="D617"/>
+      <c r="D617" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="618">
       <c r="A618" t="s">
@@ -9345,7 +9329,9 @@
       <c r="C618" t="n">
         <v>2008</v>
       </c>
-      <c r="D618"/>
+      <c r="D618" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="619">
       <c r="A619" t="s">
@@ -9357,7 +9343,9 @@
       <c r="C619" t="n">
         <v>2009</v>
       </c>
-      <c r="D619"/>
+      <c r="D619" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="620">
       <c r="A620" t="s">
@@ -9369,7 +9357,9 @@
       <c r="C620" t="n">
         <v>2010</v>
       </c>
-      <c r="D620"/>
+      <c r="D620" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="621">
       <c r="A621" t="s">
@@ -9381,7 +9371,9 @@
       <c r="C621" t="n">
         <v>2011</v>
       </c>
-      <c r="D621"/>
+      <c r="D621" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="622">
       <c r="A622" t="s">
@@ -9393,7 +9385,9 @@
       <c r="C622" t="n">
         <v>2012</v>
       </c>
-      <c r="D622"/>
+      <c r="D622" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="623">
       <c r="A623" t="s">
@@ -9405,7 +9399,9 @@
       <c r="C623" t="n">
         <v>2013</v>
       </c>
-      <c r="D623"/>
+      <c r="D623" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="624">
       <c r="A624" t="s">
@@ -9417,7 +9413,9 @@
       <c r="C624" t="n">
         <v>2014</v>
       </c>
-      <c r="D624"/>
+      <c r="D624" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="625">
       <c r="A625" t="s">
@@ -9429,7 +9427,9 @@
       <c r="C625" t="n">
         <v>2015</v>
       </c>
-      <c r="D625"/>
+      <c r="D625" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="626">
       <c r="A626" t="s">
@@ -9666,7 +9666,7 @@
         <v>2000</v>
       </c>
       <c r="D642" t="n">
-        <v>0</v>
+        <v>126478809</v>
       </c>
     </row>
     <row r="643">
@@ -9680,7 +9680,7 @@
         <v>2001</v>
       </c>
       <c r="D643" t="n">
-        <v>0</v>
+        <v>-1712263</v>
       </c>
     </row>
     <row r="644">
@@ -9694,7 +9694,7 @@
         <v>2002</v>
       </c>
       <c r="D644" t="n">
-        <v>4482005</v>
+        <v>-2061301</v>
       </c>
     </row>
     <row r="645">
@@ -9708,7 +9708,7 @@
         <v>2003</v>
       </c>
       <c r="D645" t="n">
-        <v>4705710</v>
+        <v>-2136287</v>
       </c>
     </row>
     <row r="646">
@@ -9722,7 +9722,7 @@
         <v>2004</v>
       </c>
       <c r="D646" t="n">
-        <v>7086676</v>
+        <v>-730447206</v>
       </c>
     </row>
     <row r="647">
@@ -9736,7 +9736,7 @@
         <v>2005</v>
       </c>
       <c r="D647" t="n">
-        <v>8737283</v>
+        <v>-2794073</v>
       </c>
     </row>
     <row r="648">
@@ -9750,7 +9750,7 @@
         <v>2006</v>
       </c>
       <c r="D648" t="n">
-        <v>9712454</v>
+        <v>-19846098</v>
       </c>
     </row>
     <row r="649">
@@ -9764,7 +9764,7 @@
         <v>2007</v>
       </c>
       <c r="D649" t="n">
-        <v>9125255</v>
+        <v>-206538847</v>
       </c>
     </row>
     <row r="650">
@@ -9778,7 +9778,7 @@
         <v>2008</v>
       </c>
       <c r="D650" t="n">
-        <v>9420159</v>
+        <v>0</v>
       </c>
     </row>
     <row r="651">
@@ -9792,7 +9792,7 @@
         <v>2009</v>
       </c>
       <c r="D651" t="n">
-        <v>9470388</v>
+        <v>0</v>
       </c>
     </row>
     <row r="652">
@@ -9806,7 +9806,7 @@
         <v>2010</v>
       </c>
       <c r="D652" t="n">
-        <v>8770065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="653">
@@ -9820,7 +9820,7 @@
         <v>2011</v>
       </c>
       <c r="D653" t="n">
-        <v>9010950</v>
+        <v>0</v>
       </c>
     </row>
     <row r="654">
@@ -9834,7 +9834,7 @@
         <v>2012</v>
       </c>
       <c r="D654" t="n">
-        <v>10311537</v>
+        <v>1742527</v>
       </c>
     </row>
     <row r="655">
@@ -9848,7 +9848,7 @@
         <v>2013</v>
       </c>
       <c r="D655" t="n">
-        <v>9758175</v>
+        <v>2520346</v>
       </c>
     </row>
     <row r="656">
@@ -9862,7 +9862,7 @@
         <v>2014</v>
       </c>
       <c r="D656" t="n">
-        <v>13967192</v>
+        <v>1550810</v>
       </c>
     </row>
     <row r="657">
@@ -9876,7 +9876,7 @@
         <v>2015</v>
       </c>
       <c r="D657" t="n">
-        <v>15860000</v>
+        <v>-450000</v>
       </c>
     </row>
     <row r="658">
@@ -10016,7 +10016,7 @@
         <v>2009</v>
       </c>
       <c r="D667" t="n">
-        <v>246313574</v>
+        <v>0</v>
       </c>
     </row>
     <row r="668">
@@ -10030,7 +10030,7 @@
         <v>2010</v>
       </c>
       <c r="D668" t="n">
-        <v>270796581</v>
+        <v>0</v>
       </c>
     </row>
     <row r="669">
@@ -10044,7 +10044,7 @@
         <v>2011</v>
       </c>
       <c r="D669" t="n">
-        <v>286723938</v>
+        <v>0</v>
       </c>
     </row>
     <row r="670">
@@ -10058,7 +10058,7 @@
         <v>2012</v>
       </c>
       <c r="D670" t="n">
-        <v>88065530</v>
+        <v>0</v>
       </c>
     </row>
     <row r="671">
@@ -10072,7 +10072,7 @@
         <v>2013</v>
       </c>
       <c r="D671" t="n">
-        <v>205953468</v>
+        <v>0</v>
       </c>
     </row>
     <row r="672">
@@ -10086,7 +10086,7 @@
         <v>2014</v>
       </c>
       <c r="D672" t="n">
-        <v>194010155</v>
+        <v>0</v>
       </c>
     </row>
     <row r="673">
@@ -10100,7 +10100,7 @@
         <v>2015</v>
       </c>
       <c r="D673" t="n">
-        <v>254340000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="674">
@@ -10114,7 +10114,7 @@
         <v>2000</v>
       </c>
       <c r="D674" t="n">
-        <v>0</v>
+        <v>5347032</v>
       </c>
     </row>
     <row r="675">
@@ -10128,7 +10128,7 @@
         <v>2001</v>
       </c>
       <c r="D675" t="n">
-        <v>0</v>
+        <v>235959091</v>
       </c>
     </row>
     <row r="676">
@@ -10142,7 +10142,7 @@
         <v>2002</v>
       </c>
       <c r="D676" t="n">
-        <v>0</v>
+        <v>80029005</v>
       </c>
     </row>
     <row r="677">
@@ -10156,7 +10156,7 @@
         <v>2003</v>
       </c>
       <c r="D677" t="n">
-        <v>0</v>
+        <v>86261717</v>
       </c>
     </row>
     <row r="678">
@@ -10170,7 +10170,7 @@
         <v>2004</v>
       </c>
       <c r="D678" t="n">
-        <v>0</v>
+        <v>25857660</v>
       </c>
     </row>
     <row r="679">
@@ -10184,7 +10184,7 @@
         <v>2005</v>
       </c>
       <c r="D679" t="n">
-        <v>0</v>
+        <v>66221802</v>
       </c>
     </row>
     <row r="680">
@@ -10212,7 +10212,7 @@
         <v>2007</v>
       </c>
       <c r="D681" t="n">
-        <v>0</v>
+        <v>5274626</v>
       </c>
     </row>
     <row r="682">
@@ -10240,7 +10240,7 @@
         <v>2009</v>
       </c>
       <c r="D683" t="n">
-        <v>0</v>
+        <v>2794533</v>
       </c>
     </row>
     <row r="684">
@@ -10268,7 +10268,7 @@
         <v>2011</v>
       </c>
       <c r="D685" t="n">
-        <v>0</v>
+        <v>3292293</v>
       </c>
     </row>
     <row r="686">
@@ -10282,7 +10282,7 @@
         <v>2012</v>
       </c>
       <c r="D686" t="n">
-        <v>0</v>
+        <v>2157360</v>
       </c>
     </row>
     <row r="687">
@@ -10296,7 +10296,7 @@
         <v>2013</v>
       </c>
       <c r="D687" t="n">
-        <v>0</v>
+        <v>12125685</v>
       </c>
     </row>
     <row r="688">
@@ -10310,7 +10310,7 @@
         <v>2014</v>
       </c>
       <c r="D688" t="n">
-        <v>0</v>
+        <v>3157094</v>
       </c>
     </row>
     <row r="689">
@@ -10324,7 +10324,7 @@
         <v>2015</v>
       </c>
       <c r="D689" t="n">
-        <v>0</v>
+        <v>5800000</v>
       </c>
     </row>
     <row r="690">
@@ -10338,7 +10338,7 @@
         <v>2000</v>
       </c>
       <c r="D690" t="n">
-        <v>0</v>
+        <v>181669</v>
       </c>
     </row>
     <row r="691">
@@ -10352,7 +10352,7 @@
         <v>2001</v>
       </c>
       <c r="D691" t="n">
-        <v>0</v>
+        <v>1802117</v>
       </c>
     </row>
     <row r="692">
@@ -10366,7 +10366,7 @@
         <v>2002</v>
       </c>
       <c r="D692" t="n">
-        <v>0</v>
+        <v>2551633</v>
       </c>
     </row>
     <row r="693">
@@ -10380,7 +10380,7 @@
         <v>2003</v>
       </c>
       <c r="D693" t="n">
-        <v>0</v>
+        <v>-17973394</v>
       </c>
     </row>
     <row r="694">
@@ -10394,7 +10394,7 @@
         <v>2004</v>
       </c>
       <c r="D694" t="n">
-        <v>0</v>
+        <v>-67444662</v>
       </c>
     </row>
     <row r="695">
@@ -10408,7 +10408,7 @@
         <v>2005</v>
       </c>
       <c r="D695" t="n">
-        <v>0</v>
+        <v>-4249274</v>
       </c>
     </row>
     <row r="696">
@@ -10422,7 +10422,7 @@
         <v>2006</v>
       </c>
       <c r="D696" t="n">
-        <v>0</v>
+        <v>-1771762</v>
       </c>
     </row>
     <row r="697">
@@ -10436,7 +10436,7 @@
         <v>2007</v>
       </c>
       <c r="D697" t="n">
-        <v>0</v>
+        <v>-42597065</v>
       </c>
     </row>
     <row r="698">
@@ -10450,7 +10450,7 @@
         <v>2008</v>
       </c>
       <c r="D698" t="n">
-        <v>0</v>
+        <v>27013240</v>
       </c>
     </row>
     <row r="699">
@@ -10464,7 +10464,7 @@
         <v>2009</v>
       </c>
       <c r="D699" t="n">
-        <v>0</v>
+        <v>66936931</v>
       </c>
     </row>
     <row r="700">
@@ -10478,7 +10478,7 @@
         <v>2010</v>
       </c>
       <c r="D700" t="n">
-        <v>0</v>
+        <v>45770</v>
       </c>
     </row>
     <row r="701">
@@ -10492,7 +10492,7 @@
         <v>2011</v>
       </c>
       <c r="D701" t="n">
-        <v>0</v>
+        <v>-108695380</v>
       </c>
     </row>
     <row r="702">
@@ -10506,7 +10506,7 @@
         <v>2012</v>
       </c>
       <c r="D702" t="n">
-        <v>0</v>
+        <v>-40783750</v>
       </c>
     </row>
     <row r="703">
@@ -10520,7 +10520,7 @@
         <v>2013</v>
       </c>
       <c r="D703" t="n">
-        <v>0</v>
+        <v>-18720629</v>
       </c>
     </row>
     <row r="704">
@@ -10534,7 +10534,7 @@
         <v>2014</v>
       </c>
       <c r="D704" t="n">
-        <v>0</v>
+        <v>-24278431</v>
       </c>
     </row>
     <row r="705">
@@ -10548,7 +10548,7 @@
         <v>2015</v>
       </c>
       <c r="D705" t="n">
-        <v>0</v>
+        <v>46030000</v>
       </c>
     </row>
     <row r="706">
@@ -10562,7 +10562,7 @@
         <v>2000</v>
       </c>
       <c r="D706" t="n">
-        <v>126478809</v>
+        <v>14248403</v>
       </c>
     </row>
     <row r="707">
@@ -10576,7 +10576,7 @@
         <v>2001</v>
       </c>
       <c r="D707" t="n">
-        <v>-1712263</v>
+        <v>12037932</v>
       </c>
     </row>
     <row r="708">
@@ -10590,7 +10590,7 @@
         <v>2002</v>
       </c>
       <c r="D708" t="n">
-        <v>-2061301</v>
+        <v>5572953</v>
       </c>
     </row>
     <row r="709">
@@ -10604,7 +10604,7 @@
         <v>2003</v>
       </c>
       <c r="D709" t="n">
-        <v>-2136287</v>
+        <v>89120</v>
       </c>
     </row>
     <row r="710">
@@ -10618,7 +10618,7 @@
         <v>2004</v>
       </c>
       <c r="D710" t="n">
-        <v>-730447206</v>
+        <v>0</v>
       </c>
     </row>
     <row r="711">
@@ -10632,7 +10632,7 @@
         <v>2005</v>
       </c>
       <c r="D711" t="n">
-        <v>-2794073</v>
+        <v>0</v>
       </c>
     </row>
     <row r="712">
@@ -10646,7 +10646,7 @@
         <v>2006</v>
       </c>
       <c r="D712" t="n">
-        <v>-19846098</v>
+        <v>23158359</v>
       </c>
     </row>
     <row r="713">
@@ -10660,7 +10660,7 @@
         <v>2007</v>
       </c>
       <c r="D713" t="n">
-        <v>-206538847</v>
+        <v>0</v>
       </c>
     </row>
     <row r="714">
@@ -10730,7 +10730,7 @@
         <v>2012</v>
       </c>
       <c r="D718" t="n">
-        <v>1742527</v>
+        <v>0</v>
       </c>
     </row>
     <row r="719">
@@ -10744,7 +10744,7 @@
         <v>2013</v>
       </c>
       <c r="D719" t="n">
-        <v>2520346</v>
+        <v>0</v>
       </c>
     </row>
     <row r="720">
@@ -10758,7 +10758,7 @@
         <v>2014</v>
       </c>
       <c r="D720" t="n">
-        <v>1550810</v>
+        <v>0</v>
       </c>
     </row>
     <row r="721">
@@ -10772,7 +10772,7 @@
         <v>2015</v>
       </c>
       <c r="D721" t="n">
-        <v>-450000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="722">
@@ -10828,7 +10828,7 @@
         <v>2003</v>
       </c>
       <c r="D725" t="n">
-        <v>0</v>
+        <v>56277181</v>
       </c>
     </row>
     <row r="726">
@@ -10842,7 +10842,7 @@
         <v>2004</v>
       </c>
       <c r="D726" t="n">
-        <v>0</v>
+        <v>920246091</v>
       </c>
     </row>
     <row r="727">
@@ -10856,7 +10856,7 @@
         <v>2005</v>
       </c>
       <c r="D727" t="n">
-        <v>0</v>
+        <v>402287854</v>
       </c>
     </row>
     <row r="728">
@@ -10870,7 +10870,7 @@
         <v>2006</v>
       </c>
       <c r="D728" t="n">
-        <v>0</v>
+        <v>-123301384</v>
       </c>
     </row>
     <row r="729">
@@ -10884,7 +10884,7 @@
         <v>2007</v>
       </c>
       <c r="D729" t="n">
-        <v>0</v>
+        <v>-35462960</v>
       </c>
     </row>
     <row r="730">
@@ -10898,7 +10898,7 @@
         <v>2008</v>
       </c>
       <c r="D730" t="n">
-        <v>0</v>
+        <v>-1953943</v>
       </c>
     </row>
     <row r="731">
@@ -10912,7 +10912,7 @@
         <v>2009</v>
       </c>
       <c r="D731" t="n">
-        <v>0</v>
+        <v>-9465011</v>
       </c>
     </row>
     <row r="732">
@@ -10926,7 +10926,7 @@
         <v>2010</v>
       </c>
       <c r="D732" t="n">
-        <v>0</v>
+        <v>-19902561</v>
       </c>
     </row>
     <row r="733">
@@ -10940,7 +10940,7 @@
         <v>2011</v>
       </c>
       <c r="D733" t="n">
-        <v>0</v>
+        <v>9495961</v>
       </c>
     </row>
     <row r="734">
@@ -10954,7 +10954,7 @@
         <v>2012</v>
       </c>
       <c r="D734" t="n">
-        <v>0</v>
+        <v>45933508</v>
       </c>
     </row>
     <row r="735">
@@ -10968,7 +10968,7 @@
         <v>2013</v>
       </c>
       <c r="D735" t="n">
-        <v>0</v>
+        <v>-10623685</v>
       </c>
     </row>
     <row r="736">
@@ -10982,7 +10982,7 @@
         <v>2014</v>
       </c>
       <c r="D736" t="n">
-        <v>0</v>
+        <v>62564992</v>
       </c>
     </row>
     <row r="737">
@@ -10996,7 +10996,7 @@
         <v>2015</v>
       </c>
       <c r="D737" t="n">
-        <v>0</v>
+        <v>112780000</v>
       </c>
     </row>
     <row r="738">
@@ -11010,7 +11010,7 @@
         <v>2000</v>
       </c>
       <c r="D738" t="n">
-        <v>181669</v>
+        <v>0</v>
       </c>
     </row>
     <row r="739">
@@ -11024,7 +11024,7 @@
         <v>2001</v>
       </c>
       <c r="D739" t="n">
-        <v>1802117</v>
+        <v>0</v>
       </c>
     </row>
     <row r="740">
@@ -11038,7 +11038,7 @@
         <v>2002</v>
       </c>
       <c r="D740" t="n">
-        <v>2551633</v>
+        <v>0</v>
       </c>
     </row>
     <row r="741">
@@ -11052,7 +11052,7 @@
         <v>2003</v>
       </c>
       <c r="D741" t="n">
-        <v>-17973394</v>
+        <v>0</v>
       </c>
     </row>
     <row r="742">
@@ -11066,7 +11066,7 @@
         <v>2004</v>
       </c>
       <c r="D742" t="n">
-        <v>-67444662</v>
+        <v>0</v>
       </c>
     </row>
     <row r="743">
@@ -11080,7 +11080,7 @@
         <v>2005</v>
       </c>
       <c r="D743" t="n">
-        <v>-4249274</v>
+        <v>0</v>
       </c>
     </row>
     <row r="744">
@@ -11094,7 +11094,7 @@
         <v>2006</v>
       </c>
       <c r="D744" t="n">
-        <v>-1771762</v>
+        <v>0</v>
       </c>
     </row>
     <row r="745">
@@ -11108,7 +11108,7 @@
         <v>2007</v>
       </c>
       <c r="D745" t="n">
-        <v>-42597065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="746">
@@ -11122,7 +11122,7 @@
         <v>2008</v>
       </c>
       <c r="D746" t="n">
-        <v>27013240</v>
+        <v>0</v>
       </c>
     </row>
     <row r="747">
@@ -11136,7 +11136,7 @@
         <v>2009</v>
       </c>
       <c r="D747" t="n">
-        <v>66936931</v>
+        <v>8858601</v>
       </c>
     </row>
     <row r="748">
@@ -11150,7 +11150,7 @@
         <v>2010</v>
       </c>
       <c r="D748" t="n">
-        <v>45770</v>
+        <v>-1691875</v>
       </c>
     </row>
     <row r="749">
@@ -11164,7 +11164,7 @@
         <v>2011</v>
       </c>
       <c r="D749" t="n">
-        <v>-108695380</v>
+        <v>21730329</v>
       </c>
     </row>
     <row r="750">
@@ -11178,7 +11178,7 @@
         <v>2012</v>
       </c>
       <c r="D750" t="n">
-        <v>-40783750</v>
+        <v>54855039</v>
       </c>
     </row>
     <row r="751">
@@ -11192,7 +11192,7 @@
         <v>2013</v>
       </c>
       <c r="D751" t="n">
-        <v>-18720629</v>
+        <v>6663118</v>
       </c>
     </row>
     <row r="752">
@@ -11206,7 +11206,7 @@
         <v>2014</v>
       </c>
       <c r="D752" t="n">
-        <v>-24278431</v>
+        <v>449580141</v>
       </c>
     </row>
     <row r="753">
@@ -11220,7 +11220,7 @@
         <v>2015</v>
       </c>
       <c r="D753" t="n">
-        <v>46030000</v>
+        <v>3836180000</v>
       </c>
     </row>
     <row r="754">
@@ -11234,7 +11234,7 @@
         <v>2000</v>
       </c>
       <c r="D754" t="n">
-        <v>0</v>
+        <v>-101988872</v>
       </c>
     </row>
     <row r="755">
@@ -11248,7 +11248,7 @@
         <v>2001</v>
       </c>
       <c r="D755" t="n">
-        <v>0</v>
+        <v>33427959</v>
       </c>
     </row>
     <row r="756">
@@ -11262,7 +11262,7 @@
         <v>2002</v>
       </c>
       <c r="D756" t="n">
-        <v>0</v>
+        <v>-5306617</v>
       </c>
     </row>
     <row r="757">
@@ -11276,7 +11276,7 @@
         <v>2003</v>
       </c>
       <c r="D757" t="n">
-        <v>56277181</v>
+        <v>61413253</v>
       </c>
     </row>
     <row r="758">
@@ -11290,7 +11290,7 @@
         <v>2004</v>
       </c>
       <c r="D758" t="n">
-        <v>920246091</v>
+        <v>-165974547</v>
       </c>
     </row>
     <row r="759">
@@ -11304,7 +11304,7 @@
         <v>2005</v>
       </c>
       <c r="D759" t="n">
-        <v>402287854</v>
+        <v>-103683053</v>
       </c>
     </row>
     <row r="760">
@@ -11318,7 +11318,7 @@
         <v>2006</v>
       </c>
       <c r="D760" t="n">
-        <v>-123301384</v>
+        <v>-188025295</v>
       </c>
     </row>
     <row r="761">
@@ -11332,7 +11332,7 @@
         <v>2007</v>
       </c>
       <c r="D761" t="n">
-        <v>-35462960</v>
+        <v>-38775881</v>
       </c>
     </row>
     <row r="762">
@@ -11346,7 +11346,7 @@
         <v>2008</v>
       </c>
       <c r="D762" t="n">
-        <v>-1953943</v>
+        <v>-21710817</v>
       </c>
     </row>
     <row r="763">
@@ -11360,7 +11360,7 @@
         <v>2009</v>
       </c>
       <c r="D763" t="n">
-        <v>-9465011</v>
+        <v>-14277336</v>
       </c>
     </row>
     <row r="764">
@@ -11374,7 +11374,7 @@
         <v>2010</v>
       </c>
       <c r="D764" t="n">
-        <v>-19902561</v>
+        <v>-20486481</v>
       </c>
     </row>
     <row r="765">
@@ -11388,7 +11388,7 @@
         <v>2011</v>
       </c>
       <c r="D765" t="n">
-        <v>9495961</v>
+        <v>-40367762</v>
       </c>
     </row>
     <row r="766">
@@ -11402,7 +11402,7 @@
         <v>2012</v>
       </c>
       <c r="D766" t="n">
-        <v>45933508</v>
+        <v>36444188</v>
       </c>
     </row>
     <row r="767">
@@ -11416,7 +11416,7 @@
         <v>2013</v>
       </c>
       <c r="D767" t="n">
-        <v>-10623685</v>
+        <v>187516380</v>
       </c>
     </row>
     <row r="768">
@@ -11430,7 +11430,7 @@
         <v>2014</v>
       </c>
       <c r="D768" t="n">
-        <v>62564992</v>
+        <v>38527357</v>
       </c>
     </row>
     <row r="769">
@@ -11444,7 +11444,7 @@
         <v>2015</v>
       </c>
       <c r="D769" t="n">
-        <v>112780000</v>
+        <v>0</v>
       </c>
     </row>
     <row r="770">
